--- a/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
+++ b/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au616115_uni_au_dk/Documents/PRJ4 (Semesterprojekt)/4SemesterProjekt/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{22A39B24-9928-427D-B303-F846D33CEE74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3AD0E270-0994-49A8-BBDB-A7D5210A1A1B}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{22A39B24-9928-427D-B303-F846D33CEE74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FAFBCE07-4BF4-49B1-878E-7A6DB9EC32EA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7FB17CDE-9607-435E-9AA5-DF80C5DE3E68}"/>
   </bookViews>
@@ -91,6 +91,1165 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Varmelegeme</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> Steprespons</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Forudsigelse</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1229924973927973E-3"/>
+                  <c:y val="-5.3029125624157465E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$B$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="107"/>
+                <c:pt idx="0">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>104.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>112.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>114.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>127.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>129.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>131.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>134.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>135.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>138.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>139.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>142.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>144.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>145.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>147.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>149.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>150.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>153.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>154.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>157.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>158.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>160.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>162.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>163.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>165.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>166.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>169.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>169.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>171.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>174.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>176.2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>178.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>179.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>180.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>181.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>183.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>184.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>185.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>188.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>189.9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>190.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>192.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>192.9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>193.9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>194.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>195.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>196.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>198.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>199.1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>199.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-898D-4515-B05A-47DDD5AD62B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="442557368"/>
+        <c:axId val="442557696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="442557368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442557696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="442557696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442557368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84150E10-1FB0-4720-9041-E048298A6B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376E557A-5CFE-4B1E-958C-F4C336D66247}">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,22 +2423,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1492,18 +2652,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F5EB18-C846-434C-87C9-AFFDF4A53335}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58DF3A9C-8D28-449E-B6DE-8A6AE8CF3D45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58DF3A9C-8D28-449E-B6DE-8A6AE8CF3D45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F5EB18-C846-434C-87C9-AFFDF4A53335}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
+++ b/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au616115_uni_au_dk/Documents/PRJ4 (Semesterprojekt)/4SemesterProjekt/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{22A39B24-9928-427D-B303-F846D33CEE74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FAFBCE07-4BF4-49B1-878E-7A6DB9EC32EA}"/>
+  <xr:revisionPtr revIDLastSave="575" documentId="13_ncr:1_{22A39B24-9928-427D-B303-F846D33CEE74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57B9C99A-16C3-48EB-A7AB-E10081B99B2F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7FB17CDE-9607-435E-9AA5-DF80C5DE3E68}"/>
   </bookViews>
@@ -33,12 +33,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Tid</t>
+    <t>Temp60</t>
   </si>
   <si>
-    <t>Temperatur</t>
+    <t>Tid60</t>
+  </si>
+  <si>
+    <t>Temp80</t>
+  </si>
+  <si>
+    <t>Tid80</t>
+  </si>
+  <si>
+    <t>Temp100</t>
+  </si>
+  <si>
+    <t>Tid100</t>
   </si>
 </sst>
 </file>
@@ -132,12 +144,20 @@
             </a:r>
             <a:r>
               <a:rPr lang="da-DK" baseline="0"/>
-              <a:t> Steprespons</a:t>
+              <a:t> Steprespons Steady-State forudsigelse</a:t>
             </a:r>
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44078553641356294"/>
+          <c:y val="0.26995396545864614"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -200,299 +220,331 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:name>Forudsigelse</c:name>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.1229924973927973E-3"/>
-                  <c:y val="-5.3029125624157465E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$B$136</c:f>
+              <c:f>Sheet1!$B$2:$B$297</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>59.7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="29">
                   <c:v>62.7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="30">
                   <c:v>65.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="31">
                   <c:v>68.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="32">
                   <c:v>70.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="33">
                   <c:v>73.2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="34">
                   <c:v>75.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="35">
                   <c:v>78.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="36">
                   <c:v>80.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="37">
                   <c:v>82.8</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="38">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="39">
                   <c:v>87.7</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="40">
                   <c:v>89.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="41">
                   <c:v>92.6</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="42">
                   <c:v>95.3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="43">
                   <c:v>97.4</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="44">
                   <c:v>99.6</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="45">
                   <c:v>101.5</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="46">
                   <c:v>104.7</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="47">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="48">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="49">
                   <c:v>112.4</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="50">
                   <c:v>114.4</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="51">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="52">
                   <c:v>121.9</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="53">
                   <c:v>123.6</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="54">
                   <c:v>125.2</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="55">
                   <c:v>127.8</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="56">
                   <c:v>129.9</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="57">
                   <c:v>131.69999999999999</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="58">
                   <c:v>134.1</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="59">
                   <c:v>135.19999999999999</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="60">
                   <c:v>138.1</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="61">
                   <c:v>139.9</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="62">
                   <c:v>142.6</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="63">
                   <c:v>144.1</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="64">
                   <c:v>145.6</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="65">
                   <c:v>147.9</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="66">
                   <c:v>149.69999999999999</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="67">
                   <c:v>150.9</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="68">
                   <c:v>153.1</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="69">
                   <c:v>154.9</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="70">
                   <c:v>157.4</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="71">
                   <c:v>158.4</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="72">
                   <c:v>160.4</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="73">
                   <c:v>162.19999999999999</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="74">
                   <c:v>163.69999999999999</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="75">
                   <c:v>165.6</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="76">
                   <c:v>166.6</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="77">
                   <c:v>168</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="78">
                   <c:v>169.5</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="79">
                   <c:v>169.7</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="80">
                   <c:v>171.1</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="81">
                   <c:v>172.2</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="82">
                   <c:v>174.5</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="83">
                   <c:v>176.2</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="84">
                   <c:v>177</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="85">
                   <c:v>178.2</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="86">
                   <c:v>179.5</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="87">
                   <c:v>180.8</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="88">
                   <c:v>181.8</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="89">
                   <c:v>183.3</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="90">
                   <c:v>184.9</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="91">
                   <c:v>185.5</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="92">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="93">
                   <c:v>188.4</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="94">
                   <c:v>189.9</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="95">
                   <c:v>190.6</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="96">
                   <c:v>191.5</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="97">
                   <c:v>192.5</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="98">
                   <c:v>192.9</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="99">
                   <c:v>193.9</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="100">
                   <c:v>194.7</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="101">
                   <c:v>195.6</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="102">
                   <c:v>196.7</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="103">
                   <c:v>198</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="104">
                   <c:v>198.6</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="105">
                   <c:v>199.1</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="106">
                   <c:v>199.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -671,10 +723,2000 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Varmelegeme Steprespons Steady-State 200mHz, 80%</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$297</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="296"/>
+                <c:pt idx="0">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>78.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>82.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>92.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>97.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>100.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>106.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>110.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>112.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>114.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>118.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>120.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>123.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>125.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>127.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>128.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>130.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>132.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>133.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>135.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>136.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>138.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>139.9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>143.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>144.4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>145.6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>147.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>149.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>150.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>151.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>154.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>155.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>156.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>159.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>160.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>161.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>162.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>163.4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>167.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>168.9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>170.2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>170.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>171.7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>173.2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>173.9</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>175.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>177.1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>178.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>179.3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>180.6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>181.4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>182.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>182.8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>183.6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>184.7</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>185.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>186.1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>186.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>187.9</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>188.2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>189.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>190.7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>191.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>192.1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>192.9</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>193.3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>193.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>194.4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>194.9</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>195.1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>195.4</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>196.1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>196.7</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>197.2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>197.3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>198.2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>199.2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>199.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>199.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E95-49FC-979E-9DEE55D99CEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="401497016"/>
+        <c:axId val="401491440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="401497016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401491440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="401491440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401497016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Varmelegeme Steprespons Steady-State 200mHz, 60%</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="97000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$297</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="296"/>
+                <c:pt idx="0">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>73.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>88.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>91.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>92.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>93.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>101.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>104.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>106.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>108.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>109.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>110.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>111.9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>115.6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>118.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>119.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>121.2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>121.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>122.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>124.8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>125.9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>127.8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>128.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>129.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>130.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>131.9</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>132.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>134.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>135.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>136.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>137.6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>138.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>138.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>139.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>140.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>141.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>141.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>142.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>142.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>144.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>144.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>145.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>146.4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>146.6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>147.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>147.6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>148.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>149.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>149.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>150.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>150.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>151.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>151.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>152.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>152.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>153.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>153.9</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>154.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>154.9</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>155.1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>155.5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>155.9</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>156.6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>157.4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>157.9</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>158.1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>158.4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>159.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>159.4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>159.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>160.6</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>160.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>160.9</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>160.9</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>161.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>162.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>162.4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>163.1</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163.9</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164.3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>164.6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>164.7</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>165.4</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>165.9</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>166.6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>166.6</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>166.9</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>167.1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>167.2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>167.4</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>167.5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>168.2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>168.1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>167.9</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>168.5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>168.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>169.1</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>169.2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>169.9</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>169.5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>170.2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>170.1</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>170.9</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>171.2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>171.3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>171.8</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>172.7</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>172.8</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>172.7</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>172.8</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>173.1</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>173.2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>173.2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>173.1</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>173.3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>173.6</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>173.9</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>174.4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>173.8</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>173.8</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>174.5</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>174.1</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>174.2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>174.4</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>174.5</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>174.4</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>174.9</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>174.6</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>174.9</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>175.1</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>175.2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>175.5</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>175.3</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>175.5</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>175.2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>175.1</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>174.9</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>175.5</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>176.1</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>176.1</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>175.8</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>175.8</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>175.9</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>176.2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>175.8</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>176.1</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>176.2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>176.2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>175.9</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>176.1</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>176.1</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>176.1</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>176.2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>175.9</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>176.3</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>176.3</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>176.4</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>176.1</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>176.3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>176.6</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>177.1</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>176.4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>176.9</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>176.7</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>176.5</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>176.3</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>176.2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>176.3</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>176.5</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>176.7</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>177.1</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>176.9</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>176.6</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>177.1</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>176.6</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>176.3</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>175.7</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>176.2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>176.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D16-44AF-ACE2-B6844A814A8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="758686480"/>
+        <c:axId val="758685168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="758686480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758685168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="758685168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758686480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1211,20 +3253,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>492472</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>18266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>49181</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>105974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1244,6 +4292,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>503518</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5433</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104935</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E725376-587A-4B40-953F-9610C8FBFBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>539718</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>164123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>597877</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131544</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA559411-FD9D-4909-B2C4-1621BE5EDCDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1549,876 +4669,3912 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376E557A-5CFE-4B1E-958C-F4C336D66247}">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:F297"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>21.6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>21.9</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>22.2</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="B5">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>22.6</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>22.8</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>23.3</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>24</v>
       </c>
       <c r="B8">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>24.1</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>28</v>
       </c>
       <c r="B9">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>24.6</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>32</v>
       </c>
       <c r="B10">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>25.1</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>36</v>
       </c>
       <c r="B11">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>40</v>
       </c>
       <c r="B12">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>26.8</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>44</v>
       </c>
       <c r="B13">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>27.5</v>
+      </c>
+      <c r="E13">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>48</v>
       </c>
       <c r="B14">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>28.8</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>52</v>
       </c>
       <c r="B15">
         <v>31.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>29.6</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>56</v>
       </c>
       <c r="B16">
         <v>33.299999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>30.6</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>60</v>
       </c>
       <c r="B17">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>75</v>
+      </c>
+      <c r="D17">
+        <v>31.9</v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>64</v>
       </c>
       <c r="B18">
         <v>35.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>33.1</v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>68</v>
       </c>
       <c r="B19">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E19">
+        <v>85</v>
+      </c>
+      <c r="F19">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>72</v>
       </c>
       <c r="B20">
         <v>38.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="D20">
+        <v>36.4</v>
+      </c>
+      <c r="E20">
+        <v>90</v>
+      </c>
+      <c r="F20">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>76</v>
       </c>
       <c r="B21">
         <v>40.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>38.1</v>
+      </c>
+      <c r="E21">
+        <v>95</v>
+      </c>
+      <c r="F21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>80</v>
       </c>
       <c r="B22">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>39.6</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>84</v>
       </c>
       <c r="B23">
         <v>44.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>105</v>
+      </c>
+      <c r="D23">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E23">
+        <v>105</v>
+      </c>
+      <c r="F23">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>88</v>
       </c>
       <c r="B24">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>110</v>
+      </c>
+      <c r="D24">
+        <v>42.6</v>
+      </c>
+      <c r="E24">
+        <v>110</v>
+      </c>
+      <c r="F24">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>92</v>
       </c>
       <c r="B25">
         <v>47.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>115</v>
+      </c>
+      <c r="D25">
+        <v>44.3</v>
+      </c>
+      <c r="E25">
+        <v>115</v>
+      </c>
+      <c r="F25">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>96</v>
       </c>
       <c r="B26">
         <v>50.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>100</v>
       </c>
       <c r="B27">
         <v>52.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>125</v>
+      </c>
+      <c r="D27">
+        <v>47.6</v>
+      </c>
+      <c r="E27">
+        <v>125</v>
+      </c>
+      <c r="F27">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>104</v>
       </c>
       <c r="B28">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>130</v>
+      </c>
+      <c r="D28">
+        <v>49.8</v>
+      </c>
+      <c r="E28">
+        <v>130</v>
+      </c>
+      <c r="F28">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>108</v>
       </c>
       <c r="B29">
         <v>58.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>135</v>
+      </c>
+      <c r="D29">
+        <v>51.9</v>
+      </c>
+      <c r="E29">
+        <v>135</v>
+      </c>
+      <c r="F29">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>112</v>
       </c>
       <c r="B30">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>140</v>
+      </c>
+      <c r="D30">
+        <v>54.1</v>
+      </c>
+      <c r="E30">
+        <v>140</v>
+      </c>
+      <c r="F30">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>116</v>
       </c>
       <c r="B31">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>145</v>
+      </c>
+      <c r="D31">
+        <v>55.7</v>
+      </c>
+      <c r="E31">
+        <v>145</v>
+      </c>
+      <c r="F31">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>120</v>
       </c>
       <c r="B32">
         <v>65.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>150</v>
+      </c>
+      <c r="D32">
+        <v>57.6</v>
+      </c>
+      <c r="E32">
+        <v>150</v>
+      </c>
+      <c r="F32">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>124</v>
       </c>
       <c r="B33">
         <v>68.400000000000006</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>155</v>
+      </c>
+      <c r="D33">
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <v>155</v>
+      </c>
+      <c r="F33">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>128</v>
       </c>
       <c r="B34">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>160</v>
+      </c>
+      <c r="D34">
+        <v>61.7</v>
+      </c>
+      <c r="E34">
+        <v>160</v>
+      </c>
+      <c r="F34">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>132</v>
       </c>
       <c r="B35">
         <v>73.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>165</v>
+      </c>
+      <c r="D35">
+        <v>63.7</v>
+      </c>
+      <c r="E35">
+        <v>165</v>
+      </c>
+      <c r="F35">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>136</v>
       </c>
       <c r="B36">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>170</v>
+      </c>
+      <c r="D36">
+        <v>65.7</v>
+      </c>
+      <c r="E36">
+        <v>170</v>
+      </c>
+      <c r="F36">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>140</v>
       </c>
       <c r="B37">
         <v>78.400000000000006</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>175</v>
+      </c>
+      <c r="D37">
+        <v>68</v>
+      </c>
+      <c r="E37">
+        <v>175</v>
+      </c>
+      <c r="F37">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>144</v>
       </c>
       <c r="B38">
         <v>80.400000000000006</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>180</v>
+      </c>
+      <c r="D38">
+        <v>70.2</v>
+      </c>
+      <c r="E38">
+        <v>180</v>
+      </c>
+      <c r="F38">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>148</v>
       </c>
       <c r="B39">
         <v>82.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>185</v>
+      </c>
+      <c r="D39">
+        <v>72</v>
+      </c>
+      <c r="E39">
+        <v>185</v>
+      </c>
+      <c r="F39">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>152</v>
       </c>
       <c r="B40">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>190</v>
+      </c>
+      <c r="D40">
+        <v>74</v>
+      </c>
+      <c r="E40">
+        <v>190</v>
+      </c>
+      <c r="F40">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>156</v>
       </c>
       <c r="B41">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>195</v>
+      </c>
+      <c r="D41">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E41">
+        <v>195</v>
+      </c>
+      <c r="F41">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>160</v>
       </c>
       <c r="B42">
         <v>89.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>200</v>
+      </c>
+      <c r="D42">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E42">
+        <v>200</v>
+      </c>
+      <c r="F42">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>164</v>
       </c>
       <c r="B43">
         <v>92.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>205</v>
+      </c>
+      <c r="D43">
+        <v>80.5</v>
+      </c>
+      <c r="E43">
+        <v>205</v>
+      </c>
+      <c r="F43">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>168</v>
       </c>
       <c r="B44">
         <v>95.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>210</v>
+      </c>
+      <c r="D44">
+        <v>82.7</v>
+      </c>
+      <c r="E44">
+        <v>210</v>
+      </c>
+      <c r="F44">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>172</v>
       </c>
       <c r="B45">
         <v>97.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>215</v>
+      </c>
+      <c r="D45">
+        <v>84.5</v>
+      </c>
+      <c r="E45">
+        <v>215</v>
+      </c>
+      <c r="F45">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>176</v>
       </c>
       <c r="B46">
         <v>99.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>220</v>
+      </c>
+      <c r="D46">
+        <v>86.5</v>
+      </c>
+      <c r="E46">
+        <v>220</v>
+      </c>
+      <c r="F46">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>180</v>
       </c>
       <c r="B47">
         <v>101.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>225</v>
+      </c>
+      <c r="D47">
+        <v>88.5</v>
+      </c>
+      <c r="E47">
+        <v>225</v>
+      </c>
+      <c r="F47">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>184</v>
       </c>
       <c r="B48">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>230</v>
+      </c>
+      <c r="D48">
+        <v>90.5</v>
+      </c>
+      <c r="E48">
+        <v>230</v>
+      </c>
+      <c r="F48">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>188</v>
       </c>
       <c r="B49">
         <v>107</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>235</v>
+      </c>
+      <c r="D49">
+        <v>92.9</v>
+      </c>
+      <c r="E49">
+        <v>235</v>
+      </c>
+      <c r="F49">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>192</v>
       </c>
       <c r="B50">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>240</v>
+      </c>
+      <c r="D50">
+        <v>95</v>
+      </c>
+      <c r="E50">
+        <v>240</v>
+      </c>
+      <c r="F50">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>196</v>
       </c>
       <c r="B51">
         <v>112.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>245</v>
+      </c>
+      <c r="D51">
+        <v>97.1</v>
+      </c>
+      <c r="E51">
+        <v>245</v>
+      </c>
+      <c r="F51">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>200</v>
       </c>
       <c r="B52">
         <v>114.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>250</v>
+      </c>
+      <c r="D52">
+        <v>98.3</v>
+      </c>
+      <c r="E52">
+        <v>250</v>
+      </c>
+      <c r="F52">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>204</v>
       </c>
       <c r="B53">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>255</v>
+      </c>
+      <c r="D53">
+        <v>100.6</v>
+      </c>
+      <c r="E53">
+        <v>255</v>
+      </c>
+      <c r="F53">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>208</v>
       </c>
       <c r="B54">
         <v>121.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>260</v>
+      </c>
+      <c r="D54">
+        <v>102.5</v>
+      </c>
+      <c r="E54">
+        <v>260</v>
+      </c>
+      <c r="F54">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>212</v>
       </c>
       <c r="B55">
         <v>123.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>265</v>
+      </c>
+      <c r="D55">
+        <v>105</v>
+      </c>
+      <c r="E55">
+        <v>265</v>
+      </c>
+      <c r="F55">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>216</v>
       </c>
       <c r="B56">
         <v>125.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>270</v>
+      </c>
+      <c r="D56">
+        <v>106.3</v>
+      </c>
+      <c r="E56">
+        <v>270</v>
+      </c>
+      <c r="F56">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>220</v>
       </c>
       <c r="B57">
         <v>127.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>275</v>
+      </c>
+      <c r="D57">
+        <v>108</v>
+      </c>
+      <c r="E57">
+        <v>275</v>
+      </c>
+      <c r="F57">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>224</v>
       </c>
       <c r="B58">
         <v>129.9</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>280</v>
+      </c>
+      <c r="D58">
+        <v>110.2</v>
+      </c>
+      <c r="E58">
+        <v>280</v>
+      </c>
+      <c r="F58">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>228</v>
       </c>
       <c r="B59">
         <v>131.69999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>285</v>
+      </c>
+      <c r="D59">
+        <v>112.3</v>
+      </c>
+      <c r="E59">
+        <v>285</v>
+      </c>
+      <c r="F59">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>232</v>
       </c>
       <c r="B60">
         <v>134.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>290</v>
+      </c>
+      <c r="D60">
+        <v>114.2</v>
+      </c>
+      <c r="E60">
+        <v>290</v>
+      </c>
+      <c r="F60">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>236</v>
       </c>
       <c r="B61">
         <v>135.19999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>295</v>
+      </c>
+      <c r="D61">
+        <v>116</v>
+      </c>
+      <c r="E61">
+        <v>295</v>
+      </c>
+      <c r="F61">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>240</v>
       </c>
       <c r="B62">
         <v>138.1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>300</v>
+      </c>
+      <c r="D62">
+        <v>118.3</v>
+      </c>
+      <c r="E62">
+        <v>300</v>
+      </c>
+      <c r="F62">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>244</v>
       </c>
       <c r="B63">
         <v>139.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>305</v>
+      </c>
+      <c r="D63">
+        <v>120.1</v>
+      </c>
+      <c r="E63">
+        <v>305</v>
+      </c>
+      <c r="F63">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>248</v>
       </c>
       <c r="B64">
         <v>142.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>310</v>
+      </c>
+      <c r="D64">
+        <v>122</v>
+      </c>
+      <c r="E64">
+        <v>310</v>
+      </c>
+      <c r="F64">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>252</v>
       </c>
       <c r="B65">
         <v>144.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>315</v>
+      </c>
+      <c r="D65">
+        <v>123.3</v>
+      </c>
+      <c r="E65">
+        <v>315</v>
+      </c>
+      <c r="F65">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>256</v>
       </c>
       <c r="B66">
         <v>145.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>320</v>
+      </c>
+      <c r="D66">
+        <v>125.3</v>
+      </c>
+      <c r="E66">
+        <v>320</v>
+      </c>
+      <c r="F66">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>260</v>
       </c>
       <c r="B67">
         <v>147.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>325</v>
+      </c>
+      <c r="D67">
+        <v>127.6</v>
+      </c>
+      <c r="E67">
+        <v>325</v>
+      </c>
+      <c r="F67">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>264</v>
       </c>
       <c r="B68">
         <v>149.69999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>330</v>
+      </c>
+      <c r="D68">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="E68">
+        <v>330</v>
+      </c>
+      <c r="F68">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>268</v>
       </c>
       <c r="B69">
         <v>150.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>335</v>
+      </c>
+      <c r="D69">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="E69">
+        <v>335</v>
+      </c>
+      <c r="F69">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>272</v>
       </c>
       <c r="B70">
         <v>153.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>340</v>
+      </c>
+      <c r="D70">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="E70">
+        <v>340</v>
+      </c>
+      <c r="F70">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>276</v>
       </c>
       <c r="B71">
         <v>154.9</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>345</v>
+      </c>
+      <c r="D71">
+        <v>133.9</v>
+      </c>
+      <c r="E71">
+        <v>345</v>
+      </c>
+      <c r="F71">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>280</v>
       </c>
       <c r="B72">
         <v>157.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>350</v>
+      </c>
+      <c r="D72">
+        <v>135.5</v>
+      </c>
+      <c r="E72">
+        <v>350</v>
+      </c>
+      <c r="F72">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>284</v>
       </c>
       <c r="B73">
         <v>158.4</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>355</v>
+      </c>
+      <c r="D73">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="E73">
+        <v>355</v>
+      </c>
+      <c r="F73">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>288</v>
       </c>
       <c r="B74">
         <v>160.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>360</v>
+      </c>
+      <c r="D74">
+        <v>138.6</v>
+      </c>
+      <c r="E74">
+        <v>360</v>
+      </c>
+      <c r="F74">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>292</v>
       </c>
       <c r="B75">
         <v>162.19999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>365</v>
+      </c>
+      <c r="D75">
+        <v>139.9</v>
+      </c>
+      <c r="E75">
+        <v>365</v>
+      </c>
+      <c r="F75">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>296</v>
       </c>
       <c r="B76">
         <v>163.69999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>370</v>
+      </c>
+      <c r="D76">
+        <v>141.9</v>
+      </c>
+      <c r="E76">
+        <v>370</v>
+      </c>
+      <c r="F76">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>300</v>
       </c>
       <c r="B77">
         <v>165.6</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>375</v>
+      </c>
+      <c r="D77">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="E77">
+        <v>375</v>
+      </c>
+      <c r="F77">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>304</v>
       </c>
       <c r="B78">
         <v>166.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>380</v>
+      </c>
+      <c r="D78">
+        <v>144.4</v>
+      </c>
+      <c r="E78">
+        <v>380</v>
+      </c>
+      <c r="F78">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>308</v>
       </c>
       <c r="B79">
         <v>168</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>385</v>
+      </c>
+      <c r="D79">
+        <v>145.6</v>
+      </c>
+      <c r="E79">
+        <v>385</v>
+      </c>
+      <c r="F79">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>312</v>
       </c>
       <c r="B80">
         <v>169.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>390</v>
+      </c>
+      <c r="D80">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="E80">
+        <v>390</v>
+      </c>
+      <c r="F80">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>316</v>
       </c>
       <c r="B81">
         <v>169.7</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>395</v>
+      </c>
+      <c r="D81">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="E81">
+        <v>395</v>
+      </c>
+      <c r="F81">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>320</v>
       </c>
       <c r="B82">
         <v>171.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>400</v>
+      </c>
+      <c r="D82">
+        <v>150.4</v>
+      </c>
+      <c r="E82">
+        <v>400</v>
+      </c>
+      <c r="F82">
+        <v>110.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>324</v>
       </c>
       <c r="B83">
         <v>172.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>405</v>
+      </c>
+      <c r="D83">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="E83">
+        <v>405</v>
+      </c>
+      <c r="F83">
+        <v>111.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>328</v>
       </c>
       <c r="B84">
         <v>174.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>410</v>
+      </c>
+      <c r="D84">
+        <v>153</v>
+      </c>
+      <c r="E84">
+        <v>410</v>
+      </c>
+      <c r="F84">
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>332</v>
       </c>
       <c r="B85">
         <v>176.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>415</v>
+      </c>
+      <c r="D85">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="E85">
+        <v>415</v>
+      </c>
+      <c r="F85">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>336</v>
       </c>
       <c r="B86">
         <v>177</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>420</v>
+      </c>
+      <c r="D86">
+        <v>155.5</v>
+      </c>
+      <c r="E86">
+        <v>420</v>
+      </c>
+      <c r="F86">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>340</v>
       </c>
       <c r="B87">
         <v>178.2</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>425</v>
+      </c>
+      <c r="D87">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="E87">
+        <v>425</v>
+      </c>
+      <c r="F87">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>344</v>
       </c>
       <c r="B88">
         <v>179.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>430</v>
+      </c>
+      <c r="D88">
+        <v>158</v>
+      </c>
+      <c r="E88">
+        <v>430</v>
+      </c>
+      <c r="F88">
+        <v>118.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>348</v>
       </c>
       <c r="B89">
         <v>180.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>435</v>
+      </c>
+      <c r="D89">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="E89">
+        <v>435</v>
+      </c>
+      <c r="F89">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>352</v>
       </c>
       <c r="B90">
         <v>181.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>440</v>
+      </c>
+      <c r="D90">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="E90">
+        <v>440</v>
+      </c>
+      <c r="F90">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>356</v>
       </c>
       <c r="B91">
         <v>183.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>445</v>
+      </c>
+      <c r="D91">
+        <v>161.4</v>
+      </c>
+      <c r="E91">
+        <v>445</v>
+      </c>
+      <c r="F91">
+        <v>121.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>360</v>
       </c>
       <c r="B92">
         <v>184.9</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>450</v>
+      </c>
+      <c r="D92">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="E92">
+        <v>450</v>
+      </c>
+      <c r="F92">
+        <v>121.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>364</v>
       </c>
       <c r="B93">
         <v>185.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>455</v>
+      </c>
+      <c r="D93">
+        <v>163.4</v>
+      </c>
+      <c r="E93">
+        <v>455</v>
+      </c>
+      <c r="F93">
+        <v>122.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>368</v>
       </c>
       <c r="B94">
         <v>187</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>460</v>
+      </c>
+      <c r="D94">
+        <v>165.5</v>
+      </c>
+      <c r="E94">
+        <v>460</v>
+      </c>
+      <c r="F94">
+        <v>123.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>372</v>
       </c>
       <c r="B95">
         <v>188.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>465</v>
+      </c>
+      <c r="D95">
+        <v>165.5</v>
+      </c>
+      <c r="E95">
+        <v>465</v>
+      </c>
+      <c r="F95">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>376</v>
       </c>
       <c r="B96">
         <v>189.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>470</v>
+      </c>
+      <c r="D96">
+        <v>167</v>
+      </c>
+      <c r="E96">
+        <v>470</v>
+      </c>
+      <c r="F96">
+        <v>125.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>380</v>
       </c>
       <c r="B97">
         <v>190.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>475</v>
+      </c>
+      <c r="D97">
+        <v>167.9</v>
+      </c>
+      <c r="E97">
+        <v>475</v>
+      </c>
+      <c r="F97">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>384</v>
       </c>
       <c r="B98">
         <v>191.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>480</v>
+      </c>
+      <c r="D98">
+        <v>168.9</v>
+      </c>
+      <c r="E98">
+        <v>480</v>
+      </c>
+      <c r="F98">
+        <v>127.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>388</v>
       </c>
       <c r="B99">
         <v>192.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>485</v>
+      </c>
+      <c r="D99">
+        <v>170.2</v>
+      </c>
+      <c r="E99">
+        <v>485</v>
+      </c>
+      <c r="F99">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>392</v>
       </c>
       <c r="B100">
         <v>192.9</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>490</v>
+      </c>
+      <c r="D100">
+        <v>170.9</v>
+      </c>
+      <c r="E100">
+        <v>490</v>
+      </c>
+      <c r="F100">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>396</v>
       </c>
       <c r="B101">
         <v>193.9</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>495</v>
+      </c>
+      <c r="D101">
+        <v>171.7</v>
+      </c>
+      <c r="E101">
+        <v>495</v>
+      </c>
+      <c r="F101">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>400</v>
       </c>
       <c r="B102">
         <v>194.7</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>500</v>
+      </c>
+      <c r="D102">
+        <v>173.2</v>
+      </c>
+      <c r="E102">
+        <v>500</v>
+      </c>
+      <c r="F102">
+        <v>130.69999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>404</v>
       </c>
       <c r="B103">
         <v>195.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>505</v>
+      </c>
+      <c r="D103">
+        <v>173.9</v>
+      </c>
+      <c r="E103">
+        <v>505</v>
+      </c>
+      <c r="F103">
+        <v>131.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>408</v>
       </c>
       <c r="B104">
         <v>196.7</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>510</v>
+      </c>
+      <c r="D104">
+        <v>174.7</v>
+      </c>
+      <c r="E104">
+        <v>510</v>
+      </c>
+      <c r="F104">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>412</v>
       </c>
       <c r="B105">
         <v>198</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>515</v>
+      </c>
+      <c r="D105">
+        <v>175.3</v>
+      </c>
+      <c r="E105">
+        <v>515</v>
+      </c>
+      <c r="F105">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>416</v>
       </c>
       <c r="B106">
         <v>198.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>520</v>
+      </c>
+      <c r="D106">
+        <v>176</v>
+      </c>
+      <c r="E106">
+        <v>520</v>
+      </c>
+      <c r="F106">
+        <v>134.80000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>420</v>
       </c>
       <c r="B107">
         <v>199.1</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>525</v>
+      </c>
+      <c r="D107">
+        <v>177.1</v>
+      </c>
+      <c r="E107">
+        <v>525</v>
+      </c>
+      <c r="F107">
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>424</v>
       </c>
       <c r="B108">
         <v>199.9</v>
+      </c>
+      <c r="C108">
+        <v>530</v>
+      </c>
+      <c r="D108">
+        <v>178.6</v>
+      </c>
+      <c r="E108">
+        <v>530</v>
+      </c>
+      <c r="F108">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>535</v>
+      </c>
+      <c r="D109">
+        <v>179.3</v>
+      </c>
+      <c r="E109">
+        <v>535</v>
+      </c>
+      <c r="F109">
+        <v>136.69999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>540</v>
+      </c>
+      <c r="D110">
+        <v>180.6</v>
+      </c>
+      <c r="E110">
+        <v>540</v>
+      </c>
+      <c r="F110">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>545</v>
+      </c>
+      <c r="D111">
+        <v>181.4</v>
+      </c>
+      <c r="E111">
+        <v>545</v>
+      </c>
+      <c r="F111">
+        <v>138.30000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>550</v>
+      </c>
+      <c r="D112">
+        <v>181.7</v>
+      </c>
+      <c r="E112">
+        <v>550</v>
+      </c>
+      <c r="F112">
+        <v>138.80000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>555</v>
+      </c>
+      <c r="D113">
+        <v>182.1</v>
+      </c>
+      <c r="E113">
+        <v>555</v>
+      </c>
+      <c r="F113">
+        <v>139.69999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>560</v>
+      </c>
+      <c r="D114">
+        <v>182.8</v>
+      </c>
+      <c r="E114">
+        <v>560</v>
+      </c>
+      <c r="F114">
+        <v>140.30000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>565</v>
+      </c>
+      <c r="D115">
+        <v>183.6</v>
+      </c>
+      <c r="E115">
+        <v>565</v>
+      </c>
+      <c r="F115">
+        <v>141.30000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>570</v>
+      </c>
+      <c r="D116">
+        <v>184.7</v>
+      </c>
+      <c r="E116">
+        <v>570</v>
+      </c>
+      <c r="F116">
+        <v>141.69999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>575</v>
+      </c>
+      <c r="D117">
+        <v>185.5</v>
+      </c>
+      <c r="E117">
+        <v>575</v>
+      </c>
+      <c r="F117">
+        <v>142.30000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>580</v>
+      </c>
+      <c r="D118">
+        <v>186.1</v>
+      </c>
+      <c r="E118">
+        <v>580</v>
+      </c>
+      <c r="F118">
+        <v>142.6</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>585</v>
+      </c>
+      <c r="D119">
+        <v>186.8</v>
+      </c>
+      <c r="E119">
+        <v>585</v>
+      </c>
+      <c r="F119">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>590</v>
+      </c>
+      <c r="D120">
+        <v>187.9</v>
+      </c>
+      <c r="E120">
+        <v>590</v>
+      </c>
+      <c r="F120">
+        <v>144.69999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>595</v>
+      </c>
+      <c r="D121">
+        <v>188.2</v>
+      </c>
+      <c r="E121">
+        <v>595</v>
+      </c>
+      <c r="F121">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>600</v>
+      </c>
+      <c r="D122">
+        <v>189.5</v>
+      </c>
+      <c r="E122">
+        <v>600</v>
+      </c>
+      <c r="F122">
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>605</v>
+      </c>
+      <c r="D123">
+        <v>190</v>
+      </c>
+      <c r="E123">
+        <v>605</v>
+      </c>
+      <c r="F123">
+        <v>146.4</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>610</v>
+      </c>
+      <c r="D124">
+        <v>190</v>
+      </c>
+      <c r="E124">
+        <v>610</v>
+      </c>
+      <c r="F124">
+        <v>146.6</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>615</v>
+      </c>
+      <c r="D125">
+        <v>190.7</v>
+      </c>
+      <c r="E125">
+        <v>615</v>
+      </c>
+      <c r="F125">
+        <v>147.19999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>620</v>
+      </c>
+      <c r="D126">
+        <v>191.2</v>
+      </c>
+      <c r="E126">
+        <v>620</v>
+      </c>
+      <c r="F126">
+        <v>147.6</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>625</v>
+      </c>
+      <c r="D127">
+        <v>192.1</v>
+      </c>
+      <c r="E127">
+        <v>625</v>
+      </c>
+      <c r="F127">
+        <v>148.80000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>630</v>
+      </c>
+      <c r="D128">
+        <v>192.9</v>
+      </c>
+      <c r="E128">
+        <v>630</v>
+      </c>
+      <c r="F128">
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>635</v>
+      </c>
+      <c r="D129">
+        <v>193.3</v>
+      </c>
+      <c r="E129">
+        <v>635</v>
+      </c>
+      <c r="F129">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>640</v>
+      </c>
+      <c r="D130">
+        <v>193.5</v>
+      </c>
+      <c r="E130">
+        <v>640</v>
+      </c>
+      <c r="F130">
+        <v>150.19999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>645</v>
+      </c>
+      <c r="D131">
+        <v>194.4</v>
+      </c>
+      <c r="E131">
+        <v>645</v>
+      </c>
+      <c r="F131">
+        <v>150.9</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>650</v>
+      </c>
+      <c r="D132">
+        <v>194.9</v>
+      </c>
+      <c r="E132">
+        <v>650</v>
+      </c>
+      <c r="F132">
+        <v>151.30000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>655</v>
+      </c>
+      <c r="D133">
+        <v>195</v>
+      </c>
+      <c r="E133">
+        <v>655</v>
+      </c>
+      <c r="F133">
+        <v>151.80000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>660</v>
+      </c>
+      <c r="D134">
+        <v>195.1</v>
+      </c>
+      <c r="E134">
+        <v>660</v>
+      </c>
+      <c r="F134">
+        <v>152.30000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>665</v>
+      </c>
+      <c r="D135">
+        <v>195.4</v>
+      </c>
+      <c r="E135">
+        <v>665</v>
+      </c>
+      <c r="F135">
+        <v>152.80000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>670</v>
+      </c>
+      <c r="D136">
+        <v>196.1</v>
+      </c>
+      <c r="E136">
+        <v>670</v>
+      </c>
+      <c r="F136">
+        <v>153.19999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>675</v>
+      </c>
+      <c r="D137">
+        <v>196.7</v>
+      </c>
+      <c r="E137">
+        <v>675</v>
+      </c>
+      <c r="F137">
+        <v>153.9</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>680</v>
+      </c>
+      <c r="D138">
+        <v>197.2</v>
+      </c>
+      <c r="E138">
+        <v>680</v>
+      </c>
+      <c r="F138">
+        <v>154.19999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>685</v>
+      </c>
+      <c r="D139">
+        <v>197.3</v>
+      </c>
+      <c r="E139">
+        <v>685</v>
+      </c>
+      <c r="F139">
+        <v>154.9</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>690</v>
+      </c>
+      <c r="D140">
+        <v>198</v>
+      </c>
+      <c r="E140">
+        <v>690</v>
+      </c>
+      <c r="F140">
+        <v>155.1</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>695</v>
+      </c>
+      <c r="D141">
+        <v>198.2</v>
+      </c>
+      <c r="E141">
+        <v>695</v>
+      </c>
+      <c r="F141">
+        <v>155.5</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>700</v>
+      </c>
+      <c r="D142">
+        <v>199</v>
+      </c>
+      <c r="E142">
+        <v>700</v>
+      </c>
+      <c r="F142">
+        <v>155.9</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>705</v>
+      </c>
+      <c r="D143">
+        <v>199.2</v>
+      </c>
+      <c r="E143">
+        <v>705</v>
+      </c>
+      <c r="F143">
+        <v>156.6</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>710</v>
+      </c>
+      <c r="D144">
+        <v>199.5</v>
+      </c>
+      <c r="E144">
+        <v>710</v>
+      </c>
+      <c r="F144">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>715</v>
+      </c>
+      <c r="D145">
+        <v>199.8</v>
+      </c>
+      <c r="E145">
+        <v>715</v>
+      </c>
+      <c r="F145">
+        <v>157.4</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E146">
+        <v>720</v>
+      </c>
+      <c r="F146">
+        <v>157.9</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <v>725</v>
+      </c>
+      <c r="F147">
+        <v>158.1</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <v>730</v>
+      </c>
+      <c r="F148">
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E149">
+        <v>735</v>
+      </c>
+      <c r="F149">
+        <v>159.30000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E150">
+        <v>740</v>
+      </c>
+      <c r="F150">
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E151">
+        <v>745</v>
+      </c>
+      <c r="F151">
+        <v>159.80000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E152">
+        <v>750</v>
+      </c>
+      <c r="F152">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <v>755</v>
+      </c>
+      <c r="F153">
+        <v>160.6</v>
+      </c>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <v>760</v>
+      </c>
+      <c r="F154">
+        <v>160.69999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <v>765</v>
+      </c>
+      <c r="F155">
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <v>770</v>
+      </c>
+      <c r="F156">
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E157">
+        <v>775</v>
+      </c>
+      <c r="F157">
+        <v>161.30000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <v>780</v>
+      </c>
+      <c r="F158">
+        <v>161.69999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E159">
+        <v>785</v>
+      </c>
+      <c r="F159">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <v>790</v>
+      </c>
+      <c r="F160">
+        <v>162.30000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E161">
+        <v>795</v>
+      </c>
+      <c r="F161">
+        <v>162.4</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <v>800</v>
+      </c>
+      <c r="F162">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <v>805</v>
+      </c>
+      <c r="F163">
+        <v>163.1</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <v>810</v>
+      </c>
+      <c r="F164">
+        <v>163.69999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <v>815</v>
+      </c>
+      <c r="F165">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <v>820</v>
+      </c>
+      <c r="F166">
+        <v>164.3</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <v>825</v>
+      </c>
+      <c r="F167">
+        <v>164.6</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <v>830</v>
+      </c>
+      <c r="F168">
+        <v>164.7</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E169">
+        <v>835</v>
+      </c>
+      <c r="F169">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E170">
+        <v>840</v>
+      </c>
+      <c r="F170">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E171">
+        <v>845</v>
+      </c>
+      <c r="F171">
+        <v>165.3</v>
+      </c>
+    </row>
+    <row r="172" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <v>850</v>
+      </c>
+      <c r="F172">
+        <v>165.4</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <v>855</v>
+      </c>
+      <c r="F173">
+        <v>165.5</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <v>860</v>
+      </c>
+      <c r="F174">
+        <v>165.9</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <v>865</v>
+      </c>
+      <c r="F175">
+        <v>166.6</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E176">
+        <v>870</v>
+      </c>
+      <c r="F176">
+        <v>166.6</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E177">
+        <v>875</v>
+      </c>
+      <c r="F177">
+        <v>166.9</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E178">
+        <v>880</v>
+      </c>
+      <c r="F178">
+        <v>167.1</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E179">
+        <v>885</v>
+      </c>
+      <c r="F179">
+        <v>167.2</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E180">
+        <v>890</v>
+      </c>
+      <c r="F180">
+        <v>167.4</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E181">
+        <v>895</v>
+      </c>
+      <c r="F181">
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E182">
+        <v>900</v>
+      </c>
+      <c r="F182">
+        <v>168.2</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E183">
+        <v>905</v>
+      </c>
+      <c r="F183">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E184">
+        <v>910</v>
+      </c>
+      <c r="F184">
+        <v>167.9</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E185">
+        <v>915</v>
+      </c>
+      <c r="F185">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E186">
+        <v>920</v>
+      </c>
+      <c r="F186">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E187">
+        <v>925</v>
+      </c>
+      <c r="F187">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E188">
+        <v>930</v>
+      </c>
+      <c r="F188">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E189">
+        <v>935</v>
+      </c>
+      <c r="F189">
+        <v>169.1</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E190">
+        <v>940</v>
+      </c>
+      <c r="F190">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E191">
+        <v>945</v>
+      </c>
+      <c r="F191">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E192">
+        <v>950</v>
+      </c>
+      <c r="F192">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E193">
+        <v>955</v>
+      </c>
+      <c r="F193">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E194">
+        <v>960</v>
+      </c>
+      <c r="F194">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E195">
+        <v>965</v>
+      </c>
+      <c r="F195">
+        <v>170.2</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E196">
+        <v>970</v>
+      </c>
+      <c r="F196">
+        <v>170.1</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E197">
+        <v>975</v>
+      </c>
+      <c r="F197">
+        <v>170.3</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E198">
+        <v>980</v>
+      </c>
+      <c r="F198">
+        <v>170.9</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E199">
+        <v>985</v>
+      </c>
+      <c r="F199">
+        <v>171.2</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E200">
+        <v>990</v>
+      </c>
+      <c r="F200">
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="201" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E201">
+        <v>995</v>
+      </c>
+      <c r="F201">
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="202" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E202">
+        <v>1000</v>
+      </c>
+      <c r="F202">
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="203" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E203">
+        <v>1005</v>
+      </c>
+      <c r="F203">
+        <v>171.3</v>
+      </c>
+    </row>
+    <row r="204" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E204">
+        <v>1010</v>
+      </c>
+      <c r="F204">
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="205" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E205">
+        <v>1015</v>
+      </c>
+      <c r="F205">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="206" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E206">
+        <v>1020</v>
+      </c>
+      <c r="F206">
+        <v>171.8</v>
+      </c>
+    </row>
+    <row r="207" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E207">
+        <v>1025</v>
+      </c>
+      <c r="F207">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="208" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E208">
+        <v>1030</v>
+      </c>
+      <c r="F208">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="209" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E209">
+        <v>1035</v>
+      </c>
+      <c r="F209">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="210" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E210">
+        <v>1040</v>
+      </c>
+      <c r="F210">
+        <v>172.7</v>
+      </c>
+    </row>
+    <row r="211" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E211">
+        <v>1045</v>
+      </c>
+      <c r="F211">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="212" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E212">
+        <v>1050</v>
+      </c>
+      <c r="F212">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="213" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E213">
+        <v>1055</v>
+      </c>
+      <c r="F213">
+        <v>172.7</v>
+      </c>
+    </row>
+    <row r="214" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E214">
+        <v>1060</v>
+      </c>
+      <c r="F214">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="215" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E215">
+        <v>1065</v>
+      </c>
+      <c r="F215">
+        <v>173.1</v>
+      </c>
+    </row>
+    <row r="216" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E216">
+        <v>1070</v>
+      </c>
+      <c r="F216">
+        <v>173.2</v>
+      </c>
+    </row>
+    <row r="217" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E217">
+        <v>1075</v>
+      </c>
+      <c r="F217">
+        <v>173.2</v>
+      </c>
+    </row>
+    <row r="218" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E218">
+        <v>1080</v>
+      </c>
+      <c r="F218">
+        <v>173.1</v>
+      </c>
+    </row>
+    <row r="219" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E219">
+        <v>1085</v>
+      </c>
+      <c r="F219">
+        <v>173.3</v>
+      </c>
+    </row>
+    <row r="220" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E220">
+        <v>1090</v>
+      </c>
+      <c r="F220">
+        <v>173.6</v>
+      </c>
+    </row>
+    <row r="221" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E221">
+        <v>1095</v>
+      </c>
+      <c r="F221">
+        <v>173.9</v>
+      </c>
+    </row>
+    <row r="222" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E222">
+        <v>1100</v>
+      </c>
+      <c r="F222">
+        <v>174.4</v>
+      </c>
+    </row>
+    <row r="223" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E223">
+        <v>1105</v>
+      </c>
+      <c r="F223">
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="224" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E224">
+        <v>1110</v>
+      </c>
+      <c r="F224">
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="225" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E225">
+        <v>1115</v>
+      </c>
+      <c r="F225">
+        <v>174.5</v>
+      </c>
+    </row>
+    <row r="226" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E226">
+        <v>1120</v>
+      </c>
+      <c r="F226">
+        <v>174.1</v>
+      </c>
+    </row>
+    <row r="227" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E227">
+        <v>1125</v>
+      </c>
+      <c r="F227">
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="228" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E228">
+        <v>1130</v>
+      </c>
+      <c r="F228">
+        <v>174.4</v>
+      </c>
+    </row>
+    <row r="229" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E229">
+        <v>1135</v>
+      </c>
+      <c r="F229">
+        <v>174.5</v>
+      </c>
+    </row>
+    <row r="230" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E230">
+        <v>1140</v>
+      </c>
+      <c r="F230">
+        <v>174.4</v>
+      </c>
+    </row>
+    <row r="231" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E231">
+        <v>1145</v>
+      </c>
+      <c r="F231">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="232" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E232">
+        <v>1150</v>
+      </c>
+      <c r="F232">
+        <v>174.9</v>
+      </c>
+    </row>
+    <row r="233" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E233">
+        <v>1155</v>
+      </c>
+      <c r="F233">
+        <v>174.6</v>
+      </c>
+    </row>
+    <row r="234" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E234">
+        <v>1160</v>
+      </c>
+      <c r="F234">
+        <v>174.7</v>
+      </c>
+    </row>
+    <row r="235" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E235">
+        <v>1165</v>
+      </c>
+      <c r="F235">
+        <v>174.9</v>
+      </c>
+    </row>
+    <row r="236" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E236">
+        <v>1170</v>
+      </c>
+      <c r="F236">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="237" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E237">
+        <v>1175</v>
+      </c>
+      <c r="F237">
+        <v>175.1</v>
+      </c>
+    </row>
+    <row r="238" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E238">
+        <v>1180</v>
+      </c>
+      <c r="F238">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="239" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E239">
+        <v>1185</v>
+      </c>
+      <c r="F239">
+        <v>175.2</v>
+      </c>
+    </row>
+    <row r="240" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E240">
+        <v>1190</v>
+      </c>
+      <c r="F240">
+        <v>175.5</v>
+      </c>
+    </row>
+    <row r="241" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E241">
+        <v>1195</v>
+      </c>
+      <c r="F241">
+        <v>175.3</v>
+      </c>
+    </row>
+    <row r="242" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E242">
+        <v>1200</v>
+      </c>
+      <c r="F242">
+        <v>175.5</v>
+      </c>
+    </row>
+    <row r="243" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E243">
+        <v>1205</v>
+      </c>
+      <c r="F243">
+        <v>175.2</v>
+      </c>
+    </row>
+    <row r="244" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E244">
+        <v>1210</v>
+      </c>
+      <c r="F244">
+        <v>175.1</v>
+      </c>
+    </row>
+    <row r="245" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E245">
+        <v>1215</v>
+      </c>
+      <c r="F245">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="246" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E246">
+        <v>1220</v>
+      </c>
+      <c r="F246">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="247" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E247">
+        <v>1225</v>
+      </c>
+      <c r="F247">
+        <v>174.9</v>
+      </c>
+    </row>
+    <row r="248" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E248">
+        <v>1230</v>
+      </c>
+      <c r="F248">
+        <v>175.5</v>
+      </c>
+    </row>
+    <row r="249" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E249">
+        <v>1235</v>
+      </c>
+      <c r="F249">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="250" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E250">
+        <v>1240</v>
+      </c>
+      <c r="F250">
+        <v>176.1</v>
+      </c>
+    </row>
+    <row r="251" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E251">
+        <v>1245</v>
+      </c>
+      <c r="F251">
+        <v>176.1</v>
+      </c>
+    </row>
+    <row r="252" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E252">
+        <v>1250</v>
+      </c>
+      <c r="F252">
+        <v>175.8</v>
+      </c>
+    </row>
+    <row r="253" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E253">
+        <v>1255</v>
+      </c>
+      <c r="F253">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="254" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E254">
+        <v>1260</v>
+      </c>
+      <c r="F254">
+        <v>175.8</v>
+      </c>
+    </row>
+    <row r="255" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E255">
+        <v>1265</v>
+      </c>
+      <c r="F255">
+        <v>175.9</v>
+      </c>
+    </row>
+    <row r="256" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E256">
+        <v>1270</v>
+      </c>
+      <c r="F256">
+        <v>176.2</v>
+      </c>
+    </row>
+    <row r="257" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E257">
+        <v>1275</v>
+      </c>
+      <c r="F257">
+        <v>175.8</v>
+      </c>
+    </row>
+    <row r="258" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E258">
+        <v>1280</v>
+      </c>
+      <c r="F258">
+        <v>176.1</v>
+      </c>
+    </row>
+    <row r="259" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E259">
+        <v>1285</v>
+      </c>
+      <c r="F259">
+        <v>176.2</v>
+      </c>
+    </row>
+    <row r="260" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E260">
+        <v>1290</v>
+      </c>
+      <c r="F260">
+        <v>176.2</v>
+      </c>
+    </row>
+    <row r="261" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E261">
+        <v>1295</v>
+      </c>
+      <c r="F261">
+        <v>175.9</v>
+      </c>
+    </row>
+    <row r="262" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E262">
+        <v>1300</v>
+      </c>
+      <c r="F262">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="263" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E263">
+        <v>1305</v>
+      </c>
+      <c r="F263">
+        <v>176.1</v>
+      </c>
+    </row>
+    <row r="264" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E264">
+        <v>1310</v>
+      </c>
+      <c r="F264">
+        <v>176.1</v>
+      </c>
+    </row>
+    <row r="265" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E265">
+        <v>1315</v>
+      </c>
+      <c r="F265">
+        <v>176.1</v>
+      </c>
+    </row>
+    <row r="266" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E266">
+        <v>1320</v>
+      </c>
+      <c r="F266">
+        <v>176.2</v>
+      </c>
+    </row>
+    <row r="267" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E267">
+        <v>1325</v>
+      </c>
+      <c r="F267">
+        <v>175.9</v>
+      </c>
+    </row>
+    <row r="268" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E268">
+        <v>1330</v>
+      </c>
+      <c r="F268">
+        <v>176.3</v>
+      </c>
+    </row>
+    <row r="269" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E269">
+        <v>1335</v>
+      </c>
+      <c r="F269">
+        <v>176.3</v>
+      </c>
+    </row>
+    <row r="270" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E270">
+        <v>1340</v>
+      </c>
+      <c r="F270">
+        <v>176.4</v>
+      </c>
+    </row>
+    <row r="271" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E271">
+        <v>1345</v>
+      </c>
+      <c r="F271">
+        <v>176.1</v>
+      </c>
+    </row>
+    <row r="272" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E272">
+        <v>1350</v>
+      </c>
+      <c r="F272">
+        <v>176.3</v>
+      </c>
+    </row>
+    <row r="273" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E273">
+        <v>1355</v>
+      </c>
+      <c r="F273">
+        <v>176.6</v>
+      </c>
+    </row>
+    <row r="274" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E274">
+        <v>1360</v>
+      </c>
+      <c r="F274">
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="275" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E275">
+        <v>1365</v>
+      </c>
+      <c r="F275">
+        <v>176.4</v>
+      </c>
+    </row>
+    <row r="276" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E276">
+        <v>1370</v>
+      </c>
+      <c r="F276">
+        <v>176.9</v>
+      </c>
+    </row>
+    <row r="277" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E277">
+        <v>1375</v>
+      </c>
+      <c r="F277">
+        <v>176.7</v>
+      </c>
+    </row>
+    <row r="278" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E278">
+        <v>1380</v>
+      </c>
+      <c r="F278">
+        <v>176.5</v>
+      </c>
+    </row>
+    <row r="279" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E279">
+        <v>1385</v>
+      </c>
+      <c r="F279">
+        <v>176.3</v>
+      </c>
+    </row>
+    <row r="280" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E280">
+        <v>1390</v>
+      </c>
+      <c r="F280">
+        <v>176.2</v>
+      </c>
+    </row>
+    <row r="281" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E281">
+        <v>1395</v>
+      </c>
+      <c r="F281">
+        <v>176.3</v>
+      </c>
+    </row>
+    <row r="282" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E282">
+        <v>1400</v>
+      </c>
+      <c r="F282">
+        <v>176.5</v>
+      </c>
+    </row>
+    <row r="283" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E283">
+        <v>1405</v>
+      </c>
+      <c r="F283">
+        <v>176.7</v>
+      </c>
+    </row>
+    <row r="284" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E284">
+        <v>1410</v>
+      </c>
+      <c r="F284">
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="285" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E285">
+        <v>1415</v>
+      </c>
+      <c r="F285">
+        <v>176.9</v>
+      </c>
+    </row>
+    <row r="286" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E286">
+        <v>1420</v>
+      </c>
+      <c r="F286">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="287" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E287">
+        <v>1425</v>
+      </c>
+      <c r="F287">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="288" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E288">
+        <v>1430</v>
+      </c>
+      <c r="F288">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="289" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E289">
+        <v>1435</v>
+      </c>
+      <c r="F289">
+        <v>176.6</v>
+      </c>
+    </row>
+    <row r="290" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E290">
+        <v>1440</v>
+      </c>
+      <c r="F290">
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="291" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E291">
+        <v>1445</v>
+      </c>
+      <c r="F291">
+        <v>176.6</v>
+      </c>
+    </row>
+    <row r="292" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E292">
+        <v>1450</v>
+      </c>
+      <c r="F292">
+        <v>176.3</v>
+      </c>
+    </row>
+    <row r="293" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E293">
+        <v>1455</v>
+      </c>
+      <c r="F293">
+        <v>175.7</v>
+      </c>
+    </row>
+    <row r="294" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E294">
+        <v>1460</v>
+      </c>
+      <c r="F294">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="295" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E295">
+        <v>1465</v>
+      </c>
+      <c r="F295">
+        <v>176.2</v>
+      </c>
+    </row>
+    <row r="296" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E296">
+        <v>1470</v>
+      </c>
+      <c r="F296">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="297" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E297">
+        <v>1475</v>
+      </c>
+      <c r="F297">
+        <v>176.2</v>
       </c>
     </row>
   </sheetData>
@@ -2428,21 +8584,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100775B14D8560A0D4FA3234C01EB99897D" ma:contentTypeVersion="11" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="4535e712b31bbbb5920fb1760cbc98ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="23d84009-2fcf-4655-b1a0-1eeec5ebcc7a" xmlns:ns4="1f29ec9b-ac15-475b-91af-271c2b720820" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fb50671c9765ddf69cad4dc800c055e" ns3:_="" ns4:_="">
     <xsd:import namespace="23d84009-2fcf-4655-b1a0-1eeec5ebcc7a"/>
@@ -2651,24 +8792,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58DF3A9C-8D28-449E-B6DE-8A6AE8CF3D45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F5EB18-C846-434C-87C9-AFFDF4A53335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CFEC032-A9D1-4BE1-ADA5-7B2848CED932}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2685,4 +8824,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F5EB18-C846-434C-87C9-AFFDF4A53335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="23d84009-2fcf-4655-b1a0-1eeec5ebcc7a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1f29ec9b-ac15-475b-91af-271c2b720820"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58DF3A9C-8D28-449E-B6DE-8A6AE8CF3D45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
+++ b/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au616115_uni_au_dk/Documents/PRJ4 (Semesterprojekt)/4SemesterProjekt/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikkel\Documents\PRJ4\Pandekage-tastrofe\Moduler\Uimplementeret moduler\PandeMekanik\Modultest\Varmelegeme_steprespons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="575" documentId="13_ncr:1_{22A39B24-9928-427D-B303-F846D33CEE74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57B9C99A-16C3-48EB-A7AB-E10081B99B2F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A114F5E4-EC99-4941-8EFC-240F69D2859E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7FB17CDE-9607-435E-9AA5-DF80C5DE3E68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FB17CDE-9607-435E-9AA5-DF80C5DE3E68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Temp60</t>
   </si>
@@ -52,12 +50,24 @@
   <si>
     <t>Tid100</t>
   </si>
+  <si>
+    <t>Tid70</t>
+  </si>
+  <si>
+    <t>Temp70</t>
+  </si>
+  <si>
+    <t>Tid50</t>
+  </si>
+  <si>
+    <t>Temp50</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +193,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -610,7 +620,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="442557696"/>
@@ -669,7 +679,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="442557368"/>
@@ -712,7 +722,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -793,7 +803,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1331,7 +1341,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401491440"/>
@@ -1390,7 +1400,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401497016"/>
@@ -1438,7 +1448,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1519,7 +1529,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2515,7 +2525,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758685168"/>
@@ -2574,7 +2584,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758686480"/>
@@ -2622,7 +2632,1834 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1145</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1155</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1165</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1265</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>77.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>83.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>94.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>99.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>102.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>105.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>108.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>110.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>112.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>113.9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>114.9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>115.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>117.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>119.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>120.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>123.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>126.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>129.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>130.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>132.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>132.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>137.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>136.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>138.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>139.6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>141.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>142.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>143.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>144.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>147.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>148.1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>149.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>150.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>151.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>153.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>156.9</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>157.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>157.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>158.4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>159.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>161.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>162.6</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>163.4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>167.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>168.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>168.1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>169.4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>171.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>171.9</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>173.6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>173.6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>174.1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>175.2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>175.3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>176.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>176.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>176.6</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>177.2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>178.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>178.4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>179.4</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>179.8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>180.3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>179.9</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>181.9</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>181.8</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>182.9</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>182.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>183.4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>184.8</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>184.7</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>185.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>185.5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>186.3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>186.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>186.7</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>186.5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>187.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>187.4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>187.9</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>188.4</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>188.4</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>189.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>189.7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>189.8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>190.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>191.8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>190.5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>191.3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>191.8</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>191.6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>192.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>192.3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>191.6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>192.8</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>193.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>193.6</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>194.4</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>193.6</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>194.6</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>194.8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>194.6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>194.6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>195.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>195.6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>196.5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>195.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>196.6</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>196.9</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>197.4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>196.8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>197.1</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197.5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197.8</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>197.3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>198.8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>198.4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>198.1</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>198.4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>198.9</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>197.8</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>199.8</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>199.7</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>199.5</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>199.3</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>199.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>199.7</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>199.8</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>199.6</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>199.7</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>199.6</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>199.2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>199.5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>199.8</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>199.8</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E750-49B6-A950-9E90788B168C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="182699231"/>
+        <c:axId val="253023935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="182699231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253023935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="253023935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182699231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2711,6 +4548,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4259,20 +6136,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>492472</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>18266</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38203</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>91535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>49181</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>105974</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>547411</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>179243</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4299,16 +6692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>503518</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>298365</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>128953</xdr:rowOff>
+      <xdr:rowOff>70337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>5433</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>489010</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>104935</xdr:rowOff>
+      <xdr:rowOff>46319</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4335,16 +6728,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>539718</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>231988</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>164123</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>597877</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>363416</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>131544</xdr:rowOff>
+      <xdr:rowOff>43621</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4364,6 +6757,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>549519</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23447</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D39973E-FEC0-4B3C-BF0A-0ACB10422DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4669,21 +7098,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376E557A-5CFE-4B1E-958C-F4C336D66247}">
-  <dimension ref="A1:F297"/>
+  <dimension ref="A1:L297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I1" sqref="I1:J257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="1" max="2" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4702,8 +7134,20 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4722,8 +7166,17 @@
       <c r="F2">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4742,8 +7195,17 @@
       <c r="F3">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>24.3</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>8</v>
       </c>
@@ -4762,8 +7224,17 @@
       <c r="F4">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>24.4</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>12</v>
       </c>
@@ -4782,8 +7253,17 @@
       <c r="F5">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>24.4</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>16</v>
       </c>
@@ -4802,8 +7282,17 @@
       <c r="F6">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>24.4</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>20</v>
       </c>
@@ -4822,8 +7311,17 @@
       <c r="F7">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>24.6</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>24</v>
       </c>
@@ -4842,8 +7340,17 @@
       <c r="F8">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>24.9</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>28</v>
       </c>
@@ -4862,8 +7369,17 @@
       <c r="F9">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>25.3</v>
+      </c>
+      <c r="K9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>32</v>
       </c>
@@ -4882,8 +7398,17 @@
       <c r="F10">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <v>25.6</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>36</v>
       </c>
@@ -4902,8 +7427,17 @@
       <c r="F11">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>40</v>
       </c>
@@ -4922,8 +7456,17 @@
       <c r="F12">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="J12">
+        <v>26.4</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>44</v>
       </c>
@@ -4942,8 +7485,17 @@
       <c r="F13">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>55</v>
+      </c>
+      <c r="J13">
+        <v>26.7</v>
+      </c>
+      <c r="K13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>48</v>
       </c>
@@ -4962,8 +7514,17 @@
       <c r="F14">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <v>27.3</v>
+      </c>
+      <c r="K14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>52</v>
       </c>
@@ -4982,8 +7543,17 @@
       <c r="F15">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>65</v>
+      </c>
+      <c r="J15">
+        <v>28.5</v>
+      </c>
+      <c r="K15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>56</v>
       </c>
@@ -5002,8 +7572,17 @@
       <c r="F16">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>70</v>
+      </c>
+      <c r="J16">
+        <v>29</v>
+      </c>
+      <c r="K16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>60</v>
       </c>
@@ -5022,8 +7601,17 @@
       <c r="F17">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>75</v>
+      </c>
+      <c r="J17">
+        <v>29.7</v>
+      </c>
+      <c r="K17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>64</v>
       </c>
@@ -5042,8 +7630,17 @@
       <c r="F18">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>80</v>
+      </c>
+      <c r="J18">
+        <v>31</v>
+      </c>
+      <c r="K18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>68</v>
       </c>
@@ -5062,8 +7659,17 @@
       <c r="F19">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>85</v>
+      </c>
+      <c r="J19">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="K19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>72</v>
       </c>
@@ -5082,8 +7688,17 @@
       <c r="F20">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>90</v>
+      </c>
+      <c r="J20">
+        <v>32.6</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>76</v>
       </c>
@@ -5102,8 +7717,17 @@
       <c r="F21">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>95</v>
+      </c>
+      <c r="J21">
+        <v>33.9</v>
+      </c>
+      <c r="K21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>80</v>
       </c>
@@ -5122,8 +7746,17 @@
       <c r="F22">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>84</v>
       </c>
@@ -5142,8 +7775,17 @@
       <c r="F23">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>105</v>
+      </c>
+      <c r="J23">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K23">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>88</v>
       </c>
@@ -5162,8 +7804,17 @@
       <c r="F24">
         <v>31.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>110</v>
+      </c>
+      <c r="J24">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="K24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>92</v>
       </c>
@@ -5182,8 +7833,17 @@
       <c r="F25">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>115</v>
+      </c>
+      <c r="J25">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="K25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>96</v>
       </c>
@@ -5202,8 +7862,17 @@
       <c r="F26">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>120</v>
+      </c>
+      <c r="J26">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="K26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>100</v>
       </c>
@@ -5222,8 +7891,17 @@
       <c r="F27">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>125</v>
+      </c>
+      <c r="J27">
+        <v>41.4</v>
+      </c>
+      <c r="K27">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>104</v>
       </c>
@@ -5242,8 +7920,17 @@
       <c r="F28">
         <v>35.799999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>130</v>
+      </c>
+      <c r="J28">
+        <v>43.9</v>
+      </c>
+      <c r="K28">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>108</v>
       </c>
@@ -5262,8 +7949,17 @@
       <c r="F29">
         <v>36.799999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>135</v>
+      </c>
+      <c r="J29">
+        <v>44.4</v>
+      </c>
+      <c r="K29">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>112</v>
       </c>
@@ -5282,8 +7978,17 @@
       <c r="F30">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>140</v>
+      </c>
+      <c r="J30">
+        <v>45.5</v>
+      </c>
+      <c r="K30">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>116</v>
       </c>
@@ -5302,8 +8007,17 @@
       <c r="F31">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>145</v>
+      </c>
+      <c r="J31">
+        <v>47.1</v>
+      </c>
+      <c r="K31">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>120</v>
       </c>
@@ -5322,8 +8036,17 @@
       <c r="F32">
         <v>40.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>150</v>
+      </c>
+      <c r="J32">
+        <v>49.5</v>
+      </c>
+      <c r="K32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>124</v>
       </c>
@@ -5342,8 +8065,17 @@
       <c r="F33">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>155</v>
+      </c>
+      <c r="J33">
+        <v>50.7</v>
+      </c>
+      <c r="K33">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>128</v>
       </c>
@@ -5362,8 +8094,17 @@
       <c r="F34">
         <v>42.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>160</v>
+      </c>
+      <c r="J34">
+        <v>52.5</v>
+      </c>
+      <c r="K34">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>132</v>
       </c>
@@ -5382,8 +8123,17 @@
       <c r="F35">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>165</v>
+      </c>
+      <c r="J35">
+        <v>54.2</v>
+      </c>
+      <c r="K35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>136</v>
       </c>
@@ -5402,8 +8152,17 @@
       <c r="F36">
         <v>45.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>170</v>
+      </c>
+      <c r="J36">
+        <v>57.3</v>
+      </c>
+      <c r="K36">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>140</v>
       </c>
@@ -5422,8 +8181,17 @@
       <c r="F37">
         <v>46.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>175</v>
+      </c>
+      <c r="J37">
+        <v>58</v>
+      </c>
+      <c r="K37">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>144</v>
       </c>
@@ -5442,8 +8210,17 @@
       <c r="F38">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>180</v>
+      </c>
+      <c r="J38">
+        <v>60.6</v>
+      </c>
+      <c r="K38">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>148</v>
       </c>
@@ -5462,8 +8239,17 @@
       <c r="F39">
         <v>49.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>185</v>
+      </c>
+      <c r="J39">
+        <v>62.6</v>
+      </c>
+      <c r="K39">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>152</v>
       </c>
@@ -5482,8 +8268,17 @@
       <c r="F40">
         <v>51.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>190</v>
+      </c>
+      <c r="J40">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="K40">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>156</v>
       </c>
@@ -5502,8 +8297,17 @@
       <c r="F41">
         <v>52.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>195</v>
+      </c>
+      <c r="J41">
+        <v>66</v>
+      </c>
+      <c r="K41">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>160</v>
       </c>
@@ -5522,8 +8326,17 @@
       <c r="F42">
         <v>54.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>200</v>
+      </c>
+      <c r="J42">
+        <v>67.7</v>
+      </c>
+      <c r="K42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>164</v>
       </c>
@@ -5542,8 +8355,17 @@
       <c r="F43">
         <v>55.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>205</v>
+      </c>
+      <c r="J43">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="K43">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>168</v>
       </c>
@@ -5562,8 +8384,17 @@
       <c r="F44">
         <v>57.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>210</v>
+      </c>
+      <c r="J44">
+        <v>72.2</v>
+      </c>
+      <c r="K44">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>172</v>
       </c>
@@ -5582,8 +8413,17 @@
       <c r="F45">
         <v>58.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>215</v>
+      </c>
+      <c r="J45">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="K45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>176</v>
       </c>
@@ -5602,8 +8442,17 @@
       <c r="F46">
         <v>58.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>220</v>
+      </c>
+      <c r="J46">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="K46">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>180</v>
       </c>
@@ -5622,8 +8471,17 @@
       <c r="F47">
         <v>61.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>225</v>
+      </c>
+      <c r="J47">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="K47">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>184</v>
       </c>
@@ -5642,8 +8500,17 @@
       <c r="F48">
         <v>62.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>230</v>
+      </c>
+      <c r="J48">
+        <v>77.7</v>
+      </c>
+      <c r="K48">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>188</v>
       </c>
@@ -5662,8 +8529,17 @@
       <c r="F49">
         <v>64.599999999999994</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>235</v>
+      </c>
+      <c r="J49">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="K49">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>192</v>
       </c>
@@ -5682,8 +8558,17 @@
       <c r="F50">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>240</v>
+      </c>
+      <c r="J50">
+        <v>82.4</v>
+      </c>
+      <c r="K50">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>196</v>
       </c>
@@ -5702,8 +8587,17 @@
       <c r="F51">
         <v>68.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>245</v>
+      </c>
+      <c r="J51">
+        <v>83.1</v>
+      </c>
+      <c r="K51">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>200</v>
       </c>
@@ -5722,8 +8616,17 @@
       <c r="F52">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>250</v>
+      </c>
+      <c r="J52">
+        <v>86.1</v>
+      </c>
+      <c r="K52">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>204</v>
       </c>
@@ -5742,8 +8645,17 @@
       <c r="F53">
         <v>71.099999999999994</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>255</v>
+      </c>
+      <c r="J53">
+        <v>88.7</v>
+      </c>
+      <c r="K53">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>208</v>
       </c>
@@ -5762,8 +8674,17 @@
       <c r="F54">
         <v>72.400000000000006</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>260</v>
+      </c>
+      <c r="J54">
+        <v>89</v>
+      </c>
+      <c r="K54">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>212</v>
       </c>
@@ -5782,8 +8703,17 @@
       <c r="F55">
         <v>73.900000000000006</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>265</v>
+      </c>
+      <c r="J55">
+        <v>91.4</v>
+      </c>
+      <c r="K55">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>216</v>
       </c>
@@ -5802,8 +8732,17 @@
       <c r="F56">
         <v>75.400000000000006</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>270</v>
+      </c>
+      <c r="J56">
+        <v>92.3</v>
+      </c>
+      <c r="K56">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>220</v>
       </c>
@@ -5822,8 +8761,17 @@
       <c r="F57">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>275</v>
+      </c>
+      <c r="J57">
+        <v>94.8</v>
+      </c>
+      <c r="K57">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>224</v>
       </c>
@@ -5842,8 +8790,17 @@
       <c r="F58">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>280</v>
+      </c>
+      <c r="J58">
+        <v>99.1</v>
+      </c>
+      <c r="K58">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>228</v>
       </c>
@@ -5862,8 +8819,17 @@
       <c r="F59">
         <v>79.900000000000006</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <v>285</v>
+      </c>
+      <c r="J59">
+        <v>99.8</v>
+      </c>
+      <c r="K59">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>232</v>
       </c>
@@ -5882,8 +8848,17 @@
       <c r="F60">
         <v>81.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>290</v>
+      </c>
+      <c r="J60">
+        <v>100.6</v>
+      </c>
+      <c r="K60">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>236</v>
       </c>
@@ -5902,8 +8877,17 @@
       <c r="F61">
         <v>82.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>295</v>
+      </c>
+      <c r="J61">
+        <v>102.6</v>
+      </c>
+      <c r="K61">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>240</v>
       </c>
@@ -5922,8 +8906,17 @@
       <c r="F62">
         <v>84.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>300</v>
+      </c>
+      <c r="J62">
+        <v>102.8</v>
+      </c>
+      <c r="K62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>244</v>
       </c>
@@ -5942,8 +8935,17 @@
       <c r="F63">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>305</v>
+      </c>
+      <c r="J63">
+        <v>103.9</v>
+      </c>
+      <c r="K63">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>248</v>
       </c>
@@ -5962,8 +8964,17 @@
       <c r="F64">
         <v>87</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>310</v>
+      </c>
+      <c r="J64">
+        <v>105.8</v>
+      </c>
+      <c r="K64">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>252</v>
       </c>
@@ -5982,8 +8993,17 @@
       <c r="F65">
         <v>88.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>315</v>
+      </c>
+      <c r="J65">
+        <v>108.9</v>
+      </c>
+      <c r="K65">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>256</v>
       </c>
@@ -6002,8 +9022,17 @@
       <c r="F66">
         <v>89.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>320</v>
+      </c>
+      <c r="J66">
+        <v>110.9</v>
+      </c>
+      <c r="K66">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>260</v>
       </c>
@@ -6022,8 +9051,17 @@
       <c r="F67">
         <v>91.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>325</v>
+      </c>
+      <c r="J67">
+        <v>112.9</v>
+      </c>
+      <c r="K67">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>264</v>
       </c>
@@ -6042,8 +9080,17 @@
       <c r="F68">
         <v>92.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>330</v>
+      </c>
+      <c r="J68">
+        <v>113.9</v>
+      </c>
+      <c r="K68">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>268</v>
       </c>
@@ -6062,8 +9109,17 @@
       <c r="F69">
         <v>93.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>335</v>
+      </c>
+      <c r="J69">
+        <v>114.9</v>
+      </c>
+      <c r="K69">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>272</v>
       </c>
@@ -6082,8 +9138,17 @@
       <c r="F70">
         <v>95.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>340</v>
+      </c>
+      <c r="J70">
+        <v>115.2</v>
+      </c>
+      <c r="K70">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>276</v>
       </c>
@@ -6102,8 +9167,17 @@
       <c r="F71">
         <v>96.6</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>345</v>
+      </c>
+      <c r="J71">
+        <v>117.7</v>
+      </c>
+      <c r="K71">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>280</v>
       </c>
@@ -6122,8 +9196,17 @@
       <c r="F72">
         <v>98.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>350</v>
+      </c>
+      <c r="J72">
+        <v>119.2</v>
+      </c>
+      <c r="K72">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>284</v>
       </c>
@@ -6142,8 +9225,17 @@
       <c r="F73">
         <v>99.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>355</v>
+      </c>
+      <c r="J73">
+        <v>120.6</v>
+      </c>
+      <c r="K73">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>288</v>
       </c>
@@ -6162,8 +9254,17 @@
       <c r="F74">
         <v>100.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <v>360</v>
+      </c>
+      <c r="J74">
+        <v>122</v>
+      </c>
+      <c r="K74">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>292</v>
       </c>
@@ -6182,8 +9283,17 @@
       <c r="F75">
         <v>101.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>365</v>
+      </c>
+      <c r="J75">
+        <v>123.4</v>
+      </c>
+      <c r="K75">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>296</v>
       </c>
@@ -6202,8 +9312,17 @@
       <c r="F76">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>370</v>
+      </c>
+      <c r="J76">
+        <v>125.2</v>
+      </c>
+      <c r="K76">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>300</v>
       </c>
@@ -6222,8 +9341,17 @@
       <c r="F77">
         <v>104.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>375</v>
+      </c>
+      <c r="J77">
+        <v>126.8</v>
+      </c>
+      <c r="K77">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>304</v>
       </c>
@@ -6242,8 +9370,17 @@
       <c r="F78">
         <v>106</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>380</v>
+      </c>
+      <c r="J78">
+        <v>127.5</v>
+      </c>
+      <c r="K78">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>308</v>
       </c>
@@ -6262,8 +9399,17 @@
       <c r="F79">
         <v>106.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>385</v>
+      </c>
+      <c r="J79">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="K79">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>312</v>
       </c>
@@ -6282,8 +9428,17 @@
       <c r="F80">
         <v>108.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>390</v>
+      </c>
+      <c r="J80">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="K80">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>316</v>
       </c>
@@ -6302,8 +9457,17 @@
       <c r="F81">
         <v>109.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>395</v>
+      </c>
+      <c r="J81">
+        <v>132.9</v>
+      </c>
+      <c r="K81">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>320</v>
       </c>
@@ -6322,8 +9486,17 @@
       <c r="F82">
         <v>110.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>400</v>
+      </c>
+      <c r="J82">
+        <v>132.9</v>
+      </c>
+      <c r="K82">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>324</v>
       </c>
@@ -6342,8 +9515,17 @@
       <c r="F83">
         <v>111.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>405</v>
+      </c>
+      <c r="J83">
+        <v>137.4</v>
+      </c>
+      <c r="K83">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>328</v>
       </c>
@@ -6362,8 +9544,17 @@
       <c r="F84">
         <v>113.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>410</v>
+      </c>
+      <c r="J84">
+        <v>136.6</v>
+      </c>
+      <c r="K84">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>332</v>
       </c>
@@ -6382,8 +9573,17 @@
       <c r="F85">
         <v>114.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>415</v>
+      </c>
+      <c r="J85">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="K85">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>336</v>
       </c>
@@ -6402,8 +9602,17 @@
       <c r="F86">
         <v>115.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>420</v>
+      </c>
+      <c r="J86">
+        <v>139.6</v>
+      </c>
+      <c r="K86">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>340</v>
       </c>
@@ -6422,8 +9631,17 @@
       <c r="F87">
         <v>117</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>425</v>
+      </c>
+      <c r="J87">
+        <v>140</v>
+      </c>
+      <c r="K87">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>344</v>
       </c>
@@ -6442,8 +9660,17 @@
       <c r="F88">
         <v>118.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>430</v>
+      </c>
+      <c r="J88">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="K88">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>348</v>
       </c>
@@ -6462,8 +9689,17 @@
       <c r="F89">
         <v>119</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>435</v>
+      </c>
+      <c r="J89">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="K89">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>352</v>
       </c>
@@ -6482,8 +9718,17 @@
       <c r="F90">
         <v>119.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>440</v>
+      </c>
+      <c r="J90">
+        <v>143.4</v>
+      </c>
+      <c r="K90">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>356</v>
       </c>
@@ -6502,8 +9747,17 @@
       <c r="F91">
         <v>121.2</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <v>445</v>
+      </c>
+      <c r="J91">
+        <v>144.4</v>
+      </c>
+      <c r="K91">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>360</v>
       </c>
@@ -6522,8 +9776,17 @@
       <c r="F92">
         <v>121.8</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>450</v>
+      </c>
+      <c r="J92">
+        <v>145</v>
+      </c>
+      <c r="K92">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>364</v>
       </c>
@@ -6542,8 +9805,17 @@
       <c r="F93">
         <v>122.9</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>455</v>
+      </c>
+      <c r="J93">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="K93">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>368</v>
       </c>
@@ -6562,8 +9834,17 @@
       <c r="F94">
         <v>123.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <v>460</v>
+      </c>
+      <c r="J94">
+        <v>148.1</v>
+      </c>
+      <c r="K94">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>372</v>
       </c>
@@ -6582,8 +9863,17 @@
       <c r="F95">
         <v>124.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>465</v>
+      </c>
+      <c r="J95">
+        <v>149.9</v>
+      </c>
+      <c r="K95">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>376</v>
       </c>
@@ -6602,8 +9892,17 @@
       <c r="F96">
         <v>125.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>470</v>
+      </c>
+      <c r="J96">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="K96">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>380</v>
       </c>
@@ -6622,8 +9921,17 @@
       <c r="F97">
         <v>127</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <v>475</v>
+      </c>
+      <c r="J97">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="K97">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>384</v>
       </c>
@@ -6642,8 +9950,17 @@
       <c r="F98">
         <v>127.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <v>480</v>
+      </c>
+      <c r="J98">
+        <v>151.9</v>
+      </c>
+      <c r="K98">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>388</v>
       </c>
@@ -6662,8 +9979,17 @@
       <c r="F99">
         <v>128.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>485</v>
+      </c>
+      <c r="J99">
+        <v>153</v>
+      </c>
+      <c r="K99">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>392</v>
       </c>
@@ -6682,8 +10008,17 @@
       <c r="F100">
         <v>129.9</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>490</v>
+      </c>
+      <c r="J100">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="K100">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>396</v>
       </c>
@@ -6702,8 +10037,17 @@
       <c r="F101">
         <v>130</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <v>495</v>
+      </c>
+      <c r="J101">
+        <v>155</v>
+      </c>
+      <c r="K101">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>400</v>
       </c>
@@ -6722,8 +10066,17 @@
       <c r="F102">
         <v>130.69999999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>500</v>
+      </c>
+      <c r="J102">
+        <v>156.9</v>
+      </c>
+      <c r="K102">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>404</v>
       </c>
@@ -6742,8 +10095,17 @@
       <c r="F103">
         <v>131.9</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <v>505</v>
+      </c>
+      <c r="J103">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="K103">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>408</v>
       </c>
@@ -6762,8 +10124,17 @@
       <c r="F104">
         <v>132.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>510</v>
+      </c>
+      <c r="J104">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="K104">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>412</v>
       </c>
@@ -6782,8 +10153,17 @@
       <c r="F105">
         <v>134</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>515</v>
+      </c>
+      <c r="J105">
+        <v>158.4</v>
+      </c>
+      <c r="K105">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>416</v>
       </c>
@@ -6802,8 +10182,17 @@
       <c r="F106">
         <v>134.80000000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>520</v>
+      </c>
+      <c r="J106">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="K106">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>420</v>
       </c>
@@ -6822,8 +10211,17 @@
       <c r="F107">
         <v>135.19999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <v>525</v>
+      </c>
+      <c r="J107">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="K107">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>424</v>
       </c>
@@ -6842,8 +10240,17 @@
       <c r="F108">
         <v>136</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <v>530</v>
+      </c>
+      <c r="J108">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="K108">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="C109">
         <v>535</v>
       </c>
@@ -6856,8 +10263,17 @@
       <c r="F109">
         <v>136.69999999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>535</v>
+      </c>
+      <c r="J109">
+        <v>162.6</v>
+      </c>
+      <c r="K109">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="C110">
         <v>540</v>
       </c>
@@ -6870,8 +10286,17 @@
       <c r="F110">
         <v>137.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <v>540</v>
+      </c>
+      <c r="J110">
+        <v>163.4</v>
+      </c>
+      <c r="K110">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="C111">
         <v>545</v>
       </c>
@@ -6884,8 +10309,17 @@
       <c r="F111">
         <v>138.30000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <v>545</v>
+      </c>
+      <c r="J111">
+        <v>164</v>
+      </c>
+      <c r="K111">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="C112">
         <v>550</v>
       </c>
@@ -6898,8 +10332,17 @@
       <c r="F112">
         <v>138.80000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <v>550</v>
+      </c>
+      <c r="J112">
+        <v>165</v>
+      </c>
+      <c r="K112">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11">
       <c r="C113">
         <v>555</v>
       </c>
@@ -6912,8 +10355,17 @@
       <c r="F113">
         <v>139.69999999999999</v>
       </c>
-    </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <v>555</v>
+      </c>
+      <c r="J113">
+        <v>166</v>
+      </c>
+      <c r="K113">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11">
       <c r="C114">
         <v>560</v>
       </c>
@@ -6926,8 +10378,17 @@
       <c r="F114">
         <v>140.30000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <v>560</v>
+      </c>
+      <c r="J114">
+        <v>167.1</v>
+      </c>
+      <c r="K114">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11">
       <c r="C115">
         <v>565</v>
       </c>
@@ -6940,8 +10401,17 @@
       <c r="F115">
         <v>141.30000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <v>565</v>
+      </c>
+      <c r="J115">
+        <v>168.5</v>
+      </c>
+      <c r="K115">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11">
       <c r="C116">
         <v>570</v>
       </c>
@@ -6954,8 +10424,17 @@
       <c r="F116">
         <v>141.69999999999999</v>
       </c>
-    </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <v>570</v>
+      </c>
+      <c r="J116">
+        <v>167.7</v>
+      </c>
+      <c r="K116">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11">
       <c r="C117">
         <v>575</v>
       </c>
@@ -6968,8 +10447,17 @@
       <c r="F117">
         <v>142.30000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <v>575</v>
+      </c>
+      <c r="J117">
+        <v>168.1</v>
+      </c>
+      <c r="K117">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11">
       <c r="C118">
         <v>580</v>
       </c>
@@ -6982,8 +10470,17 @@
       <c r="F118">
         <v>142.6</v>
       </c>
-    </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <v>580</v>
+      </c>
+      <c r="J118">
+        <v>169.4</v>
+      </c>
+      <c r="K118">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11">
       <c r="C119">
         <v>585</v>
       </c>
@@ -6996,8 +10493,17 @@
       <c r="F119">
         <v>144</v>
       </c>
-    </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <v>585</v>
+      </c>
+      <c r="J119">
+        <v>170</v>
+      </c>
+      <c r="K119">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="120" spans="3:11">
       <c r="C120">
         <v>590</v>
       </c>
@@ -7010,8 +10516,17 @@
       <c r="F120">
         <v>144.69999999999999</v>
       </c>
-    </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <v>590</v>
+      </c>
+      <c r="J120">
+        <v>171.7</v>
+      </c>
+      <c r="K120">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="121" spans="3:11">
       <c r="C121">
         <v>595</v>
       </c>
@@ -7024,8 +10539,17 @@
       <c r="F121">
         <v>144.9</v>
       </c>
-    </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <v>595</v>
+      </c>
+      <c r="J121">
+        <v>172.2</v>
+      </c>
+      <c r="K121">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="122" spans="3:11">
       <c r="C122">
         <v>600</v>
       </c>
@@ -7038,8 +10562,17 @@
       <c r="F122">
         <v>145.5</v>
       </c>
-    </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <v>600</v>
+      </c>
+      <c r="J122">
+        <v>172.4</v>
+      </c>
+      <c r="K122">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="123" spans="3:11">
       <c r="C123">
         <v>605</v>
       </c>
@@ -7052,8 +10585,17 @@
       <c r="F123">
         <v>146.4</v>
       </c>
-    </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <v>605</v>
+      </c>
+      <c r="J123">
+        <v>171.9</v>
+      </c>
+      <c r="K123">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="124" spans="3:11">
       <c r="C124">
         <v>610</v>
       </c>
@@ -7066,8 +10608,17 @@
       <c r="F124">
         <v>146.6</v>
       </c>
-    </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I124">
+        <v>610</v>
+      </c>
+      <c r="J124">
+        <v>173.6</v>
+      </c>
+      <c r="K124">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="125" spans="3:11">
       <c r="C125">
         <v>615</v>
       </c>
@@ -7080,8 +10631,17 @@
       <c r="F125">
         <v>147.19999999999999</v>
       </c>
-    </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <v>615</v>
+      </c>
+      <c r="J125">
+        <v>173.6</v>
+      </c>
+      <c r="K125">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="126" spans="3:11">
       <c r="C126">
         <v>620</v>
       </c>
@@ -7094,8 +10654,17 @@
       <c r="F126">
         <v>147.6</v>
       </c>
-    </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <v>620</v>
+      </c>
+      <c r="J126">
+        <v>174.1</v>
+      </c>
+      <c r="K126">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="127" spans="3:11">
       <c r="C127">
         <v>625</v>
       </c>
@@ -7108,8 +10677,17 @@
       <c r="F127">
         <v>148.80000000000001</v>
       </c>
-    </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <v>625</v>
+      </c>
+      <c r="J127">
+        <v>175.2</v>
+      </c>
+      <c r="K127">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="128" spans="3:11">
       <c r="C128">
         <v>630</v>
       </c>
@@ -7122,8 +10700,17 @@
       <c r="F128">
         <v>149.5</v>
       </c>
-    </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <v>630</v>
+      </c>
+      <c r="J128">
+        <v>175.3</v>
+      </c>
+      <c r="K128">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="129" spans="3:11">
       <c r="C129">
         <v>635</v>
       </c>
@@ -7136,8 +10723,17 @@
       <c r="F129">
         <v>149.80000000000001</v>
       </c>
-    </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <v>635</v>
+      </c>
+      <c r="J129">
+        <v>176.5</v>
+      </c>
+      <c r="K129">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="130" spans="3:11">
       <c r="C130">
         <v>640</v>
       </c>
@@ -7150,8 +10746,17 @@
       <c r="F130">
         <v>150.19999999999999</v>
       </c>
-    </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <v>640</v>
+      </c>
+      <c r="J130">
+        <v>176.5</v>
+      </c>
+      <c r="K130">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="131" spans="3:11">
       <c r="C131">
         <v>645</v>
       </c>
@@ -7164,8 +10769,17 @@
       <c r="F131">
         <v>150.9</v>
       </c>
-    </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <v>645</v>
+      </c>
+      <c r="J131">
+        <v>176.6</v>
+      </c>
+      <c r="K131">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="132" spans="3:11">
       <c r="C132">
         <v>650</v>
       </c>
@@ -7178,8 +10792,17 @@
       <c r="F132">
         <v>151.30000000000001</v>
       </c>
-    </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <v>650</v>
+      </c>
+      <c r="J132">
+        <v>177.2</v>
+      </c>
+      <c r="K132">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="133" spans="3:11">
       <c r="C133">
         <v>655</v>
       </c>
@@ -7192,8 +10815,17 @@
       <c r="F133">
         <v>151.80000000000001</v>
       </c>
-    </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <v>655</v>
+      </c>
+      <c r="J133">
+        <v>178.1</v>
+      </c>
+      <c r="K133">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="134" spans="3:11">
       <c r="C134">
         <v>660</v>
       </c>
@@ -7206,8 +10838,17 @@
       <c r="F134">
         <v>152.30000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <v>660</v>
+      </c>
+      <c r="J134">
+        <v>178.4</v>
+      </c>
+      <c r="K134">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="135" spans="3:11">
       <c r="C135">
         <v>665</v>
       </c>
@@ -7220,8 +10861,17 @@
       <c r="F135">
         <v>152.80000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <v>665</v>
+      </c>
+      <c r="J135">
+        <v>179.4</v>
+      </c>
+      <c r="K135">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="136" spans="3:11">
       <c r="C136">
         <v>670</v>
       </c>
@@ -7234,8 +10884,17 @@
       <c r="F136">
         <v>153.19999999999999</v>
       </c>
-    </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <v>670</v>
+      </c>
+      <c r="J136">
+        <v>179.8</v>
+      </c>
+      <c r="K136">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="137" spans="3:11">
       <c r="C137">
         <v>675</v>
       </c>
@@ -7248,8 +10907,17 @@
       <c r="F137">
         <v>153.9</v>
       </c>
-    </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <v>675</v>
+      </c>
+      <c r="J137">
+        <v>180.3</v>
+      </c>
+      <c r="K137">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="138" spans="3:11">
       <c r="C138">
         <v>680</v>
       </c>
@@ -7262,8 +10930,17 @@
       <c r="F138">
         <v>154.19999999999999</v>
       </c>
-    </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>680</v>
+      </c>
+      <c r="J138">
+        <v>179.9</v>
+      </c>
+      <c r="K138">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="139" spans="3:11">
       <c r="C139">
         <v>685</v>
       </c>
@@ -7276,8 +10953,17 @@
       <c r="F139">
         <v>154.9</v>
       </c>
-    </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <v>685</v>
+      </c>
+      <c r="J139">
+        <v>181.9</v>
+      </c>
+      <c r="K139">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="140" spans="3:11">
       <c r="C140">
         <v>690</v>
       </c>
@@ -7290,8 +10976,17 @@
       <c r="F140">
         <v>155.1</v>
       </c>
-    </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <v>690</v>
+      </c>
+      <c r="J140">
+        <v>181.7</v>
+      </c>
+      <c r="K140">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="141" spans="3:11">
       <c r="C141">
         <v>695</v>
       </c>
@@ -7304,8 +10999,17 @@
       <c r="F141">
         <v>155.5</v>
       </c>
-    </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <v>695</v>
+      </c>
+      <c r="J141">
+        <v>181.5</v>
+      </c>
+      <c r="K141">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="142" spans="3:11">
       <c r="C142">
         <v>700</v>
       </c>
@@ -7318,8 +11022,17 @@
       <c r="F142">
         <v>155.9</v>
       </c>
-    </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <v>700</v>
+      </c>
+      <c r="J142">
+        <v>181.8</v>
+      </c>
+      <c r="K142">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="143" spans="3:11">
       <c r="C143">
         <v>705</v>
       </c>
@@ -7332,8 +11045,17 @@
       <c r="F143">
         <v>156.6</v>
       </c>
-    </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <v>705</v>
+      </c>
+      <c r="J143">
+        <v>182.9</v>
+      </c>
+      <c r="K143">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="144" spans="3:11">
       <c r="C144">
         <v>710</v>
       </c>
@@ -7346,8 +11068,17 @@
       <c r="F144">
         <v>157</v>
       </c>
-    </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <v>710</v>
+      </c>
+      <c r="J144">
+        <v>182.5</v>
+      </c>
+      <c r="K144">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="145" spans="3:11">
       <c r="C145">
         <v>715</v>
       </c>
@@ -7360,1221 +11091,2358 @@
       <c r="F145">
         <v>157.4</v>
       </c>
-    </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <v>715</v>
+      </c>
+      <c r="J145">
+        <v>183.4</v>
+      </c>
+      <c r="K145">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="146" spans="3:11">
       <c r="E146">
         <v>720</v>
       </c>
       <c r="F146">
         <v>157.9</v>
       </c>
-    </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <v>720</v>
+      </c>
+      <c r="J146">
+        <v>184.8</v>
+      </c>
+      <c r="K146">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="147" spans="3:11">
       <c r="E147">
         <v>725</v>
       </c>
       <c r="F147">
         <v>158.1</v>
       </c>
-    </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <v>725</v>
+      </c>
+      <c r="J147">
+        <v>184.7</v>
+      </c>
+      <c r="K147">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="148" spans="3:11">
       <c r="E148">
         <v>730</v>
       </c>
       <c r="F148">
         <v>158.4</v>
       </c>
-    </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <v>730</v>
+      </c>
+      <c r="J148">
+        <v>185.5</v>
+      </c>
+      <c r="K148">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="149" spans="3:11">
       <c r="E149">
         <v>735</v>
       </c>
       <c r="F149">
         <v>159.30000000000001</v>
       </c>
-    </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <v>735</v>
+      </c>
+      <c r="J149">
+        <v>185.5</v>
+      </c>
+      <c r="K149">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="150" spans="3:11">
       <c r="E150">
         <v>740</v>
       </c>
       <c r="F150">
         <v>159.4</v>
       </c>
-    </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <v>740</v>
+      </c>
+      <c r="J150">
+        <v>186.3</v>
+      </c>
+      <c r="K150">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="151" spans="3:11">
       <c r="E151">
         <v>745</v>
       </c>
       <c r="F151">
         <v>159.80000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <v>745</v>
+      </c>
+      <c r="J151">
+        <v>186.5</v>
+      </c>
+      <c r="K151">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="152" spans="3:11">
       <c r="E152">
         <v>750</v>
       </c>
       <c r="F152">
         <v>160</v>
       </c>
-    </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <v>750</v>
+      </c>
+      <c r="J152">
+        <v>186.7</v>
+      </c>
+      <c r="K152">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="153" spans="3:11">
       <c r="E153">
         <v>755</v>
       </c>
       <c r="F153">
         <v>160.6</v>
       </c>
-    </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <v>755</v>
+      </c>
+      <c r="J153">
+        <v>186.5</v>
+      </c>
+      <c r="K153">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="154" spans="3:11">
       <c r="E154">
         <v>760</v>
       </c>
       <c r="F154">
         <v>160.69999999999999</v>
       </c>
-    </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <v>760</v>
+      </c>
+      <c r="J154">
+        <v>187.2</v>
+      </c>
+      <c r="K154">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="155" spans="3:11">
       <c r="E155">
         <v>765</v>
       </c>
       <c r="F155">
         <v>160.9</v>
       </c>
-    </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <v>765</v>
+      </c>
+      <c r="J155">
+        <v>187.4</v>
+      </c>
+      <c r="K155">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="156" spans="3:11">
       <c r="E156">
         <v>770</v>
       </c>
       <c r="F156">
         <v>160.9</v>
       </c>
-    </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I156">
+        <v>770</v>
+      </c>
+      <c r="J156">
+        <v>188</v>
+      </c>
+      <c r="K156">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="157" spans="3:11">
       <c r="E157">
         <v>775</v>
       </c>
       <c r="F157">
         <v>161.30000000000001</v>
       </c>
-    </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I157">
+        <v>775</v>
+      </c>
+      <c r="J157">
+        <v>187.9</v>
+      </c>
+      <c r="K157">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="158" spans="3:11">
       <c r="E158">
         <v>780</v>
       </c>
       <c r="F158">
         <v>161.69999999999999</v>
       </c>
-    </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <v>780</v>
+      </c>
+      <c r="J158">
+        <v>188.4</v>
+      </c>
+      <c r="K158">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="159" spans="3:11">
       <c r="E159">
         <v>785</v>
       </c>
       <c r="F159">
         <v>162</v>
       </c>
-    </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I159">
+        <v>785</v>
+      </c>
+      <c r="J159">
+        <v>189</v>
+      </c>
+      <c r="K159">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="160" spans="3:11">
       <c r="E160">
         <v>790</v>
       </c>
       <c r="F160">
         <v>162.30000000000001</v>
       </c>
-    </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I160">
+        <v>790</v>
+      </c>
+      <c r="J160">
+        <v>188.4</v>
+      </c>
+      <c r="K160">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="161" spans="5:11">
       <c r="E161">
         <v>795</v>
       </c>
       <c r="F161">
         <v>162.4</v>
       </c>
-    </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I161">
+        <v>795</v>
+      </c>
+      <c r="J161">
+        <v>189.5</v>
+      </c>
+      <c r="K161">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="162" spans="5:11">
       <c r="E162">
         <v>800</v>
       </c>
       <c r="F162">
         <v>163</v>
       </c>
-    </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I162">
+        <v>800</v>
+      </c>
+      <c r="J162">
+        <v>189.7</v>
+      </c>
+      <c r="K162">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="163" spans="5:11">
       <c r="E163">
         <v>805</v>
       </c>
       <c r="F163">
         <v>163.1</v>
       </c>
-    </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I163">
+        <v>805</v>
+      </c>
+      <c r="J163">
+        <v>189.8</v>
+      </c>
+      <c r="K163">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="164" spans="5:11">
       <c r="E164">
         <v>810</v>
       </c>
       <c r="F164">
         <v>163.69999999999999</v>
       </c>
-    </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I164">
+        <v>810</v>
+      </c>
+      <c r="J164">
+        <v>190.2</v>
+      </c>
+      <c r="K164">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="165" spans="5:11">
       <c r="E165">
         <v>815</v>
       </c>
       <c r="F165">
         <v>163.9</v>
       </c>
-    </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I165">
+        <v>815</v>
+      </c>
+      <c r="J165">
+        <v>191.8</v>
+      </c>
+      <c r="K165">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="166" spans="5:11">
       <c r="E166">
         <v>820</v>
       </c>
       <c r="F166">
         <v>164.3</v>
       </c>
-    </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I166">
+        <v>820</v>
+      </c>
+      <c r="J166">
+        <v>190.5</v>
+      </c>
+      <c r="K166">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="167" spans="5:11">
       <c r="E167">
         <v>825</v>
       </c>
       <c r="F167">
         <v>164.6</v>
       </c>
-    </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I167">
+        <v>825</v>
+      </c>
+      <c r="J167">
+        <v>191.3</v>
+      </c>
+      <c r="K167">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="168" spans="5:11">
       <c r="E168">
         <v>830</v>
       </c>
       <c r="F168">
         <v>164.7</v>
       </c>
-    </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I168">
+        <v>830</v>
+      </c>
+      <c r="J168">
+        <v>191.8</v>
+      </c>
+      <c r="K168">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="169" spans="5:11">
       <c r="E169">
         <v>835</v>
       </c>
       <c r="F169">
         <v>165</v>
       </c>
-    </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I169">
+        <v>835</v>
+      </c>
+      <c r="J169">
+        <v>191.6</v>
+      </c>
+      <c r="K169">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="170" spans="5:11">
       <c r="E170">
         <v>840</v>
       </c>
       <c r="F170">
         <v>165</v>
       </c>
-    </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I170">
+        <v>840</v>
+      </c>
+      <c r="J170">
+        <v>192.8</v>
+      </c>
+      <c r="K170">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="171" spans="5:11">
       <c r="E171">
         <v>845</v>
       </c>
       <c r="F171">
         <v>165.3</v>
       </c>
-    </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I171">
+        <v>845</v>
+      </c>
+      <c r="J171">
+        <v>192.3</v>
+      </c>
+      <c r="K171">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="172" spans="5:11">
       <c r="E172">
         <v>850</v>
       </c>
       <c r="F172">
         <v>165.4</v>
       </c>
-    </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I172">
+        <v>850</v>
+      </c>
+      <c r="J172">
+        <v>191.6</v>
+      </c>
+      <c r="K172">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="173" spans="5:11">
       <c r="E173">
         <v>855</v>
       </c>
       <c r="F173">
         <v>165.5</v>
       </c>
-    </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I173">
+        <v>855</v>
+      </c>
+      <c r="J173">
+        <v>192</v>
+      </c>
+      <c r="K173">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="174" spans="5:11">
       <c r="E174">
         <v>860</v>
       </c>
       <c r="F174">
         <v>165.9</v>
       </c>
-    </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I174">
+        <v>860</v>
+      </c>
+      <c r="J174">
+        <v>192</v>
+      </c>
+      <c r="K174">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="175" spans="5:11">
       <c r="E175">
         <v>865</v>
       </c>
       <c r="F175">
         <v>166.6</v>
       </c>
-    </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I175">
+        <v>865</v>
+      </c>
+      <c r="J175">
+        <v>192.8</v>
+      </c>
+      <c r="K175">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="176" spans="5:11">
       <c r="E176">
         <v>870</v>
       </c>
       <c r="F176">
         <v>166.6</v>
       </c>
-    </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I176">
+        <v>870</v>
+      </c>
+      <c r="J176">
+        <v>193</v>
+      </c>
+      <c r="K176">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="177" spans="5:11">
       <c r="E177">
         <v>875</v>
       </c>
       <c r="F177">
         <v>166.9</v>
       </c>
-    </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I177">
+        <v>875</v>
+      </c>
+      <c r="J177">
+        <v>193.5</v>
+      </c>
+      <c r="K177">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="178" spans="5:11">
       <c r="E178">
         <v>880</v>
       </c>
       <c r="F178">
         <v>167.1</v>
       </c>
-    </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I178">
+        <v>880</v>
+      </c>
+      <c r="J178">
+        <v>194</v>
+      </c>
+      <c r="K178">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="179" spans="5:11">
       <c r="E179">
         <v>885</v>
       </c>
       <c r="F179">
         <v>167.2</v>
       </c>
-    </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I179">
+        <v>885</v>
+      </c>
+      <c r="J179">
+        <v>193.6</v>
+      </c>
+      <c r="K179">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="180" spans="5:11">
       <c r="E180">
         <v>890</v>
       </c>
       <c r="F180">
         <v>167.4</v>
       </c>
-    </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <v>890</v>
+      </c>
+      <c r="J180">
+        <v>194</v>
+      </c>
+      <c r="K180">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="181" spans="5:11">
       <c r="E181">
         <v>895</v>
       </c>
       <c r="F181">
         <v>167.5</v>
       </c>
-    </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I181">
+        <v>895</v>
+      </c>
+      <c r="J181">
+        <v>194.4</v>
+      </c>
+      <c r="K181">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="182" spans="5:11">
       <c r="E182">
         <v>900</v>
       </c>
       <c r="F182">
         <v>168.2</v>
       </c>
-    </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I182">
+        <v>900</v>
+      </c>
+      <c r="J182">
+        <v>193.6</v>
+      </c>
+      <c r="K182">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="183" spans="5:11">
       <c r="E183">
         <v>905</v>
       </c>
       <c r="F183">
         <v>168.1</v>
       </c>
-    </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I183">
+        <v>905</v>
+      </c>
+      <c r="J183">
+        <v>194.6</v>
+      </c>
+      <c r="K183">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="184" spans="5:11">
       <c r="E184">
         <v>910</v>
       </c>
       <c r="F184">
         <v>167.9</v>
       </c>
-    </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I184">
+        <v>910</v>
+      </c>
+      <c r="J184">
+        <v>194.8</v>
+      </c>
+      <c r="K184">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="185" spans="5:11">
       <c r="E185">
         <v>915</v>
       </c>
       <c r="F185">
         <v>168</v>
       </c>
-    </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I185">
+        <v>915</v>
+      </c>
+      <c r="J185">
+        <v>194.6</v>
+      </c>
+      <c r="K185">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="186" spans="5:11">
       <c r="E186">
         <v>920</v>
       </c>
       <c r="F186">
         <v>168.5</v>
       </c>
-    </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I186">
+        <v>920</v>
+      </c>
+      <c r="J186">
+        <v>194.6</v>
+      </c>
+      <c r="K186">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="187" spans="5:11">
       <c r="E187">
         <v>925</v>
       </c>
       <c r="F187">
         <v>168.5</v>
       </c>
-    </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <v>925</v>
+      </c>
+      <c r="J187">
+        <v>195.5</v>
+      </c>
+      <c r="K187">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="188" spans="5:11">
       <c r="E188">
         <v>930</v>
       </c>
       <c r="F188">
         <v>169</v>
       </c>
-    </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I188">
+        <v>930</v>
+      </c>
+      <c r="J188">
+        <v>195.6</v>
+      </c>
+      <c r="K188">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="189" spans="5:11">
       <c r="E189">
         <v>935</v>
       </c>
       <c r="F189">
         <v>169.1</v>
       </c>
-    </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I189">
+        <v>935</v>
+      </c>
+      <c r="J189">
+        <v>196</v>
+      </c>
+      <c r="K189">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="190" spans="5:11">
       <c r="E190">
         <v>940</v>
       </c>
       <c r="F190">
         <v>169</v>
       </c>
-    </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I190">
+        <v>940</v>
+      </c>
+      <c r="J190">
+        <v>196.5</v>
+      </c>
+      <c r="K190">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="191" spans="5:11">
       <c r="E191">
         <v>945</v>
       </c>
       <c r="F191">
         <v>169.2</v>
       </c>
-    </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I191">
+        <v>945</v>
+      </c>
+      <c r="J191">
+        <v>195.5</v>
+      </c>
+      <c r="K191">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="192" spans="5:11">
       <c r="E192">
         <v>950</v>
       </c>
       <c r="F192">
         <v>169.9</v>
       </c>
-    </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I192">
+        <v>950</v>
+      </c>
+      <c r="J192">
+        <v>196.6</v>
+      </c>
+      <c r="K192">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="193" spans="5:11">
       <c r="E193">
         <v>955</v>
       </c>
       <c r="F193">
         <v>169.5</v>
       </c>
-    </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I193">
+        <v>955</v>
+      </c>
+      <c r="J193">
+        <v>196.9</v>
+      </c>
+      <c r="K193">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="194" spans="5:11">
       <c r="E194">
         <v>960</v>
       </c>
       <c r="F194">
         <v>170</v>
       </c>
-    </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I194">
+        <v>960</v>
+      </c>
+      <c r="J194">
+        <v>197.4</v>
+      </c>
+      <c r="K194">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="195" spans="5:11">
       <c r="E195">
         <v>965</v>
       </c>
       <c r="F195">
         <v>170.2</v>
       </c>
-    </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I195">
+        <v>965</v>
+      </c>
+      <c r="J195">
+        <v>197</v>
+      </c>
+      <c r="K195">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="196" spans="5:11">
       <c r="E196">
         <v>970</v>
       </c>
       <c r="F196">
         <v>170.1</v>
       </c>
-    </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I196">
+        <v>970</v>
+      </c>
+      <c r="J196">
+        <v>196.8</v>
+      </c>
+      <c r="K196">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="197" spans="5:11">
       <c r="E197">
         <v>975</v>
       </c>
       <c r="F197">
         <v>170.3</v>
       </c>
-    </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I197">
+        <v>975</v>
+      </c>
+      <c r="J197">
+        <v>197.1</v>
+      </c>
+      <c r="K197">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="198" spans="5:11">
       <c r="E198">
         <v>980</v>
       </c>
       <c r="F198">
         <v>170.9</v>
       </c>
-    </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I198">
+        <v>980</v>
+      </c>
+      <c r="J198">
+        <v>197.5</v>
+      </c>
+      <c r="K198">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="199" spans="5:11">
       <c r="E199">
         <v>985</v>
       </c>
       <c r="F199">
         <v>171.2</v>
       </c>
-    </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I199">
+        <v>985</v>
+      </c>
+      <c r="J199">
+        <v>197.8</v>
+      </c>
+      <c r="K199">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="200" spans="5:11">
       <c r="E200">
         <v>990</v>
       </c>
       <c r="F200">
         <v>171.5</v>
       </c>
-    </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I200">
+        <v>990</v>
+      </c>
+      <c r="J200">
+        <v>197.3</v>
+      </c>
+      <c r="K200">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="201" spans="5:11">
       <c r="E201">
         <v>995</v>
       </c>
       <c r="F201">
         <v>171.5</v>
       </c>
-    </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I201">
+        <v>995</v>
+      </c>
+      <c r="J201">
+        <v>198.8</v>
+      </c>
+      <c r="K201">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="202" spans="5:11">
       <c r="E202">
         <v>1000</v>
       </c>
       <c r="F202">
         <v>171.5</v>
       </c>
-    </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I202">
+        <v>1000</v>
+      </c>
+      <c r="J202">
+        <v>198.4</v>
+      </c>
+      <c r="K202">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="203" spans="5:11">
       <c r="E203">
         <v>1005</v>
       </c>
       <c r="F203">
         <v>171.3</v>
       </c>
-    </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I203">
+        <v>1005</v>
+      </c>
+      <c r="J203">
+        <v>198.1</v>
+      </c>
+      <c r="K203">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="204" spans="5:11">
       <c r="E204">
         <v>1010</v>
       </c>
       <c r="F204">
         <v>171.5</v>
       </c>
-    </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I204">
+        <v>1010</v>
+      </c>
+      <c r="J204">
+        <v>198.4</v>
+      </c>
+      <c r="K204">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="205" spans="5:11">
       <c r="E205">
         <v>1015</v>
       </c>
       <c r="F205">
         <v>172</v>
       </c>
-    </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I205">
+        <v>1015</v>
+      </c>
+      <c r="J205">
+        <v>198.9</v>
+      </c>
+      <c r="K205">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="206" spans="5:11">
       <c r="E206">
         <v>1020</v>
       </c>
       <c r="F206">
         <v>171.8</v>
       </c>
-    </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I206">
+        <v>1020</v>
+      </c>
+      <c r="J206">
+        <v>197.8</v>
+      </c>
+      <c r="K206">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="207" spans="5:11">
       <c r="E207">
         <v>1025</v>
       </c>
       <c r="F207">
         <v>172.4</v>
       </c>
-    </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I207">
+        <v>1025</v>
+      </c>
+      <c r="J207">
+        <v>199.8</v>
+      </c>
+      <c r="K207">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="208" spans="5:11">
       <c r="E208">
         <v>1030</v>
       </c>
       <c r="F208">
         <v>172.4</v>
       </c>
-    </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I208">
+        <v>1030</v>
+      </c>
+      <c r="J208">
+        <v>199.7</v>
+      </c>
+      <c r="K208">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="209" spans="5:11">
       <c r="E209">
         <v>1035</v>
       </c>
       <c r="F209">
         <v>172.4</v>
       </c>
-    </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I209">
+        <v>1035</v>
+      </c>
+      <c r="J209">
+        <v>200</v>
+      </c>
+      <c r="K209">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="210" spans="5:11">
       <c r="E210">
         <v>1040</v>
       </c>
       <c r="F210">
         <v>172.7</v>
       </c>
-    </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I210">
+        <v>1040</v>
+      </c>
+      <c r="J210">
+        <v>199.5</v>
+      </c>
+      <c r="K210">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="211" spans="5:11">
       <c r="E211">
         <v>1045</v>
       </c>
       <c r="F211">
         <v>172.4</v>
       </c>
-    </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I211">
+        <v>1045</v>
+      </c>
+      <c r="J211">
+        <v>199.3</v>
+      </c>
+      <c r="K211">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="212" spans="5:11">
       <c r="E212">
         <v>1050</v>
       </c>
       <c r="F212">
         <v>172.8</v>
       </c>
-    </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I212">
+        <v>1050</v>
+      </c>
+      <c r="J212">
+        <v>199.5</v>
+      </c>
+      <c r="K212">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="213" spans="5:11">
       <c r="E213">
         <v>1055</v>
       </c>
       <c r="F213">
         <v>172.7</v>
       </c>
-    </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I213">
+        <v>1055</v>
+      </c>
+      <c r="J213">
+        <v>199.7</v>
+      </c>
+      <c r="K213">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="214" spans="5:11">
       <c r="E214">
         <v>1060</v>
       </c>
       <c r="F214">
         <v>172.8</v>
       </c>
-    </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I214">
+        <v>1060</v>
+      </c>
+      <c r="J214">
+        <v>200</v>
+      </c>
+      <c r="K214">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="215" spans="5:11">
       <c r="E215">
         <v>1065</v>
       </c>
       <c r="F215">
         <v>173.1</v>
       </c>
-    </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I215">
+        <v>1065</v>
+      </c>
+      <c r="J215">
+        <v>200</v>
+      </c>
+      <c r="K215">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="216" spans="5:11">
       <c r="E216">
         <v>1070</v>
       </c>
       <c r="F216">
         <v>173.2</v>
       </c>
-    </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I216">
+        <v>1070</v>
+      </c>
+      <c r="J216">
+        <v>199.8</v>
+      </c>
+      <c r="K216">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="217" spans="5:11">
       <c r="E217">
         <v>1075</v>
       </c>
       <c r="F217">
         <v>173.2</v>
       </c>
-    </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I217">
+        <v>1075</v>
+      </c>
+      <c r="J217">
+        <v>200</v>
+      </c>
+      <c r="K217">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="218" spans="5:11">
       <c r="E218">
         <v>1080</v>
       </c>
       <c r="F218">
         <v>173.1</v>
       </c>
-    </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I218">
+        <v>1080</v>
+      </c>
+      <c r="J218">
+        <v>200</v>
+      </c>
+      <c r="K218">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="219" spans="5:11">
       <c r="E219">
         <v>1085</v>
       </c>
       <c r="F219">
         <v>173.3</v>
       </c>
-    </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I219">
+        <v>1085</v>
+      </c>
+      <c r="J219">
+        <v>200</v>
+      </c>
+      <c r="K219">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="220" spans="5:11">
       <c r="E220">
         <v>1090</v>
       </c>
       <c r="F220">
         <v>173.6</v>
       </c>
-    </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I220">
+        <v>1090</v>
+      </c>
+      <c r="J220">
+        <v>200</v>
+      </c>
+      <c r="K220">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="221" spans="5:11">
       <c r="E221">
         <v>1095</v>
       </c>
       <c r="F221">
         <v>173.9</v>
       </c>
-    </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I221">
+        <v>1095</v>
+      </c>
+      <c r="J221">
+        <v>199.9</v>
+      </c>
+      <c r="K221">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="222" spans="5:11">
       <c r="E222">
         <v>1100</v>
       </c>
       <c r="F222">
         <v>174.4</v>
       </c>
-    </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I222">
+        <v>1100</v>
+      </c>
+      <c r="J222">
+        <v>200</v>
+      </c>
+      <c r="K222">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="223" spans="5:11">
       <c r="E223">
         <v>1105</v>
       </c>
       <c r="F223">
         <v>173.8</v>
       </c>
-    </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I223">
+        <v>1105</v>
+      </c>
+      <c r="J223">
+        <v>199.6</v>
+      </c>
+      <c r="K223">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="224" spans="5:11">
       <c r="E224">
         <v>1110</v>
       </c>
       <c r="F224">
         <v>173.8</v>
       </c>
-    </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I224">
+        <v>1110</v>
+      </c>
+      <c r="J224">
+        <v>200</v>
+      </c>
+      <c r="K224">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="225" spans="5:11">
       <c r="E225">
         <v>1115</v>
       </c>
       <c r="F225">
         <v>174.5</v>
       </c>
-    </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I225">
+        <v>1115</v>
+      </c>
+      <c r="J225">
+        <v>200</v>
+      </c>
+      <c r="K225">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="226" spans="5:11">
       <c r="E226">
         <v>1120</v>
       </c>
       <c r="F226">
         <v>174.1</v>
       </c>
-    </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I226">
+        <v>1120</v>
+      </c>
+      <c r="J226">
+        <v>200</v>
+      </c>
+      <c r="K226">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="227" spans="5:11">
       <c r="E227">
         <v>1125</v>
       </c>
       <c r="F227">
         <v>174.2</v>
       </c>
-    </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I227">
+        <v>1125</v>
+      </c>
+      <c r="J227">
+        <v>199.7</v>
+      </c>
+      <c r="K227">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="228" spans="5:11">
       <c r="E228">
         <v>1130</v>
       </c>
       <c r="F228">
         <v>174.4</v>
       </c>
-    </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I228">
+        <v>1130</v>
+      </c>
+      <c r="J228">
+        <v>200</v>
+      </c>
+      <c r="K228">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="229" spans="5:11">
       <c r="E229">
         <v>1135</v>
       </c>
       <c r="F229">
         <v>174.5</v>
       </c>
-    </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I229">
+        <v>1135</v>
+      </c>
+      <c r="J229">
+        <v>200</v>
+      </c>
+      <c r="K229">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="230" spans="5:11">
       <c r="E230">
         <v>1140</v>
       </c>
       <c r="F230">
         <v>174.4</v>
       </c>
-    </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I230">
+        <v>1140</v>
+      </c>
+      <c r="J230">
+        <v>199.6</v>
+      </c>
+      <c r="K230">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="231" spans="5:11">
       <c r="E231">
         <v>1145</v>
       </c>
       <c r="F231">
         <v>175</v>
       </c>
-    </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I231">
+        <v>1145</v>
+      </c>
+      <c r="J231">
+        <v>199.9</v>
+      </c>
+      <c r="K231">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="232" spans="5:11">
       <c r="E232">
         <v>1150</v>
       </c>
       <c r="F232">
         <v>174.9</v>
       </c>
-    </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I232">
+        <v>1150</v>
+      </c>
+      <c r="J232">
+        <v>200</v>
+      </c>
+      <c r="K232">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="233" spans="5:11">
       <c r="E233">
         <v>1155</v>
       </c>
       <c r="F233">
         <v>174.6</v>
       </c>
-    </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I233">
+        <v>1155</v>
+      </c>
+      <c r="J233">
+        <v>200</v>
+      </c>
+      <c r="K233">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="234" spans="5:11">
       <c r="E234">
         <v>1160</v>
       </c>
       <c r="F234">
         <v>174.7</v>
       </c>
-    </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I234">
+        <v>1160</v>
+      </c>
+      <c r="J234">
+        <v>199.2</v>
+      </c>
+      <c r="K234">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="235" spans="5:11">
       <c r="E235">
         <v>1165</v>
       </c>
       <c r="F235">
         <v>174.9</v>
       </c>
-    </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I235">
+        <v>1165</v>
+      </c>
+      <c r="J235">
+        <v>199.9</v>
+      </c>
+      <c r="K235">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="236" spans="5:11">
       <c r="E236">
         <v>1170</v>
       </c>
       <c r="F236">
         <v>175</v>
       </c>
-    </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I236">
+        <v>1170</v>
+      </c>
+      <c r="J236">
+        <v>200</v>
+      </c>
+      <c r="K236">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="237" spans="5:11">
       <c r="E237">
         <v>1175</v>
       </c>
       <c r="F237">
         <v>175.1</v>
       </c>
-    </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I237">
+        <v>1175</v>
+      </c>
+      <c r="J237">
+        <v>199.9</v>
+      </c>
+      <c r="K237">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="238" spans="5:11">
       <c r="E238">
         <v>1180</v>
       </c>
       <c r="F238">
         <v>175</v>
       </c>
-    </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I238">
+        <v>1180</v>
+      </c>
+      <c r="J238">
+        <v>200</v>
+      </c>
+      <c r="K238">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="239" spans="5:11">
       <c r="E239">
         <v>1185</v>
       </c>
       <c r="F239">
         <v>175.2</v>
       </c>
-    </row>
-    <row r="240" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I239">
+        <v>1185</v>
+      </c>
+      <c r="J239">
+        <v>199.9</v>
+      </c>
+      <c r="K239">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="240" spans="5:11">
       <c r="E240">
         <v>1190</v>
       </c>
       <c r="F240">
         <v>175.5</v>
       </c>
-    </row>
-    <row r="241" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I240">
+        <v>1190</v>
+      </c>
+      <c r="J240">
+        <v>200</v>
+      </c>
+      <c r="K240">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="241" spans="5:11">
       <c r="E241">
         <v>1195</v>
       </c>
       <c r="F241">
         <v>175.3</v>
       </c>
-    </row>
-    <row r="242" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I241">
+        <v>1195</v>
+      </c>
+      <c r="J241">
+        <v>200</v>
+      </c>
+      <c r="K241">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="242" spans="5:11">
       <c r="E242">
         <v>1200</v>
       </c>
       <c r="F242">
         <v>175.5</v>
       </c>
-    </row>
-    <row r="243" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I242">
+        <v>1200</v>
+      </c>
+      <c r="J242">
+        <v>200</v>
+      </c>
+      <c r="K242">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="243" spans="5:11">
       <c r="E243">
         <v>1205</v>
       </c>
       <c r="F243">
         <v>175.2</v>
       </c>
-    </row>
-    <row r="244" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I243">
+        <v>1205</v>
+      </c>
+      <c r="J243">
+        <v>199.5</v>
+      </c>
+      <c r="K243">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="244" spans="5:11">
       <c r="E244">
         <v>1210</v>
       </c>
       <c r="F244">
         <v>175.1</v>
       </c>
-    </row>
-    <row r="245" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I244">
+        <v>1210</v>
+      </c>
+      <c r="J244">
+        <v>199.8</v>
+      </c>
+      <c r="K244">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="245" spans="5:11">
       <c r="E245">
         <v>1215</v>
       </c>
       <c r="F245">
         <v>175.4</v>
       </c>
-    </row>
-    <row r="246" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I245">
+        <v>1215</v>
+      </c>
+      <c r="J245">
+        <v>199.8</v>
+      </c>
+      <c r="K245">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="246" spans="5:11">
       <c r="E246">
         <v>1220</v>
       </c>
       <c r="F246">
         <v>175.4</v>
       </c>
-    </row>
-    <row r="247" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I246">
+        <v>1220</v>
+      </c>
+      <c r="J246">
+        <v>199.9</v>
+      </c>
+      <c r="K246">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="247" spans="5:11">
       <c r="E247">
         <v>1225</v>
       </c>
       <c r="F247">
         <v>174.9</v>
       </c>
-    </row>
-    <row r="248" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I247">
+        <v>1225</v>
+      </c>
+      <c r="J247">
+        <v>200</v>
+      </c>
+      <c r="K247">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="248" spans="5:11">
       <c r="E248">
         <v>1230</v>
       </c>
       <c r="F248">
         <v>175.5</v>
       </c>
-    </row>
-    <row r="249" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I248">
+        <v>1230</v>
+      </c>
+      <c r="J248">
+        <v>200</v>
+      </c>
+      <c r="K248">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="249" spans="5:11">
       <c r="E249">
         <v>1235</v>
       </c>
       <c r="F249">
         <v>175.4</v>
       </c>
-    </row>
-    <row r="250" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I249">
+        <v>1235</v>
+      </c>
+      <c r="J249">
+        <v>200</v>
+      </c>
+      <c r="K249">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="250" spans="5:11">
       <c r="E250">
         <v>1240</v>
       </c>
       <c r="F250">
         <v>176.1</v>
       </c>
-    </row>
-    <row r="251" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I250">
+        <v>1240</v>
+      </c>
+      <c r="J250">
+        <v>200</v>
+      </c>
+      <c r="K250">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="251" spans="5:11">
       <c r="E251">
         <v>1245</v>
       </c>
       <c r="F251">
         <v>176.1</v>
       </c>
-    </row>
-    <row r="252" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I251">
+        <v>1245</v>
+      </c>
+      <c r="J251">
+        <v>200</v>
+      </c>
+      <c r="K251">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="252" spans="5:11">
       <c r="E252">
         <v>1250</v>
       </c>
       <c r="F252">
         <v>175.8</v>
       </c>
-    </row>
-    <row r="253" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I252">
+        <v>1250</v>
+      </c>
+      <c r="J252">
+        <v>200</v>
+      </c>
+      <c r="K252">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="253" spans="5:11">
       <c r="E253">
         <v>1255</v>
       </c>
       <c r="F253">
         <v>176</v>
       </c>
-    </row>
-    <row r="254" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I253">
+        <v>1255</v>
+      </c>
+      <c r="J253">
+        <v>200</v>
+      </c>
+      <c r="K253">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="254" spans="5:11">
       <c r="E254">
         <v>1260</v>
       </c>
       <c r="F254">
         <v>175.8</v>
       </c>
-    </row>
-    <row r="255" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I254">
+        <v>1260</v>
+      </c>
+      <c r="J254">
+        <v>199.9</v>
+      </c>
+      <c r="K254">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="255" spans="5:11">
       <c r="E255">
         <v>1265</v>
       </c>
       <c r="F255">
         <v>175.9</v>
       </c>
-    </row>
-    <row r="256" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I255">
+        <v>1265</v>
+      </c>
+      <c r="J255">
+        <v>200</v>
+      </c>
+      <c r="K255">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="256" spans="5:11">
       <c r="E256">
         <v>1270</v>
       </c>
       <c r="F256">
         <v>176.2</v>
       </c>
-    </row>
-    <row r="257" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I256">
+        <v>1270</v>
+      </c>
+      <c r="J256">
+        <v>200</v>
+      </c>
+      <c r="K256">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="257" spans="5:11">
       <c r="E257">
         <v>1275</v>
       </c>
       <c r="F257">
         <v>175.8</v>
       </c>
-    </row>
-    <row r="258" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I257">
+        <v>1275</v>
+      </c>
+      <c r="J257">
+        <v>200</v>
+      </c>
+      <c r="K257">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="258" spans="5:11">
       <c r="E258">
         <v>1280</v>
       </c>
       <c r="F258">
         <v>176.1</v>
       </c>
-    </row>
-    <row r="259" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K258">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="259" spans="5:11">
       <c r="E259">
         <v>1285</v>
       </c>
       <c r="F259">
         <v>176.2</v>
       </c>
-    </row>
-    <row r="260" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K259">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="260" spans="5:11">
       <c r="E260">
         <v>1290</v>
       </c>
       <c r="F260">
         <v>176.2</v>
       </c>
-    </row>
-    <row r="261" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K260">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="261" spans="5:11">
       <c r="E261">
         <v>1295</v>
       </c>
       <c r="F261">
         <v>175.9</v>
       </c>
-    </row>
-    <row r="262" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K261">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="262" spans="5:11">
       <c r="E262">
         <v>1300</v>
       </c>
       <c r="F262">
         <v>176</v>
       </c>
-    </row>
-    <row r="263" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K262">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="263" spans="5:11">
       <c r="E263">
         <v>1305</v>
       </c>
       <c r="F263">
         <v>176.1</v>
       </c>
-    </row>
-    <row r="264" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K263">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="264" spans="5:11">
       <c r="E264">
         <v>1310</v>
       </c>
       <c r="F264">
         <v>176.1</v>
       </c>
-    </row>
-    <row r="265" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K264">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="265" spans="5:11">
       <c r="E265">
         <v>1315</v>
       </c>
       <c r="F265">
         <v>176.1</v>
       </c>
-    </row>
-    <row r="266" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K265">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="266" spans="5:11">
       <c r="E266">
         <v>1320</v>
       </c>
       <c r="F266">
         <v>176.2</v>
       </c>
-    </row>
-    <row r="267" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K266">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="267" spans="5:11">
       <c r="E267">
         <v>1325</v>
       </c>
       <c r="F267">
         <v>175.9</v>
       </c>
-    </row>
-    <row r="268" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K267">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="268" spans="5:11">
       <c r="E268">
         <v>1330</v>
       </c>
       <c r="F268">
         <v>176.3</v>
       </c>
-    </row>
-    <row r="269" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K268">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="269" spans="5:11">
       <c r="E269">
         <v>1335</v>
       </c>
       <c r="F269">
         <v>176.3</v>
       </c>
-    </row>
-    <row r="270" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K269">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="270" spans="5:11">
       <c r="E270">
         <v>1340</v>
       </c>
       <c r="F270">
         <v>176.4</v>
       </c>
-    </row>
-    <row r="271" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K270">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="271" spans="5:11">
       <c r="E271">
         <v>1345</v>
       </c>
       <c r="F271">
         <v>176.1</v>
       </c>
-    </row>
-    <row r="272" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K271">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="272" spans="5:11">
       <c r="E272">
         <v>1350</v>
       </c>
       <c r="F272">
         <v>176.3</v>
       </c>
-    </row>
-    <row r="273" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K272">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="273" spans="5:11">
       <c r="E273">
         <v>1355</v>
       </c>
       <c r="F273">
         <v>176.6</v>
       </c>
-    </row>
-    <row r="274" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K273">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="274" spans="5:11">
       <c r="E274">
         <v>1360</v>
       </c>
       <c r="F274">
         <v>177.1</v>
       </c>
-    </row>
-    <row r="275" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K274">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="275" spans="5:11">
       <c r="E275">
         <v>1365</v>
       </c>
       <c r="F275">
         <v>176.4</v>
       </c>
-    </row>
-    <row r="276" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K275">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="276" spans="5:11">
       <c r="E276">
         <v>1370</v>
       </c>
       <c r="F276">
         <v>176.9</v>
       </c>
-    </row>
-    <row r="277" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K276">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="277" spans="5:11">
       <c r="E277">
         <v>1375</v>
       </c>
       <c r="F277">
         <v>176.7</v>
       </c>
-    </row>
-    <row r="278" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K277">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="278" spans="5:11">
       <c r="E278">
         <v>1380</v>
       </c>
       <c r="F278">
         <v>176.5</v>
       </c>
-    </row>
-    <row r="279" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K278">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="279" spans="5:11">
       <c r="E279">
         <v>1385</v>
       </c>
       <c r="F279">
         <v>176.3</v>
       </c>
-    </row>
-    <row r="280" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K279">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="280" spans="5:11">
       <c r="E280">
         <v>1390</v>
       </c>
       <c r="F280">
         <v>176.2</v>
       </c>
-    </row>
-    <row r="281" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K280">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="281" spans="5:11">
       <c r="E281">
         <v>1395</v>
       </c>
       <c r="F281">
         <v>176.3</v>
       </c>
-    </row>
-    <row r="282" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K281">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="282" spans="5:11">
       <c r="E282">
         <v>1400</v>
       </c>
       <c r="F282">
         <v>176.5</v>
       </c>
-    </row>
-    <row r="283" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K282">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="283" spans="5:11">
       <c r="E283">
         <v>1405</v>
       </c>
       <c r="F283">
         <v>176.7</v>
       </c>
-    </row>
-    <row r="284" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K283">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="284" spans="5:11">
       <c r="E284">
         <v>1410</v>
       </c>
       <c r="F284">
         <v>177.1</v>
       </c>
-    </row>
-    <row r="285" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K284">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="285" spans="5:11">
       <c r="E285">
         <v>1415</v>
       </c>
       <c r="F285">
         <v>176.9</v>
       </c>
-    </row>
-    <row r="286" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K285">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="286" spans="5:11">
       <c r="E286">
         <v>1420</v>
       </c>
       <c r="F286">
         <v>177</v>
       </c>
-    </row>
-    <row r="287" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K286">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="287" spans="5:11">
       <c r="E287">
         <v>1425</v>
       </c>
       <c r="F287">
         <v>177</v>
       </c>
-    </row>
-    <row r="288" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K287">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="288" spans="5:11">
       <c r="E288">
         <v>1430</v>
       </c>
       <c r="F288">
         <v>177</v>
       </c>
-    </row>
-    <row r="289" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K288">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="289" spans="5:11">
       <c r="E289">
         <v>1435</v>
       </c>
       <c r="F289">
         <v>176.6</v>
       </c>
-    </row>
-    <row r="290" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K289">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="290" spans="5:11">
       <c r="E290">
         <v>1440</v>
       </c>
       <c r="F290">
         <v>177.1</v>
       </c>
-    </row>
-    <row r="291" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K290">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="291" spans="5:11">
       <c r="E291">
         <v>1445</v>
       </c>
       <c r="F291">
         <v>176.6</v>
       </c>
-    </row>
-    <row r="292" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K291">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="292" spans="5:11">
       <c r="E292">
         <v>1450</v>
       </c>
       <c r="F292">
         <v>176.3</v>
       </c>
-    </row>
-    <row r="293" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K292">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="293" spans="5:11">
       <c r="E293">
         <v>1455</v>
       </c>
       <c r="F293">
         <v>175.7</v>
       </c>
-    </row>
-    <row r="294" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K293">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="294" spans="5:11">
       <c r="E294">
         <v>1460</v>
       </c>
       <c r="F294">
         <v>176</v>
       </c>
-    </row>
-    <row r="295" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K294">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="295" spans="5:11">
       <c r="E295">
         <v>1465</v>
       </c>
       <c r="F295">
         <v>176.2</v>
       </c>
-    </row>
-    <row r="296" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K295">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="296" spans="5:11">
       <c r="E296">
         <v>1470</v>
       </c>
       <c r="F296">
         <v>176</v>
       </c>
-    </row>
-    <row r="297" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="K296">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="297" spans="5:11">
       <c r="E297">
         <v>1475</v>
       </c>
       <c r="F297">
         <v>176.2</v>
+      </c>
+      <c r="K297">
+        <v>1475</v>
       </c>
     </row>
   </sheetData>
@@ -8584,6 +13452,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100775B14D8560A0D4FA3234C01EB99897D" ma:contentTypeVersion="11" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="4535e712b31bbbb5920fb1760cbc98ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="23d84009-2fcf-4655-b1a0-1eeec5ebcc7a" xmlns:ns4="1f29ec9b-ac15-475b-91af-271c2b720820" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fb50671c9765ddf69cad4dc800c055e" ns3:_="" ns4:_="">
     <xsd:import namespace="23d84009-2fcf-4655-b1a0-1eeec5ebcc7a"/>
@@ -8792,22 +13675,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58DF3A9C-8D28-449E-B6DE-8A6AE8CF3D45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F5EB18-C846-434C-87C9-AFFDF4A53335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="23d84009-2fcf-4655-b1a0-1eeec5ebcc7a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1f29ec9b-ac15-475b-91af-271c2b720820"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CFEC032-A9D1-4BE1-ADA5-7B2848CED932}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8824,29 +13717,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F5EB18-C846-434C-87C9-AFFDF4A53335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="23d84009-2fcf-4655-b1a0-1eeec5ebcc7a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1f29ec9b-ac15-475b-91af-271c2b720820"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58DF3A9C-8D28-449E-B6DE-8A6AE8CF3D45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
+++ b/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikkel\Documents\PRJ4\Pandekage-tastrofe\Moduler\Uimplementeret moduler\PandeMekanik\Modultest\Varmelegeme_steprespons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A114F5E4-EC99-4941-8EFC-240F69D2859E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5681B1E8-496C-433D-977D-71CC275F1D56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FB17CDE-9607-435E-9AA5-DF80C5DE3E68}"/>
   </bookViews>
@@ -1535,7 +1535,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3265765945253974E-2"/>
+          <c:y val="0.12549848571634206"/>
+          <c:w val="0.92725934415754241"/>
+          <c:h val="0.8018067010184825"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -4470,6 +4480,2458 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$363</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="362"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1145</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1155</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1165</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1265</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1275</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1345</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1415</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1485</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1495</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1505</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1565</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1585</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1595</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1605</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1615</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1625</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1635</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1645</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1655</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1665</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1675</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1705</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1715</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1765</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1775</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1785</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1790</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$363</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="362"/>
+                <c:pt idx="0">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>64.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>73.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>82.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>92.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>94.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>97.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>101.1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>102.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>103.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>105.9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>106.6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>108.1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>109.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>110.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>112.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>113.7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>115.6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>116.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>117.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>119.1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>120.2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>121.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>123.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>124.9</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>124.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>125.7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>126.8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>128.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>129.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>131.6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>132.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>133.4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>133.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>135.1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>135.9</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>136.1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>136.9</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>137.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>138.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>139.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>139.4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>139.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>140.5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>141.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>143.1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>143.9</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>143.9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>144.6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>145.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>145.9</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>146.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>146.9</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>147.4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>147.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>147.9</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>148.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>149.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>149.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>149.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>150.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>150.9</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>150.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>151.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>151.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151.6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152.9</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>153.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>153.4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>154.1</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>154.1</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>154.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>154.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>155.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>155.5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>155.6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>155.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>156.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>156.6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>156.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>158.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>157.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>158.9</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>159.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>159.6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>159.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>160.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>160.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>160.4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>160.6</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>160.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>161.1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>161.6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>161.6</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>161.6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>162.1</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>162.1</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>163.5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>163.6</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>163.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>163.9</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>163.9</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>164.4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>164.7</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>164.9</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>164.6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>165.2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>164.9</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>165.6</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>165.8</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>165.9</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>166.1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>166.3</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>166.3</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>166.4</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>166.5</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>166.5</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>166.6</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>166.8</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>166.6</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>167.1</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>167.4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>167.1</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>167.2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>167.3</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>167.4</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>167.1</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>167.6</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>167.9</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>168.1</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>167.8</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>168.1</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>168.7</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>168.5</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>168.4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>168.6</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>168.6</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>168.7</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>169.1</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>169.2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>168.9</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>169.4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>169.4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>169.3</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>169.2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>169.5</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>169.3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>169.4</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>169.5</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>169.7</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>169.9</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>169.7</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>169.9</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>169.9</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>169.7</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>169.9</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>169.7</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>169.4</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>169.7</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>170.4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>169.7</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>170.1</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>170.1</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>169.7</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>170.2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>170.1</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>170.2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>169.9</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>170.5</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>170.6</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>170.5</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>170.5</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>170.5</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>170.4</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>170.9</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>170.8</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>171.3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>171.4</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>171.1</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>171.4</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>171.3</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>171.6</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>171.1</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>171.2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>171.3</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>171.6</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>171.6</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>171.4</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>171.4</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>171.7</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>172.1</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>171.6</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>171.4</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>171.7</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>171.9</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>171.7</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>171.9</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>172.3</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>172.3</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>172.3</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>172.3</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>171.9</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>172.6</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>172.8</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>172.3</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>172.6</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>172.7</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>172.8</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>172.8</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>172.3</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>172.6</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>172.6</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>172.3</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>172.1</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>172.3</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>172.1</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F2C-45DC-8F2F-D0FDF859AD4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="263806991"/>
+        <c:axId val="265594111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="263806991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265594111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="265594111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263806991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -4588,6 +7050,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6652,6 +9154,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6764,16 +9782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>578828</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>137747</xdr:rowOff>
+      <xdr:rowOff>123093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>549519</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>227134</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>23447</xdr:rowOff>
+      <xdr:rowOff>8793</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6793,6 +9811,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>578827</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>227134</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23446</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05399AD-54D7-4EB4-AB48-D2A5DAC8371C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7098,10 +10152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376E557A-5CFE-4B1E-958C-F4C336D66247}">
-  <dimension ref="A1:L297"/>
+  <dimension ref="A1:L363"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J257"/>
+      <selection activeCell="L363" sqref="K2:L363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7113,6 +10167,7 @@
     <col min="9" max="9" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7175,6 +10230,9 @@
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
@@ -7204,6 +10262,9 @@
       <c r="K3">
         <v>5</v>
       </c>
+      <c r="L3">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
@@ -7233,6 +10294,9 @@
       <c r="K4">
         <v>10</v>
       </c>
+      <c r="L4">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
@@ -7262,6 +10326,9 @@
       <c r="K5">
         <v>15</v>
       </c>
+      <c r="L5">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
@@ -7291,6 +10358,9 @@
       <c r="K6">
         <v>20</v>
       </c>
+      <c r="L6">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
@@ -7320,6 +10390,9 @@
       <c r="K7">
         <v>25</v>
       </c>
+      <c r="L7">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
@@ -7349,6 +10422,9 @@
       <c r="K8">
         <v>30</v>
       </c>
+      <c r="L8">
+        <v>23.9</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
@@ -7378,6 +10454,9 @@
       <c r="K9">
         <v>35</v>
       </c>
+      <c r="L9">
+        <v>24.2</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
@@ -7407,6 +10486,9 @@
       <c r="K10">
         <v>40</v>
       </c>
+      <c r="L10">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
@@ -7436,6 +10518,9 @@
       <c r="K11">
         <v>45</v>
       </c>
+      <c r="L11">
+        <v>24.7</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
@@ -7465,6 +10550,9 @@
       <c r="K12">
         <v>50</v>
       </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
@@ -7494,6 +10582,9 @@
       <c r="K13">
         <v>55</v>
       </c>
+      <c r="L13">
+        <v>25.4</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
@@ -7523,6 +10614,9 @@
       <c r="K14">
         <v>60</v>
       </c>
+      <c r="L14">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
@@ -7552,6 +10646,9 @@
       <c r="K15">
         <v>65</v>
       </c>
+      <c r="L15">
+        <v>26.3</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
@@ -7581,8 +10678,11 @@
       <c r="K16">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>60</v>
       </c>
@@ -7610,8 +10710,11 @@
       <c r="K17">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>64</v>
       </c>
@@ -7639,8 +10742,11 @@
       <c r="K18">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>68</v>
       </c>
@@ -7668,8 +10774,11 @@
       <c r="K19">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>72</v>
       </c>
@@ -7697,8 +10806,11 @@
       <c r="K20">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>76</v>
       </c>
@@ -7726,8 +10838,11 @@
       <c r="K21">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>80</v>
       </c>
@@ -7755,8 +10870,11 @@
       <c r="K22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>84</v>
       </c>
@@ -7784,8 +10902,11 @@
       <c r="K23">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>88</v>
       </c>
@@ -7813,8 +10934,11 @@
       <c r="K24">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>92</v>
       </c>
@@ -7842,8 +10966,11 @@
       <c r="K25">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>96</v>
       </c>
@@ -7871,8 +10998,11 @@
       <c r="K26">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>100</v>
       </c>
@@ -7900,8 +11030,11 @@
       <c r="K27">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>104</v>
       </c>
@@ -7929,8 +11062,11 @@
       <c r="K28">
         <v>130</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>108</v>
       </c>
@@ -7958,8 +11094,11 @@
       <c r="K29">
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>112</v>
       </c>
@@ -7987,8 +11126,11 @@
       <c r="K30">
         <v>140</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>116</v>
       </c>
@@ -8016,8 +11158,11 @@
       <c r="K31">
         <v>145</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>120</v>
       </c>
@@ -8045,8 +11190,11 @@
       <c r="K32">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>124</v>
       </c>
@@ -8074,8 +11222,11 @@
       <c r="K33">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>128</v>
       </c>
@@ -8103,8 +11254,11 @@
       <c r="K34">
         <v>160</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>132</v>
       </c>
@@ -8132,8 +11286,11 @@
       <c r="K35">
         <v>165</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>136</v>
       </c>
@@ -8161,8 +11318,11 @@
       <c r="K36">
         <v>170</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>140</v>
       </c>
@@ -8190,8 +11350,11 @@
       <c r="K37">
         <v>175</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>144</v>
       </c>
@@ -8219,8 +11382,11 @@
       <c r="K38">
         <v>180</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>148</v>
       </c>
@@ -8248,8 +11414,11 @@
       <c r="K39">
         <v>185</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>152</v>
       </c>
@@ -8277,8 +11446,11 @@
       <c r="K40">
         <v>190</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>156</v>
       </c>
@@ -8306,8 +11478,11 @@
       <c r="K41">
         <v>195</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>160</v>
       </c>
@@ -8335,8 +11510,11 @@
       <c r="K42">
         <v>200</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>164</v>
       </c>
@@ -8364,8 +11542,11 @@
       <c r="K43">
         <v>205</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>168</v>
       </c>
@@ -8393,8 +11574,11 @@
       <c r="K44">
         <v>210</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>172</v>
       </c>
@@ -8422,8 +11606,11 @@
       <c r="K45">
         <v>215</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>176</v>
       </c>
@@ -8451,8 +11638,11 @@
       <c r="K46">
         <v>220</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>180</v>
       </c>
@@ -8480,8 +11670,11 @@
       <c r="K47">
         <v>225</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>184</v>
       </c>
@@ -8509,8 +11702,11 @@
       <c r="K48">
         <v>230</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>188</v>
       </c>
@@ -8538,8 +11734,11 @@
       <c r="K49">
         <v>235</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>192</v>
       </c>
@@ -8567,8 +11766,11 @@
       <c r="K50">
         <v>240</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>196</v>
       </c>
@@ -8596,8 +11798,11 @@
       <c r="K51">
         <v>245</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>200</v>
       </c>
@@ -8625,8 +11830,11 @@
       <c r="K52">
         <v>250</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>204</v>
       </c>
@@ -8654,8 +11862,11 @@
       <c r="K53">
         <v>255</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>208</v>
       </c>
@@ -8683,8 +11894,11 @@
       <c r="K54">
         <v>260</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>212</v>
       </c>
@@ -8712,8 +11926,11 @@
       <c r="K55">
         <v>265</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>216</v>
       </c>
@@ -8741,8 +11958,11 @@
       <c r="K56">
         <v>270</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>220</v>
       </c>
@@ -8770,8 +11990,11 @@
       <c r="K57">
         <v>275</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>224</v>
       </c>
@@ -8799,8 +12022,11 @@
       <c r="K58">
         <v>280</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>228</v>
       </c>
@@ -8828,8 +12054,11 @@
       <c r="K59">
         <v>285</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>232</v>
       </c>
@@ -8857,8 +12086,11 @@
       <c r="K60">
         <v>290</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>236</v>
       </c>
@@ -8886,8 +12118,11 @@
       <c r="K61">
         <v>295</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>240</v>
       </c>
@@ -8915,8 +12150,11 @@
       <c r="K62">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>244</v>
       </c>
@@ -8944,8 +12182,11 @@
       <c r="K63">
         <v>305</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>248</v>
       </c>
@@ -8973,8 +12214,11 @@
       <c r="K64">
         <v>310</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>252</v>
       </c>
@@ -9002,8 +12246,11 @@
       <c r="K65">
         <v>315</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>256</v>
       </c>
@@ -9031,8 +12278,11 @@
       <c r="K66">
         <v>320</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>260</v>
       </c>
@@ -9060,8 +12310,11 @@
       <c r="K67">
         <v>325</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>264</v>
       </c>
@@ -9089,8 +12342,11 @@
       <c r="K68">
         <v>330</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>268</v>
       </c>
@@ -9118,8 +12374,11 @@
       <c r="K69">
         <v>335</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>272</v>
       </c>
@@ -9147,8 +12406,11 @@
       <c r="K70">
         <v>340</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>276</v>
       </c>
@@ -9176,8 +12438,11 @@
       <c r="K71">
         <v>345</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>280</v>
       </c>
@@ -9205,8 +12470,11 @@
       <c r="K72">
         <v>350</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>284</v>
       </c>
@@ -9234,8 +12502,11 @@
       <c r="K73">
         <v>355</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>288</v>
       </c>
@@ -9263,8 +12534,11 @@
       <c r="K74">
         <v>360</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>292</v>
       </c>
@@ -9292,8 +12566,11 @@
       <c r="K75">
         <v>365</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>296</v>
       </c>
@@ -9321,8 +12598,11 @@
       <c r="K76">
         <v>370</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>300</v>
       </c>
@@ -9350,8 +12630,11 @@
       <c r="K77">
         <v>375</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>304</v>
       </c>
@@ -9379,8 +12662,11 @@
       <c r="K78">
         <v>380</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>308</v>
       </c>
@@ -9408,8 +12694,11 @@
       <c r="K79">
         <v>385</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>312</v>
       </c>
@@ -9437,8 +12726,11 @@
       <c r="K80">
         <v>390</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>316</v>
       </c>
@@ -9466,8 +12758,11 @@
       <c r="K81">
         <v>395</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>320</v>
       </c>
@@ -9495,8 +12790,11 @@
       <c r="K82">
         <v>400</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>324</v>
       </c>
@@ -9524,8 +12822,11 @@
       <c r="K83">
         <v>405</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>328</v>
       </c>
@@ -9553,8 +12854,11 @@
       <c r="K84">
         <v>410</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84">
+        <v>105.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>332</v>
       </c>
@@ -9582,8 +12886,11 @@
       <c r="K85">
         <v>415</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85">
+        <v>106.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>336</v>
       </c>
@@ -9611,8 +12918,11 @@
       <c r="K86">
         <v>420</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>340</v>
       </c>
@@ -9640,8 +12950,11 @@
       <c r="K87">
         <v>425</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87">
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>344</v>
       </c>
@@ -9669,8 +12982,11 @@
       <c r="K88">
         <v>430</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88">
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>348</v>
       </c>
@@ -9698,8 +13014,11 @@
       <c r="K89">
         <v>435</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>352</v>
       </c>
@@ -9727,8 +13046,11 @@
       <c r="K90">
         <v>440</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>356</v>
       </c>
@@ -9756,8 +13078,11 @@
       <c r="K91">
         <v>445</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91">
+        <v>112.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>360</v>
       </c>
@@ -9785,8 +13110,11 @@
       <c r="K92">
         <v>450</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92">
+        <v>113.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>364</v>
       </c>
@@ -9814,8 +13142,11 @@
       <c r="K93">
         <v>455</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>368</v>
       </c>
@@ -9843,8 +13174,11 @@
       <c r="K94">
         <v>460</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>372</v>
       </c>
@@ -9872,8 +13206,11 @@
       <c r="K95">
         <v>465</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95">
+        <v>116.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>376</v>
       </c>
@@ -9901,8 +13238,11 @@
       <c r="K96">
         <v>470</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96">
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>380</v>
       </c>
@@ -9930,8 +13270,11 @@
       <c r="K97">
         <v>475</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>384</v>
       </c>
@@ -9959,8 +13302,11 @@
       <c r="K98">
         <v>480</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>388</v>
       </c>
@@ -9988,8 +13334,11 @@
       <c r="K99">
         <v>485</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99">
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>392</v>
       </c>
@@ -10017,8 +13366,11 @@
       <c r="K100">
         <v>490</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100">
+        <v>121.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>396</v>
       </c>
@@ -10046,8 +13398,11 @@
       <c r="K101">
         <v>495</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>400</v>
       </c>
@@ -10075,8 +13430,11 @@
       <c r="K102">
         <v>500</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102">
+        <v>124.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>404</v>
       </c>
@@ -10104,8 +13462,11 @@
       <c r="K103">
         <v>505</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103">
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>408</v>
       </c>
@@ -10133,8 +13494,11 @@
       <c r="K104">
         <v>510</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104">
+        <v>125.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>412</v>
       </c>
@@ -10162,8 +13526,11 @@
       <c r="K105">
         <v>515</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105">
+        <v>126.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>416</v>
       </c>
@@ -10191,8 +13558,11 @@
       <c r="K106">
         <v>520</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>420</v>
       </c>
@@ -10220,8 +13590,11 @@
       <c r="K107">
         <v>525</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>424</v>
       </c>
@@ -10249,8 +13622,11 @@
       <c r="K108">
         <v>530</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108">
+        <v>128.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="C109">
         <v>535</v>
       </c>
@@ -10272,8 +13648,11 @@
       <c r="K109">
         <v>535</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109">
+        <v>129.80000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="C110">
         <v>540</v>
       </c>
@@ -10295,8 +13674,11 @@
       <c r="K110">
         <v>540</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110">
+        <v>130.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="C111">
         <v>545</v>
       </c>
@@ -10318,8 +13700,11 @@
       <c r="K111">
         <v>545</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="C112">
         <v>550</v>
       </c>
@@ -10341,8 +13726,11 @@
       <c r="K112">
         <v>550</v>
       </c>
-    </row>
-    <row r="113" spans="3:11">
+      <c r="L112">
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="113" spans="3:12">
       <c r="C113">
         <v>555</v>
       </c>
@@ -10364,8 +13752,11 @@
       <c r="K113">
         <v>555</v>
       </c>
-    </row>
-    <row r="114" spans="3:11">
+      <c r="L113">
+        <v>132.19999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12">
       <c r="C114">
         <v>560</v>
       </c>
@@ -10387,8 +13778,11 @@
       <c r="K114">
         <v>560</v>
       </c>
-    </row>
-    <row r="115" spans="3:11">
+      <c r="L114">
+        <v>133.4</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12">
       <c r="C115">
         <v>565</v>
       </c>
@@ -10410,8 +13804,11 @@
       <c r="K115">
         <v>565</v>
       </c>
-    </row>
-    <row r="116" spans="3:11">
+      <c r="L115">
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12">
       <c r="C116">
         <v>570</v>
       </c>
@@ -10433,8 +13830,11 @@
       <c r="K116">
         <v>570</v>
       </c>
-    </row>
-    <row r="117" spans="3:11">
+      <c r="L116">
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="117" spans="3:12">
       <c r="C117">
         <v>575</v>
       </c>
@@ -10456,8 +13856,11 @@
       <c r="K117">
         <v>575</v>
       </c>
-    </row>
-    <row r="118" spans="3:11">
+      <c r="L117">
+        <v>135.1</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12">
       <c r="C118">
         <v>580</v>
       </c>
@@ -10479,8 +13882,11 @@
       <c r="K118">
         <v>580</v>
       </c>
-    </row>
-    <row r="119" spans="3:11">
+      <c r="L118">
+        <v>135.9</v>
+      </c>
+    </row>
+    <row r="119" spans="3:12">
       <c r="C119">
         <v>585</v>
       </c>
@@ -10502,8 +13908,11 @@
       <c r="K119">
         <v>585</v>
       </c>
-    </row>
-    <row r="120" spans="3:11">
+      <c r="L119">
+        <v>136.1</v>
+      </c>
+    </row>
+    <row r="120" spans="3:12">
       <c r="C120">
         <v>590</v>
       </c>
@@ -10525,8 +13934,11 @@
       <c r="K120">
         <v>590</v>
       </c>
-    </row>
-    <row r="121" spans="3:11">
+      <c r="L120">
+        <v>136.9</v>
+      </c>
+    </row>
+    <row r="121" spans="3:12">
       <c r="C121">
         <v>595</v>
       </c>
@@ -10548,8 +13960,11 @@
       <c r="K121">
         <v>595</v>
       </c>
-    </row>
-    <row r="122" spans="3:11">
+      <c r="L121">
+        <v>137.19999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="3:12">
       <c r="C122">
         <v>600</v>
       </c>
@@ -10571,8 +13986,11 @@
       <c r="K122">
         <v>600</v>
       </c>
-    </row>
-    <row r="123" spans="3:11">
+      <c r="L122">
+        <v>138.19999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="3:12">
       <c r="C123">
         <v>605</v>
       </c>
@@ -10594,8 +14012,11 @@
       <c r="K123">
         <v>605</v>
       </c>
-    </row>
-    <row r="124" spans="3:11">
+      <c r="L123">
+        <v>139.1</v>
+      </c>
+    </row>
+    <row r="124" spans="3:12">
       <c r="C124">
         <v>610</v>
       </c>
@@ -10617,8 +14038,11 @@
       <c r="K124">
         <v>610</v>
       </c>
-    </row>
-    <row r="125" spans="3:11">
+      <c r="L124">
+        <v>139.4</v>
+      </c>
+    </row>
+    <row r="125" spans="3:12">
       <c r="C125">
         <v>615</v>
       </c>
@@ -10640,8 +14064,11 @@
       <c r="K125">
         <v>615</v>
       </c>
-    </row>
-    <row r="126" spans="3:11">
+      <c r="L125">
+        <v>139.80000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="3:12">
       <c r="C126">
         <v>620</v>
       </c>
@@ -10663,8 +14090,11 @@
       <c r="K126">
         <v>620</v>
       </c>
-    </row>
-    <row r="127" spans="3:11">
+      <c r="L126">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="127" spans="3:12">
       <c r="C127">
         <v>625</v>
       </c>
@@ -10686,8 +14116,11 @@
       <c r="K127">
         <v>625</v>
       </c>
-    </row>
-    <row r="128" spans="3:11">
+      <c r="L127">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="3:12">
       <c r="C128">
         <v>630</v>
       </c>
@@ -10709,8 +14142,11 @@
       <c r="K128">
         <v>630</v>
       </c>
-    </row>
-    <row r="129" spans="3:11">
+      <c r="L128">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="129" spans="3:12">
       <c r="C129">
         <v>635</v>
       </c>
@@ -10732,8 +14168,11 @@
       <c r="K129">
         <v>635</v>
       </c>
-    </row>
-    <row r="130" spans="3:11">
+      <c r="L129">
+        <v>141.9</v>
+      </c>
+    </row>
+    <row r="130" spans="3:12">
       <c r="C130">
         <v>640</v>
       </c>
@@ -10755,8 +14194,11 @@
       <c r="K130">
         <v>640</v>
       </c>
-    </row>
-    <row r="131" spans="3:11">
+      <c r="L130">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="131" spans="3:12">
       <c r="C131">
         <v>645</v>
       </c>
@@ -10778,8 +14220,11 @@
       <c r="K131">
         <v>645</v>
       </c>
-    </row>
-    <row r="132" spans="3:11">
+      <c r="L131">
+        <v>143.1</v>
+      </c>
+    </row>
+    <row r="132" spans="3:12">
       <c r="C132">
         <v>650</v>
       </c>
@@ -10801,8 +14246,11 @@
       <c r="K132">
         <v>650</v>
       </c>
-    </row>
-    <row r="133" spans="3:11">
+      <c r="L132">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="133" spans="3:12">
       <c r="C133">
         <v>655</v>
       </c>
@@ -10824,8 +14272,11 @@
       <c r="K133">
         <v>655</v>
       </c>
-    </row>
-    <row r="134" spans="3:11">
+      <c r="L133">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12">
       <c r="C134">
         <v>660</v>
       </c>
@@ -10847,8 +14298,11 @@
       <c r="K134">
         <v>660</v>
       </c>
-    </row>
-    <row r="135" spans="3:11">
+      <c r="L134">
+        <v>144.6</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12">
       <c r="C135">
         <v>665</v>
       </c>
@@ -10870,8 +14324,11 @@
       <c r="K135">
         <v>665</v>
       </c>
-    </row>
-    <row r="136" spans="3:11">
+      <c r="L135">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12">
       <c r="C136">
         <v>670</v>
       </c>
@@ -10893,8 +14350,11 @@
       <c r="K136">
         <v>670</v>
       </c>
-    </row>
-    <row r="137" spans="3:11">
+      <c r="L136">
+        <v>145.30000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12">
       <c r="C137">
         <v>675</v>
       </c>
@@ -10916,8 +14376,11 @@
       <c r="K137">
         <v>675</v>
       </c>
-    </row>
-    <row r="138" spans="3:11">
+      <c r="L137">
+        <v>145.9</v>
+      </c>
+    </row>
+    <row r="138" spans="3:12">
       <c r="C138">
         <v>680</v>
       </c>
@@ -10939,8 +14402,11 @@
       <c r="K138">
         <v>680</v>
       </c>
-    </row>
-    <row r="139" spans="3:11">
+      <c r="L138">
+        <v>146.30000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="3:12">
       <c r="C139">
         <v>685</v>
       </c>
@@ -10962,8 +14428,11 @@
       <c r="K139">
         <v>685</v>
       </c>
-    </row>
-    <row r="140" spans="3:11">
+      <c r="L139">
+        <v>146.9</v>
+      </c>
+    </row>
+    <row r="140" spans="3:12">
       <c r="C140">
         <v>690</v>
       </c>
@@ -10985,8 +14454,11 @@
       <c r="K140">
         <v>690</v>
       </c>
-    </row>
-    <row r="141" spans="3:11">
+      <c r="L140">
+        <v>147.4</v>
+      </c>
+    </row>
+    <row r="141" spans="3:12">
       <c r="C141">
         <v>695</v>
       </c>
@@ -11008,8 +14480,11 @@
       <c r="K141">
         <v>695</v>
       </c>
-    </row>
-    <row r="142" spans="3:11">
+      <c r="L141">
+        <v>147.80000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="3:12">
       <c r="C142">
         <v>700</v>
       </c>
@@ -11031,8 +14506,11 @@
       <c r="K142">
         <v>700</v>
       </c>
-    </row>
-    <row r="143" spans="3:11">
+      <c r="L142">
+        <v>147.9</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12">
       <c r="C143">
         <v>705</v>
       </c>
@@ -11054,8 +14532,11 @@
       <c r="K143">
         <v>705</v>
       </c>
-    </row>
-    <row r="144" spans="3:11">
+      <c r="L143">
+        <v>148.69999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="3:12">
       <c r="C144">
         <v>710</v>
       </c>
@@ -11077,8 +14558,11 @@
       <c r="K144">
         <v>710</v>
       </c>
-    </row>
-    <row r="145" spans="3:11">
+      <c r="L144">
+        <v>149.19999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="3:12">
       <c r="C145">
         <v>715</v>
       </c>
@@ -11100,8 +14584,11 @@
       <c r="K145">
         <v>715</v>
       </c>
-    </row>
-    <row r="146" spans="3:11">
+      <c r="L145">
+        <v>149.19999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="3:12">
       <c r="E146">
         <v>720</v>
       </c>
@@ -11117,8 +14604,11 @@
       <c r="K146">
         <v>720</v>
       </c>
-    </row>
-    <row r="147" spans="3:11">
+      <c r="L146">
+        <v>149.69999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="3:12">
       <c r="E147">
         <v>725</v>
       </c>
@@ -11134,8 +14624,11 @@
       <c r="K147">
         <v>725</v>
       </c>
-    </row>
-    <row r="148" spans="3:11">
+      <c r="L147">
+        <v>150.69999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="3:12">
       <c r="E148">
         <v>730</v>
       </c>
@@ -11151,8 +14644,11 @@
       <c r="K148">
         <v>730</v>
       </c>
-    </row>
-    <row r="149" spans="3:11">
+      <c r="L148">
+        <v>150.9</v>
+      </c>
+    </row>
+    <row r="149" spans="3:12">
       <c r="E149">
         <v>735</v>
       </c>
@@ -11168,8 +14664,11 @@
       <c r="K149">
         <v>735</v>
       </c>
-    </row>
-    <row r="150" spans="3:11">
+      <c r="L149">
+        <v>150.80000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="3:12">
       <c r="E150">
         <v>740</v>
       </c>
@@ -11185,8 +14684,11 @@
       <c r="K150">
         <v>740</v>
       </c>
-    </row>
-    <row r="151" spans="3:11">
+      <c r="L150">
+        <v>151.19999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="3:12">
       <c r="E151">
         <v>745</v>
       </c>
@@ -11202,8 +14704,11 @@
       <c r="K151">
         <v>745</v>
       </c>
-    </row>
-    <row r="152" spans="3:11">
+      <c r="L151">
+        <v>151.5</v>
+      </c>
+    </row>
+    <row r="152" spans="3:12">
       <c r="E152">
         <v>750</v>
       </c>
@@ -11219,8 +14724,11 @@
       <c r="K152">
         <v>750</v>
       </c>
-    </row>
-    <row r="153" spans="3:11">
+      <c r="L152">
+        <v>151.6</v>
+      </c>
+    </row>
+    <row r="153" spans="3:12">
       <c r="E153">
         <v>755</v>
       </c>
@@ -11236,8 +14744,11 @@
       <c r="K153">
         <v>755</v>
       </c>
-    </row>
-    <row r="154" spans="3:11">
+      <c r="L153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="3:12">
       <c r="E154">
         <v>760</v>
       </c>
@@ -11253,8 +14764,11 @@
       <c r="K154">
         <v>760</v>
       </c>
-    </row>
-    <row r="155" spans="3:11">
+      <c r="L154">
+        <v>152.9</v>
+      </c>
+    </row>
+    <row r="155" spans="3:12">
       <c r="E155">
         <v>765</v>
       </c>
@@ -11270,8 +14784,11 @@
       <c r="K155">
         <v>765</v>
       </c>
-    </row>
-    <row r="156" spans="3:11">
+      <c r="L155">
+        <v>153.19999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="3:12">
       <c r="E156">
         <v>770</v>
       </c>
@@ -11287,8 +14804,11 @@
       <c r="K156">
         <v>770</v>
       </c>
-    </row>
-    <row r="157" spans="3:11">
+      <c r="L156">
+        <v>153.30000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="3:12">
       <c r="E157">
         <v>775</v>
       </c>
@@ -11304,8 +14824,11 @@
       <c r="K157">
         <v>775</v>
       </c>
-    </row>
-    <row r="158" spans="3:11">
+      <c r="L157">
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="158" spans="3:12">
       <c r="E158">
         <v>780</v>
       </c>
@@ -11321,8 +14844,11 @@
       <c r="K158">
         <v>780</v>
       </c>
-    </row>
-    <row r="159" spans="3:11">
+      <c r="L158">
+        <v>154.1</v>
+      </c>
+    </row>
+    <row r="159" spans="3:12">
       <c r="E159">
         <v>785</v>
       </c>
@@ -11338,8 +14864,11 @@
       <c r="K159">
         <v>785</v>
       </c>
-    </row>
-    <row r="160" spans="3:11">
+      <c r="L159">
+        <v>154.1</v>
+      </c>
+    </row>
+    <row r="160" spans="3:12">
       <c r="E160">
         <v>790</v>
       </c>
@@ -11355,8 +14884,11 @@
       <c r="K160">
         <v>790</v>
       </c>
-    </row>
-    <row r="161" spans="5:11">
+      <c r="L160">
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="161" spans="5:12">
       <c r="E161">
         <v>795</v>
       </c>
@@ -11372,8 +14904,11 @@
       <c r="K161">
         <v>795</v>
       </c>
-    </row>
-    <row r="162" spans="5:11">
+      <c r="L161">
+        <v>154.30000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="5:12">
       <c r="E162">
         <v>800</v>
       </c>
@@ -11389,8 +14924,11 @@
       <c r="K162">
         <v>800</v>
       </c>
-    </row>
-    <row r="163" spans="5:11">
+      <c r="L162">
+        <v>155.19999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="5:12">
       <c r="E163">
         <v>805</v>
       </c>
@@ -11406,8 +14944,11 @@
       <c r="K163">
         <v>805</v>
       </c>
-    </row>
-    <row r="164" spans="5:11">
+      <c r="L163">
+        <v>155.5</v>
+      </c>
+    </row>
+    <row r="164" spans="5:12">
       <c r="E164">
         <v>810</v>
       </c>
@@ -11423,8 +14964,11 @@
       <c r="K164">
         <v>810</v>
       </c>
-    </row>
-    <row r="165" spans="5:11">
+      <c r="L164">
+        <v>155.6</v>
+      </c>
+    </row>
+    <row r="165" spans="5:12">
       <c r="E165">
         <v>815</v>
       </c>
@@ -11440,8 +14984,11 @@
       <c r="K165">
         <v>815</v>
       </c>
-    </row>
-    <row r="166" spans="5:11">
+      <c r="L165">
+        <v>155.80000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="5:12">
       <c r="E166">
         <v>820</v>
       </c>
@@ -11457,8 +15004,11 @@
       <c r="K166">
         <v>820</v>
       </c>
-    </row>
-    <row r="167" spans="5:11">
+      <c r="L166">
+        <v>156.30000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="5:12">
       <c r="E167">
         <v>825</v>
       </c>
@@ -11474,8 +15024,11 @@
       <c r="K167">
         <v>825</v>
       </c>
-    </row>
-    <row r="168" spans="5:11">
+      <c r="L167">
+        <v>156.6</v>
+      </c>
+    </row>
+    <row r="168" spans="5:12">
       <c r="E168">
         <v>830</v>
       </c>
@@ -11491,8 +15044,11 @@
       <c r="K168">
         <v>830</v>
       </c>
-    </row>
-    <row r="169" spans="5:11">
+      <c r="L168">
+        <v>156.69999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="5:12">
       <c r="E169">
         <v>835</v>
       </c>
@@ -11508,8 +15064,11 @@
       <c r="K169">
         <v>835</v>
       </c>
-    </row>
-    <row r="170" spans="5:11">
+      <c r="L169">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="170" spans="5:12">
       <c r="E170">
         <v>840</v>
       </c>
@@ -11525,8 +15084,11 @@
       <c r="K170">
         <v>840</v>
       </c>
-    </row>
-    <row r="171" spans="5:11">
+      <c r="L170">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="171" spans="5:12">
       <c r="E171">
         <v>845</v>
       </c>
@@ -11542,8 +15104,11 @@
       <c r="K171">
         <v>845</v>
       </c>
-    </row>
-    <row r="172" spans="5:11">
+      <c r="L171">
+        <v>158.19999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="5:12">
       <c r="E172">
         <v>850</v>
       </c>
@@ -11559,8 +15124,11 @@
       <c r="K172">
         <v>850</v>
       </c>
-    </row>
-    <row r="173" spans="5:11">
+      <c r="L172">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="173" spans="5:12">
       <c r="E173">
         <v>855</v>
       </c>
@@ -11576,8 +15144,11 @@
       <c r="K173">
         <v>855</v>
       </c>
-    </row>
-    <row r="174" spans="5:11">
+      <c r="L173">
+        <v>157.69999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="5:12">
       <c r="E174">
         <v>860</v>
       </c>
@@ -11593,8 +15164,11 @@
       <c r="K174">
         <v>860</v>
       </c>
-    </row>
-    <row r="175" spans="5:11">
+      <c r="L174">
+        <v>158.9</v>
+      </c>
+    </row>
+    <row r="175" spans="5:12">
       <c r="E175">
         <v>865</v>
       </c>
@@ -11610,8 +15184,11 @@
       <c r="K175">
         <v>865</v>
       </c>
-    </row>
-    <row r="176" spans="5:11">
+      <c r="L175">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="176" spans="5:12">
       <c r="E176">
         <v>870</v>
       </c>
@@ -11627,8 +15204,11 @@
       <c r="K176">
         <v>870</v>
       </c>
-    </row>
-    <row r="177" spans="5:11">
+      <c r="L176">
+        <v>159.19999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="5:12">
       <c r="E177">
         <v>875</v>
       </c>
@@ -11644,8 +15224,11 @@
       <c r="K177">
         <v>875</v>
       </c>
-    </row>
-    <row r="178" spans="5:11">
+      <c r="L177">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="178" spans="5:12">
       <c r="E178">
         <v>880</v>
       </c>
@@ -11661,8 +15244,11 @@
       <c r="K178">
         <v>880</v>
       </c>
-    </row>
-    <row r="179" spans="5:11">
+      <c r="L178">
+        <v>159.30000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="5:12">
       <c r="E179">
         <v>885</v>
       </c>
@@ -11678,8 +15264,11 @@
       <c r="K179">
         <v>885</v>
       </c>
-    </row>
-    <row r="180" spans="5:11">
+      <c r="L179">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="180" spans="5:12">
       <c r="E180">
         <v>890</v>
       </c>
@@ -11695,8 +15284,11 @@
       <c r="K180">
         <v>890</v>
       </c>
-    </row>
-    <row r="181" spans="5:11">
+      <c r="L180">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="5:12">
       <c r="E181">
         <v>895</v>
       </c>
@@ -11712,8 +15304,11 @@
       <c r="K181">
         <v>895</v>
       </c>
-    </row>
-    <row r="182" spans="5:11">
+      <c r="L181">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="5:12">
       <c r="E182">
         <v>900</v>
       </c>
@@ -11729,8 +15324,11 @@
       <c r="K182">
         <v>900</v>
       </c>
-    </row>
-    <row r="183" spans="5:11">
+      <c r="L182">
+        <v>160.4</v>
+      </c>
+    </row>
+    <row r="183" spans="5:12">
       <c r="E183">
         <v>905</v>
       </c>
@@ -11746,8 +15344,11 @@
       <c r="K183">
         <v>905</v>
       </c>
-    </row>
-    <row r="184" spans="5:11">
+      <c r="L183">
+        <v>160.6</v>
+      </c>
+    </row>
+    <row r="184" spans="5:12">
       <c r="E184">
         <v>910</v>
       </c>
@@ -11763,8 +15364,11 @@
       <c r="K184">
         <v>910</v>
       </c>
-    </row>
-    <row r="185" spans="5:11">
+      <c r="L184">
+        <v>160.80000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="5:12">
       <c r="E185">
         <v>915</v>
       </c>
@@ -11780,8 +15384,11 @@
       <c r="K185">
         <v>915</v>
       </c>
-    </row>
-    <row r="186" spans="5:11">
+      <c r="L185">
+        <v>161.1</v>
+      </c>
+    </row>
+    <row r="186" spans="5:12">
       <c r="E186">
         <v>920</v>
       </c>
@@ -11797,8 +15404,11 @@
       <c r="K186">
         <v>920</v>
       </c>
-    </row>
-    <row r="187" spans="5:11">
+      <c r="L186">
+        <v>161.6</v>
+      </c>
+    </row>
+    <row r="187" spans="5:12">
       <c r="E187">
         <v>925</v>
       </c>
@@ -11814,8 +15424,11 @@
       <c r="K187">
         <v>925</v>
       </c>
-    </row>
-    <row r="188" spans="5:11">
+      <c r="L187">
+        <v>161.6</v>
+      </c>
+    </row>
+    <row r="188" spans="5:12">
       <c r="E188">
         <v>930</v>
       </c>
@@ -11831,8 +15444,11 @@
       <c r="K188">
         <v>930</v>
       </c>
-    </row>
-    <row r="189" spans="5:11">
+      <c r="L188">
+        <v>161.6</v>
+      </c>
+    </row>
+    <row r="189" spans="5:12">
       <c r="E189">
         <v>935</v>
       </c>
@@ -11848,8 +15464,11 @@
       <c r="K189">
         <v>935</v>
       </c>
-    </row>
-    <row r="190" spans="5:11">
+      <c r="L189">
+        <v>162.1</v>
+      </c>
+    </row>
+    <row r="190" spans="5:12">
       <c r="E190">
         <v>940</v>
       </c>
@@ -11865,8 +15484,11 @@
       <c r="K190">
         <v>940</v>
       </c>
-    </row>
-    <row r="191" spans="5:11">
+      <c r="L190">
+        <v>162.1</v>
+      </c>
+    </row>
+    <row r="191" spans="5:12">
       <c r="E191">
         <v>945</v>
       </c>
@@ -11882,8 +15504,11 @@
       <c r="K191">
         <v>945</v>
       </c>
-    </row>
-    <row r="192" spans="5:11">
+      <c r="L191">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="192" spans="5:12">
       <c r="E192">
         <v>950</v>
       </c>
@@ -11899,8 +15524,11 @@
       <c r="K192">
         <v>950</v>
       </c>
-    </row>
-    <row r="193" spans="5:11">
+      <c r="L192">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="193" spans="5:12">
       <c r="E193">
         <v>955</v>
       </c>
@@ -11916,8 +15544,11 @@
       <c r="K193">
         <v>955</v>
       </c>
-    </row>
-    <row r="194" spans="5:11">
+      <c r="L193">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="194" spans="5:12">
       <c r="E194">
         <v>960</v>
       </c>
@@ -11933,8 +15564,11 @@
       <c r="K194">
         <v>960</v>
       </c>
-    </row>
-    <row r="195" spans="5:11">
+      <c r="L194">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="195" spans="5:12">
       <c r="E195">
         <v>965</v>
       </c>
@@ -11950,8 +15584,11 @@
       <c r="K195">
         <v>965</v>
       </c>
-    </row>
-    <row r="196" spans="5:11">
+      <c r="L195">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="196" spans="5:12">
       <c r="E196">
         <v>970</v>
       </c>
@@ -11967,8 +15604,11 @@
       <c r="K196">
         <v>970</v>
       </c>
-    </row>
-    <row r="197" spans="5:11">
+      <c r="L196">
+        <v>163.6</v>
+      </c>
+    </row>
+    <row r="197" spans="5:12">
       <c r="E197">
         <v>975</v>
       </c>
@@ -11984,8 +15624,11 @@
       <c r="K197">
         <v>975</v>
       </c>
-    </row>
-    <row r="198" spans="5:11">
+      <c r="L197">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="198" spans="5:12">
       <c r="E198">
         <v>980</v>
       </c>
@@ -12001,8 +15644,11 @@
       <c r="K198">
         <v>980</v>
       </c>
-    </row>
-    <row r="199" spans="5:11">
+      <c r="L198">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="199" spans="5:12">
       <c r="E199">
         <v>985</v>
       </c>
@@ -12018,8 +15664,11 @@
       <c r="K199">
         <v>985</v>
       </c>
-    </row>
-    <row r="200" spans="5:11">
+      <c r="L199">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="200" spans="5:12">
       <c r="E200">
         <v>990</v>
       </c>
@@ -12035,8 +15684,11 @@
       <c r="K200">
         <v>990</v>
       </c>
-    </row>
-    <row r="201" spans="5:11">
+      <c r="L200">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="201" spans="5:12">
       <c r="E201">
         <v>995</v>
       </c>
@@ -12052,8 +15704,11 @@
       <c r="K201">
         <v>995</v>
       </c>
-    </row>
-    <row r="202" spans="5:11">
+      <c r="L201">
+        <v>164.4</v>
+      </c>
+    </row>
+    <row r="202" spans="5:12">
       <c r="E202">
         <v>1000</v>
       </c>
@@ -12069,8 +15724,11 @@
       <c r="K202">
         <v>1000</v>
       </c>
-    </row>
-    <row r="203" spans="5:11">
+      <c r="L202">
+        <v>164.7</v>
+      </c>
+    </row>
+    <row r="203" spans="5:12">
       <c r="E203">
         <v>1005</v>
       </c>
@@ -12086,8 +15744,11 @@
       <c r="K203">
         <v>1005</v>
       </c>
-    </row>
-    <row r="204" spans="5:11">
+      <c r="L203">
+        <v>164.9</v>
+      </c>
+    </row>
+    <row r="204" spans="5:12">
       <c r="E204">
         <v>1010</v>
       </c>
@@ -12103,8 +15764,11 @@
       <c r="K204">
         <v>1010</v>
       </c>
-    </row>
-    <row r="205" spans="5:11">
+      <c r="L204">
+        <v>164.6</v>
+      </c>
+    </row>
+    <row r="205" spans="5:12">
       <c r="E205">
         <v>1015</v>
       </c>
@@ -12120,8 +15784,11 @@
       <c r="K205">
         <v>1015</v>
       </c>
-    </row>
-    <row r="206" spans="5:11">
+      <c r="L205">
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="206" spans="5:12">
       <c r="E206">
         <v>1020</v>
       </c>
@@ -12137,8 +15804,11 @@
       <c r="K206">
         <v>1020</v>
       </c>
-    </row>
-    <row r="207" spans="5:11">
+      <c r="L206">
+        <v>164.9</v>
+      </c>
+    </row>
+    <row r="207" spans="5:12">
       <c r="E207">
         <v>1025</v>
       </c>
@@ -12154,8 +15824,11 @@
       <c r="K207">
         <v>1025</v>
       </c>
-    </row>
-    <row r="208" spans="5:11">
+      <c r="L207">
+        <v>165.3</v>
+      </c>
+    </row>
+    <row r="208" spans="5:12">
       <c r="E208">
         <v>1030</v>
       </c>
@@ -12171,8 +15844,11 @@
       <c r="K208">
         <v>1030</v>
       </c>
-    </row>
-    <row r="209" spans="5:11">
+      <c r="L208">
+        <v>165.3</v>
+      </c>
+    </row>
+    <row r="209" spans="5:12">
       <c r="E209">
         <v>1035</v>
       </c>
@@ -12188,8 +15864,11 @@
       <c r="K209">
         <v>1035</v>
       </c>
-    </row>
-    <row r="210" spans="5:11">
+      <c r="L209">
+        <v>165.5</v>
+      </c>
+    </row>
+    <row r="210" spans="5:12">
       <c r="E210">
         <v>1040</v>
       </c>
@@ -12205,8 +15884,11 @@
       <c r="K210">
         <v>1040</v>
       </c>
-    </row>
-    <row r="211" spans="5:11">
+      <c r="L210">
+        <v>165.6</v>
+      </c>
+    </row>
+    <row r="211" spans="5:12">
       <c r="E211">
         <v>1045</v>
       </c>
@@ -12222,8 +15904,11 @@
       <c r="K211">
         <v>1045</v>
       </c>
-    </row>
-    <row r="212" spans="5:11">
+      <c r="L211">
+        <v>165.8</v>
+      </c>
+    </row>
+    <row r="212" spans="5:12">
       <c r="E212">
         <v>1050</v>
       </c>
@@ -12239,8 +15924,11 @@
       <c r="K212">
         <v>1050</v>
       </c>
-    </row>
-    <row r="213" spans="5:11">
+      <c r="L212">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="213" spans="5:12">
       <c r="E213">
         <v>1055</v>
       </c>
@@ -12256,8 +15944,11 @@
       <c r="K213">
         <v>1055</v>
       </c>
-    </row>
-    <row r="214" spans="5:11">
+      <c r="L213">
+        <v>165.9</v>
+      </c>
+    </row>
+    <row r="214" spans="5:12">
       <c r="E214">
         <v>1060</v>
       </c>
@@ -12273,8 +15964,11 @@
       <c r="K214">
         <v>1060</v>
       </c>
-    </row>
-    <row r="215" spans="5:11">
+      <c r="L214">
+        <v>166.1</v>
+      </c>
+    </row>
+    <row r="215" spans="5:12">
       <c r="E215">
         <v>1065</v>
       </c>
@@ -12290,8 +15984,11 @@
       <c r="K215">
         <v>1065</v>
       </c>
-    </row>
-    <row r="216" spans="5:11">
+      <c r="L215">
+        <v>166.3</v>
+      </c>
+    </row>
+    <row r="216" spans="5:12">
       <c r="E216">
         <v>1070</v>
       </c>
@@ -12307,8 +16004,11 @@
       <c r="K216">
         <v>1070</v>
       </c>
-    </row>
-    <row r="217" spans="5:11">
+      <c r="L216">
+        <v>166.3</v>
+      </c>
+    </row>
+    <row r="217" spans="5:12">
       <c r="E217">
         <v>1075</v>
       </c>
@@ -12324,8 +16024,11 @@
       <c r="K217">
         <v>1075</v>
       </c>
-    </row>
-    <row r="218" spans="5:11">
+      <c r="L217">
+        <v>166.4</v>
+      </c>
+    </row>
+    <row r="218" spans="5:12">
       <c r="E218">
         <v>1080</v>
       </c>
@@ -12341,8 +16044,11 @@
       <c r="K218">
         <v>1080</v>
       </c>
-    </row>
-    <row r="219" spans="5:11">
+      <c r="L218">
+        <v>166.5</v>
+      </c>
+    </row>
+    <row r="219" spans="5:12">
       <c r="E219">
         <v>1085</v>
       </c>
@@ -12358,8 +16064,11 @@
       <c r="K219">
         <v>1085</v>
       </c>
-    </row>
-    <row r="220" spans="5:11">
+      <c r="L219">
+        <v>166.5</v>
+      </c>
+    </row>
+    <row r="220" spans="5:12">
       <c r="E220">
         <v>1090</v>
       </c>
@@ -12375,8 +16084,11 @@
       <c r="K220">
         <v>1090</v>
       </c>
-    </row>
-    <row r="221" spans="5:11">
+      <c r="L220">
+        <v>166.6</v>
+      </c>
+    </row>
+    <row r="221" spans="5:12">
       <c r="E221">
         <v>1095</v>
       </c>
@@ -12392,8 +16104,11 @@
       <c r="K221">
         <v>1095</v>
       </c>
-    </row>
-    <row r="222" spans="5:11">
+      <c r="L221">
+        <v>166.8</v>
+      </c>
+    </row>
+    <row r="222" spans="5:12">
       <c r="E222">
         <v>1100</v>
       </c>
@@ -12409,8 +16124,11 @@
       <c r="K222">
         <v>1100</v>
       </c>
-    </row>
-    <row r="223" spans="5:11">
+      <c r="L222">
+        <v>166.6</v>
+      </c>
+    </row>
+    <row r="223" spans="5:12">
       <c r="E223">
         <v>1105</v>
       </c>
@@ -12426,8 +16144,11 @@
       <c r="K223">
         <v>1105</v>
       </c>
-    </row>
-    <row r="224" spans="5:11">
+      <c r="L223">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="224" spans="5:12">
       <c r="E224">
         <v>1110</v>
       </c>
@@ -12443,8 +16164,11 @@
       <c r="K224">
         <v>1110</v>
       </c>
-    </row>
-    <row r="225" spans="5:11">
+      <c r="L224">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="225" spans="5:12">
       <c r="E225">
         <v>1115</v>
       </c>
@@ -12460,8 +16184,11 @@
       <c r="K225">
         <v>1115</v>
       </c>
-    </row>
-    <row r="226" spans="5:11">
+      <c r="L225">
+        <v>167.1</v>
+      </c>
+    </row>
+    <row r="226" spans="5:12">
       <c r="E226">
         <v>1120</v>
       </c>
@@ -12477,8 +16204,11 @@
       <c r="K226">
         <v>1120</v>
       </c>
-    </row>
-    <row r="227" spans="5:11">
+      <c r="L226">
+        <v>167.4</v>
+      </c>
+    </row>
+    <row r="227" spans="5:12">
       <c r="E227">
         <v>1125</v>
       </c>
@@ -12494,8 +16224,11 @@
       <c r="K227">
         <v>1125</v>
       </c>
-    </row>
-    <row r="228" spans="5:11">
+      <c r="L227">
+        <v>167.1</v>
+      </c>
+    </row>
+    <row r="228" spans="5:12">
       <c r="E228">
         <v>1130</v>
       </c>
@@ -12511,8 +16244,11 @@
       <c r="K228">
         <v>1130</v>
       </c>
-    </row>
-    <row r="229" spans="5:11">
+      <c r="L228">
+        <v>167.2</v>
+      </c>
+    </row>
+    <row r="229" spans="5:12">
       <c r="E229">
         <v>1135</v>
       </c>
@@ -12528,8 +16264,11 @@
       <c r="K229">
         <v>1135</v>
       </c>
-    </row>
-    <row r="230" spans="5:11">
+      <c r="L229">
+        <v>167.3</v>
+      </c>
+    </row>
+    <row r="230" spans="5:12">
       <c r="E230">
         <v>1140</v>
       </c>
@@ -12545,8 +16284,11 @@
       <c r="K230">
         <v>1140</v>
       </c>
-    </row>
-    <row r="231" spans="5:11">
+      <c r="L230">
+        <v>167.4</v>
+      </c>
+    </row>
+    <row r="231" spans="5:12">
       <c r="E231">
         <v>1145</v>
       </c>
@@ -12562,8 +16304,11 @@
       <c r="K231">
         <v>1145</v>
       </c>
-    </row>
-    <row r="232" spans="5:11">
+      <c r="L231">
+        <v>167.1</v>
+      </c>
+    </row>
+    <row r="232" spans="5:12">
       <c r="E232">
         <v>1150</v>
       </c>
@@ -12579,8 +16324,11 @@
       <c r="K232">
         <v>1150</v>
       </c>
-    </row>
-    <row r="233" spans="5:11">
+      <c r="L232">
+        <v>167.7</v>
+      </c>
+    </row>
+    <row r="233" spans="5:12">
       <c r="E233">
         <v>1155</v>
       </c>
@@ -12596,8 +16344,11 @@
       <c r="K233">
         <v>1155</v>
       </c>
-    </row>
-    <row r="234" spans="5:11">
+      <c r="L233">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="234" spans="5:12">
       <c r="E234">
         <v>1160</v>
       </c>
@@ -12613,8 +16364,11 @@
       <c r="K234">
         <v>1160</v>
       </c>
-    </row>
-    <row r="235" spans="5:11">
+      <c r="L234">
+        <v>167.6</v>
+      </c>
+    </row>
+    <row r="235" spans="5:12">
       <c r="E235">
         <v>1165</v>
       </c>
@@ -12630,8 +16384,11 @@
       <c r="K235">
         <v>1165</v>
       </c>
-    </row>
-    <row r="236" spans="5:11">
+      <c r="L235">
+        <v>167.9</v>
+      </c>
+    </row>
+    <row r="236" spans="5:12">
       <c r="E236">
         <v>1170</v>
       </c>
@@ -12647,8 +16404,11 @@
       <c r="K236">
         <v>1170</v>
       </c>
-    </row>
-    <row r="237" spans="5:11">
+      <c r="L236">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="237" spans="5:12">
       <c r="E237">
         <v>1175</v>
       </c>
@@ -12664,8 +16424,11 @@
       <c r="K237">
         <v>1175</v>
       </c>
-    </row>
-    <row r="238" spans="5:11">
+      <c r="L237">
+        <v>167.8</v>
+      </c>
+    </row>
+    <row r="238" spans="5:12">
       <c r="E238">
         <v>1180</v>
       </c>
@@ -12681,8 +16444,11 @@
       <c r="K238">
         <v>1180</v>
       </c>
-    </row>
-    <row r="239" spans="5:11">
+      <c r="L238">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="239" spans="5:12">
       <c r="E239">
         <v>1185</v>
       </c>
@@ -12698,8 +16464,11 @@
       <c r="K239">
         <v>1185</v>
       </c>
-    </row>
-    <row r="240" spans="5:11">
+      <c r="L239">
+        <v>168.3</v>
+      </c>
+    </row>
+    <row r="240" spans="5:12">
       <c r="E240">
         <v>1190</v>
       </c>
@@ -12715,8 +16484,11 @@
       <c r="K240">
         <v>1190</v>
       </c>
-    </row>
-    <row r="241" spans="5:11">
+      <c r="L240">
+        <v>168.7</v>
+      </c>
+    </row>
+    <row r="241" spans="5:12">
       <c r="E241">
         <v>1195</v>
       </c>
@@ -12732,8 +16504,11 @@
       <c r="K241">
         <v>1195</v>
       </c>
-    </row>
-    <row r="242" spans="5:11">
+      <c r="L241">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="242" spans="5:12">
       <c r="E242">
         <v>1200</v>
       </c>
@@ -12749,8 +16524,11 @@
       <c r="K242">
         <v>1200</v>
       </c>
-    </row>
-    <row r="243" spans="5:11">
+      <c r="L242">
+        <v>168.4</v>
+      </c>
+    </row>
+    <row r="243" spans="5:12">
       <c r="E243">
         <v>1205</v>
       </c>
@@ -12766,8 +16544,11 @@
       <c r="K243">
         <v>1205</v>
       </c>
-    </row>
-    <row r="244" spans="5:11">
+      <c r="L243">
+        <v>168.6</v>
+      </c>
+    </row>
+    <row r="244" spans="5:12">
       <c r="E244">
         <v>1210</v>
       </c>
@@ -12783,8 +16564,11 @@
       <c r="K244">
         <v>1210</v>
       </c>
-    </row>
-    <row r="245" spans="5:11">
+      <c r="L244">
+        <v>168.6</v>
+      </c>
+    </row>
+    <row r="245" spans="5:12">
       <c r="E245">
         <v>1215</v>
       </c>
@@ -12800,8 +16584,11 @@
       <c r="K245">
         <v>1215</v>
       </c>
-    </row>
-    <row r="246" spans="5:11">
+      <c r="L245">
+        <v>168.7</v>
+      </c>
+    </row>
+    <row r="246" spans="5:12">
       <c r="E246">
         <v>1220</v>
       </c>
@@ -12817,8 +16604,11 @@
       <c r="K246">
         <v>1220</v>
       </c>
-    </row>
-    <row r="247" spans="5:11">
+      <c r="L246">
+        <v>169.1</v>
+      </c>
+    </row>
+    <row r="247" spans="5:12">
       <c r="E247">
         <v>1225</v>
       </c>
@@ -12834,8 +16624,11 @@
       <c r="K247">
         <v>1225</v>
       </c>
-    </row>
-    <row r="248" spans="5:11">
+      <c r="L247">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="248" spans="5:12">
       <c r="E248">
         <v>1230</v>
       </c>
@@ -12851,8 +16644,11 @@
       <c r="K248">
         <v>1230</v>
       </c>
-    </row>
-    <row r="249" spans="5:11">
+      <c r="L248">
+        <v>168.9</v>
+      </c>
+    </row>
+    <row r="249" spans="5:12">
       <c r="E249">
         <v>1235</v>
       </c>
@@ -12868,8 +16664,11 @@
       <c r="K249">
         <v>1235</v>
       </c>
-    </row>
-    <row r="250" spans="5:11">
+      <c r="L249">
+        <v>169.4</v>
+      </c>
+    </row>
+    <row r="250" spans="5:12">
       <c r="E250">
         <v>1240</v>
       </c>
@@ -12885,8 +16684,11 @@
       <c r="K250">
         <v>1240</v>
       </c>
-    </row>
-    <row r="251" spans="5:11">
+      <c r="L250">
+        <v>169.4</v>
+      </c>
+    </row>
+    <row r="251" spans="5:12">
       <c r="E251">
         <v>1245</v>
       </c>
@@ -12902,8 +16704,11 @@
       <c r="K251">
         <v>1245</v>
       </c>
-    </row>
-    <row r="252" spans="5:11">
+      <c r="L251">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="252" spans="5:12">
       <c r="E252">
         <v>1250</v>
       </c>
@@ -12919,8 +16724,11 @@
       <c r="K252">
         <v>1250</v>
       </c>
-    </row>
-    <row r="253" spans="5:11">
+      <c r="L252">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="253" spans="5:12">
       <c r="E253">
         <v>1255</v>
       </c>
@@ -12936,8 +16744,11 @@
       <c r="K253">
         <v>1255</v>
       </c>
-    </row>
-    <row r="254" spans="5:11">
+      <c r="L253">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="254" spans="5:12">
       <c r="E254">
         <v>1260</v>
       </c>
@@ -12953,8 +16764,11 @@
       <c r="K254">
         <v>1260</v>
       </c>
-    </row>
-    <row r="255" spans="5:11">
+      <c r="L254">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="255" spans="5:12">
       <c r="E255">
         <v>1265</v>
       </c>
@@ -12970,8 +16784,11 @@
       <c r="K255">
         <v>1265</v>
       </c>
-    </row>
-    <row r="256" spans="5:11">
+      <c r="L255">
+        <v>169.6</v>
+      </c>
+    </row>
+    <row r="256" spans="5:12">
       <c r="E256">
         <v>1270</v>
       </c>
@@ -12987,8 +16804,11 @@
       <c r="K256">
         <v>1270</v>
       </c>
-    </row>
-    <row r="257" spans="5:11">
+      <c r="L256">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="257" spans="5:12">
       <c r="E257">
         <v>1275</v>
       </c>
@@ -13004,8 +16824,11 @@
       <c r="K257">
         <v>1275</v>
       </c>
-    </row>
-    <row r="258" spans="5:11">
+      <c r="L257">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="258" spans="5:12">
       <c r="E258">
         <v>1280</v>
       </c>
@@ -13015,8 +16838,11 @@
       <c r="K258">
         <v>1280</v>
       </c>
-    </row>
-    <row r="259" spans="5:11">
+      <c r="L258">
+        <v>169.6</v>
+      </c>
+    </row>
+    <row r="259" spans="5:12">
       <c r="E259">
         <v>1285</v>
       </c>
@@ -13026,8 +16852,11 @@
       <c r="K259">
         <v>1285</v>
       </c>
-    </row>
-    <row r="260" spans="5:11">
+      <c r="L259">
+        <v>169.4</v>
+      </c>
+    </row>
+    <row r="260" spans="5:12">
       <c r="E260">
         <v>1290</v>
       </c>
@@ -13037,8 +16866,11 @@
       <c r="K260">
         <v>1290</v>
       </c>
-    </row>
-    <row r="261" spans="5:11">
+      <c r="L260">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="261" spans="5:12">
       <c r="E261">
         <v>1295</v>
       </c>
@@ -13048,8 +16880,11 @@
       <c r="K261">
         <v>1295</v>
       </c>
-    </row>
-    <row r="262" spans="5:11">
+      <c r="L261">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="262" spans="5:12">
       <c r="E262">
         <v>1300</v>
       </c>
@@ -13059,8 +16894,11 @@
       <c r="K262">
         <v>1300</v>
       </c>
-    </row>
-    <row r="263" spans="5:11">
+      <c r="L262">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="263" spans="5:12">
       <c r="E263">
         <v>1305</v>
       </c>
@@ -13070,8 +16908,11 @@
       <c r="K263">
         <v>1305</v>
       </c>
-    </row>
-    <row r="264" spans="5:11">
+      <c r="L263">
+        <v>169.6</v>
+      </c>
+    </row>
+    <row r="264" spans="5:12">
       <c r="E264">
         <v>1310</v>
       </c>
@@ -13081,8 +16922,11 @@
       <c r="K264">
         <v>1310</v>
       </c>
-    </row>
-    <row r="265" spans="5:11">
+      <c r="L264">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="265" spans="5:12">
       <c r="E265">
         <v>1315</v>
       </c>
@@ -13092,8 +16936,11 @@
       <c r="K265">
         <v>1315</v>
       </c>
-    </row>
-    <row r="266" spans="5:11">
+      <c r="L265">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="266" spans="5:12">
       <c r="E266">
         <v>1320</v>
       </c>
@@ -13103,8 +16950,11 @@
       <c r="K266">
         <v>1320</v>
       </c>
-    </row>
-    <row r="267" spans="5:11">
+      <c r="L266">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="267" spans="5:12">
       <c r="E267">
         <v>1325</v>
       </c>
@@ -13114,8 +16964,11 @@
       <c r="K267">
         <v>1325</v>
       </c>
-    </row>
-    <row r="268" spans="5:11">
+      <c r="L267">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="268" spans="5:12">
       <c r="E268">
         <v>1330</v>
       </c>
@@ -13125,8 +16978,11 @@
       <c r="K268">
         <v>1330</v>
       </c>
-    </row>
-    <row r="269" spans="5:11">
+      <c r="L268">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="269" spans="5:12">
       <c r="E269">
         <v>1335</v>
       </c>
@@ -13136,8 +16992,11 @@
       <c r="K269">
         <v>1335</v>
       </c>
-    </row>
-    <row r="270" spans="5:11">
+      <c r="L269">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="270" spans="5:12">
       <c r="E270">
         <v>1340</v>
       </c>
@@ -13147,8 +17006,11 @@
       <c r="K270">
         <v>1340</v>
       </c>
-    </row>
-    <row r="271" spans="5:11">
+      <c r="L270">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="271" spans="5:12">
       <c r="E271">
         <v>1345</v>
       </c>
@@ -13158,8 +17020,11 @@
       <c r="K271">
         <v>1345</v>
       </c>
-    </row>
-    <row r="272" spans="5:11">
+      <c r="L271">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="272" spans="5:12">
       <c r="E272">
         <v>1350</v>
       </c>
@@ -13169,8 +17034,11 @@
       <c r="K272">
         <v>1350</v>
       </c>
-    </row>
-    <row r="273" spans="5:11">
+      <c r="L272">
+        <v>169.4</v>
+      </c>
+    </row>
+    <row r="273" spans="5:12">
       <c r="E273">
         <v>1355</v>
       </c>
@@ -13180,8 +17048,11 @@
       <c r="K273">
         <v>1355</v>
       </c>
-    </row>
-    <row r="274" spans="5:11">
+      <c r="L273">
+        <v>169.6</v>
+      </c>
+    </row>
+    <row r="274" spans="5:12">
       <c r="E274">
         <v>1360</v>
       </c>
@@ -13191,8 +17062,11 @@
       <c r="K274">
         <v>1360</v>
       </c>
-    </row>
-    <row r="275" spans="5:11">
+      <c r="L274">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="275" spans="5:12">
       <c r="E275">
         <v>1365</v>
       </c>
@@ -13202,8 +17076,11 @@
       <c r="K275">
         <v>1365</v>
       </c>
-    </row>
-    <row r="276" spans="5:11">
+      <c r="L275">
+        <v>170.4</v>
+      </c>
+    </row>
+    <row r="276" spans="5:12">
       <c r="E276">
         <v>1370</v>
       </c>
@@ -13213,8 +17090,11 @@
       <c r="K276">
         <v>1370</v>
       </c>
-    </row>
-    <row r="277" spans="5:11">
+      <c r="L276">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="277" spans="5:12">
       <c r="E277">
         <v>1375</v>
       </c>
@@ -13224,8 +17104,11 @@
       <c r="K277">
         <v>1375</v>
       </c>
-    </row>
-    <row r="278" spans="5:11">
+      <c r="L277">
+        <v>170.1</v>
+      </c>
+    </row>
+    <row r="278" spans="5:12">
       <c r="E278">
         <v>1380</v>
       </c>
@@ -13235,8 +17118,11 @@
       <c r="K278">
         <v>1380</v>
       </c>
-    </row>
-    <row r="279" spans="5:11">
+      <c r="L278">
+        <v>170.1</v>
+      </c>
+    </row>
+    <row r="279" spans="5:12">
       <c r="E279">
         <v>1385</v>
       </c>
@@ -13246,8 +17132,11 @@
       <c r="K279">
         <v>1385</v>
       </c>
-    </row>
-    <row r="280" spans="5:11">
+      <c r="L279">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="280" spans="5:12">
       <c r="E280">
         <v>1390</v>
       </c>
@@ -13257,8 +17146,11 @@
       <c r="K280">
         <v>1390</v>
       </c>
-    </row>
-    <row r="281" spans="5:11">
+      <c r="L280">
+        <v>170.2</v>
+      </c>
+    </row>
+    <row r="281" spans="5:12">
       <c r="E281">
         <v>1395</v>
       </c>
@@ -13268,8 +17160,11 @@
       <c r="K281">
         <v>1395</v>
       </c>
-    </row>
-    <row r="282" spans="5:11">
+      <c r="L281">
+        <v>170.1</v>
+      </c>
+    </row>
+    <row r="282" spans="5:12">
       <c r="E282">
         <v>1400</v>
       </c>
@@ -13279,8 +17174,11 @@
       <c r="K282">
         <v>1400</v>
       </c>
-    </row>
-    <row r="283" spans="5:11">
+      <c r="L282">
+        <v>170.2</v>
+      </c>
+    </row>
+    <row r="283" spans="5:12">
       <c r="E283">
         <v>1405</v>
       </c>
@@ -13290,8 +17188,11 @@
       <c r="K283">
         <v>1405</v>
       </c>
-    </row>
-    <row r="284" spans="5:11">
+      <c r="L283">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="284" spans="5:12">
       <c r="E284">
         <v>1410</v>
       </c>
@@ -13301,8 +17202,11 @@
       <c r="K284">
         <v>1410</v>
       </c>
-    </row>
-    <row r="285" spans="5:11">
+      <c r="L284">
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="285" spans="5:12">
       <c r="E285">
         <v>1415</v>
       </c>
@@ -13312,8 +17216,11 @@
       <c r="K285">
         <v>1415</v>
       </c>
-    </row>
-    <row r="286" spans="5:11">
+      <c r="L285">
+        <v>170.6</v>
+      </c>
+    </row>
+    <row r="286" spans="5:12">
       <c r="E286">
         <v>1420</v>
       </c>
@@ -13323,8 +17230,11 @@
       <c r="K286">
         <v>1420</v>
       </c>
-    </row>
-    <row r="287" spans="5:11">
+      <c r="L286">
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="287" spans="5:12">
       <c r="E287">
         <v>1425</v>
       </c>
@@ -13334,8 +17244,11 @@
       <c r="K287">
         <v>1425</v>
       </c>
-    </row>
-    <row r="288" spans="5:11">
+      <c r="L287">
+        <v>170.3</v>
+      </c>
+    </row>
+    <row r="288" spans="5:12">
       <c r="E288">
         <v>1430</v>
       </c>
@@ -13345,8 +17258,11 @@
       <c r="K288">
         <v>1430</v>
       </c>
-    </row>
-    <row r="289" spans="5:11">
+      <c r="L288">
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="289" spans="5:12">
       <c r="E289">
         <v>1435</v>
       </c>
@@ -13356,8 +17272,11 @@
       <c r="K289">
         <v>1435</v>
       </c>
-    </row>
-    <row r="290" spans="5:11">
+      <c r="L289">
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="290" spans="5:12">
       <c r="E290">
         <v>1440</v>
       </c>
@@ -13367,8 +17286,11 @@
       <c r="K290">
         <v>1440</v>
       </c>
-    </row>
-    <row r="291" spans="5:11">
+      <c r="L290">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="291" spans="5:12">
       <c r="E291">
         <v>1445</v>
       </c>
@@ -13378,8 +17300,11 @@
       <c r="K291">
         <v>1445</v>
       </c>
-    </row>
-    <row r="292" spans="5:11">
+      <c r="L291">
+        <v>170.4</v>
+      </c>
+    </row>
+    <row r="292" spans="5:12">
       <c r="E292">
         <v>1450</v>
       </c>
@@ -13389,8 +17314,11 @@
       <c r="K292">
         <v>1450</v>
       </c>
-    </row>
-    <row r="293" spans="5:11">
+      <c r="L292">
+        <v>170.9</v>
+      </c>
+    </row>
+    <row r="293" spans="5:12">
       <c r="E293">
         <v>1455</v>
       </c>
@@ -13400,8 +17328,11 @@
       <c r="K293">
         <v>1455</v>
       </c>
-    </row>
-    <row r="294" spans="5:11">
+      <c r="L293">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="294" spans="5:12">
       <c r="E294">
         <v>1460</v>
       </c>
@@ -13411,8 +17342,11 @@
       <c r="K294">
         <v>1460</v>
       </c>
-    </row>
-    <row r="295" spans="5:11">
+      <c r="L294">
+        <v>170.8</v>
+      </c>
+    </row>
+    <row r="295" spans="5:12">
       <c r="E295">
         <v>1465</v>
       </c>
@@ -13422,8 +17356,11 @@
       <c r="K295">
         <v>1465</v>
       </c>
-    </row>
-    <row r="296" spans="5:11">
+      <c r="L295">
+        <v>171.3</v>
+      </c>
+    </row>
+    <row r="296" spans="5:12">
       <c r="E296">
         <v>1470</v>
       </c>
@@ -13433,8 +17370,11 @@
       <c r="K296">
         <v>1470</v>
       </c>
-    </row>
-    <row r="297" spans="5:11">
+      <c r="L296">
+        <v>171.4</v>
+      </c>
+    </row>
+    <row r="297" spans="5:12">
       <c r="E297">
         <v>1475</v>
       </c>
@@ -13443,6 +17383,537 @@
       </c>
       <c r="K297">
         <v>1475</v>
+      </c>
+      <c r="L297">
+        <v>171.1</v>
+      </c>
+    </row>
+    <row r="298" spans="5:12">
+      <c r="K298">
+        <v>1480</v>
+      </c>
+      <c r="L298">
+        <v>171.4</v>
+      </c>
+    </row>
+    <row r="299" spans="5:12">
+      <c r="K299">
+        <v>1485</v>
+      </c>
+      <c r="L299">
+        <v>171.3</v>
+      </c>
+    </row>
+    <row r="300" spans="5:12">
+      <c r="K300">
+        <v>1490</v>
+      </c>
+      <c r="L300">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="301" spans="5:12">
+      <c r="K301">
+        <v>1495</v>
+      </c>
+      <c r="L301">
+        <v>171.1</v>
+      </c>
+    </row>
+    <row r="302" spans="5:12">
+      <c r="K302">
+        <v>1500</v>
+      </c>
+      <c r="L302">
+        <v>171.2</v>
+      </c>
+    </row>
+    <row r="303" spans="5:12">
+      <c r="K303">
+        <v>1505</v>
+      </c>
+      <c r="L303">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="304" spans="5:12">
+      <c r="K304">
+        <v>1510</v>
+      </c>
+      <c r="L304">
+        <v>171.3</v>
+      </c>
+    </row>
+    <row r="305" spans="11:12">
+      <c r="K305">
+        <v>1515</v>
+      </c>
+      <c r="L305">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="306" spans="11:12">
+      <c r="K306">
+        <v>1520</v>
+      </c>
+      <c r="L306">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="307" spans="11:12">
+      <c r="K307">
+        <v>1525</v>
+      </c>
+      <c r="L307">
+        <v>171.4</v>
+      </c>
+    </row>
+    <row r="308" spans="11:12">
+      <c r="K308">
+        <v>1530</v>
+      </c>
+      <c r="L308">
+        <v>171.4</v>
+      </c>
+    </row>
+    <row r="309" spans="11:12">
+      <c r="K309">
+        <v>1535</v>
+      </c>
+      <c r="L309">
+        <v>171.7</v>
+      </c>
+    </row>
+    <row r="310" spans="11:12">
+      <c r="K310">
+        <v>1540</v>
+      </c>
+      <c r="L310">
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="311" spans="11:12">
+      <c r="K311">
+        <v>1545</v>
+      </c>
+      <c r="L311">
+        <v>172.1</v>
+      </c>
+    </row>
+    <row r="312" spans="11:12">
+      <c r="K312">
+        <v>1550</v>
+      </c>
+      <c r="L312">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="313" spans="11:12">
+      <c r="K313">
+        <v>1555</v>
+      </c>
+      <c r="L313">
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="314" spans="11:12">
+      <c r="K314">
+        <v>1560</v>
+      </c>
+      <c r="L314">
+        <v>171.4</v>
+      </c>
+    </row>
+    <row r="315" spans="11:12">
+      <c r="K315">
+        <v>1565</v>
+      </c>
+      <c r="L315">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="316" spans="11:12">
+      <c r="K316">
+        <v>1570</v>
+      </c>
+      <c r="L316">
+        <v>171.7</v>
+      </c>
+    </row>
+    <row r="317" spans="11:12">
+      <c r="K317">
+        <v>1575</v>
+      </c>
+      <c r="L317">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="318" spans="11:12">
+      <c r="K318">
+        <v>1580</v>
+      </c>
+      <c r="L318">
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="319" spans="11:12">
+      <c r="K319">
+        <v>1585</v>
+      </c>
+      <c r="L319">
+        <v>171.7</v>
+      </c>
+    </row>
+    <row r="320" spans="11:12">
+      <c r="K320">
+        <v>1590</v>
+      </c>
+      <c r="L320">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="321" spans="11:12">
+      <c r="K321">
+        <v>1595</v>
+      </c>
+      <c r="L321">
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="322" spans="11:12">
+      <c r="K322">
+        <v>1600</v>
+      </c>
+      <c r="L322">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="323" spans="11:12">
+      <c r="K323">
+        <v>1605</v>
+      </c>
+      <c r="L323">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="324" spans="11:12">
+      <c r="K324">
+        <v>1610</v>
+      </c>
+      <c r="L324">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="325" spans="11:12">
+      <c r="K325">
+        <v>1615</v>
+      </c>
+      <c r="L325">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="326" spans="11:12">
+      <c r="K326">
+        <v>1620</v>
+      </c>
+      <c r="L326">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="327" spans="11:12">
+      <c r="K327">
+        <v>1625</v>
+      </c>
+      <c r="L327">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="328" spans="11:12">
+      <c r="K328">
+        <v>1630</v>
+      </c>
+      <c r="L328">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="329" spans="11:12">
+      <c r="K329">
+        <v>1635</v>
+      </c>
+      <c r="L329">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="330" spans="11:12">
+      <c r="K330">
+        <v>1640</v>
+      </c>
+      <c r="L330">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="331" spans="11:12">
+      <c r="K331">
+        <v>1645</v>
+      </c>
+      <c r="L331">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="332" spans="11:12">
+      <c r="K332">
+        <v>1650</v>
+      </c>
+      <c r="L332">
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="333" spans="11:12">
+      <c r="K333">
+        <v>1655</v>
+      </c>
+      <c r="L333">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="334" spans="11:12">
+      <c r="K334">
+        <v>1660</v>
+      </c>
+      <c r="L334">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="335" spans="11:12">
+      <c r="K335">
+        <v>1665</v>
+      </c>
+      <c r="L335">
+        <v>172.6</v>
+      </c>
+    </row>
+    <row r="336" spans="11:12">
+      <c r="K336">
+        <v>1670</v>
+      </c>
+      <c r="L336">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="337" spans="11:12">
+      <c r="K337">
+        <v>1675</v>
+      </c>
+      <c r="L337">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="338" spans="11:12">
+      <c r="K338">
+        <v>1680</v>
+      </c>
+      <c r="L338">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="339" spans="11:12">
+      <c r="K339">
+        <v>1685</v>
+      </c>
+      <c r="L339">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="340" spans="11:12">
+      <c r="K340">
+        <v>1690</v>
+      </c>
+      <c r="L340">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="341" spans="11:12">
+      <c r="K341">
+        <v>1695</v>
+      </c>
+      <c r="L341">
+        <v>172.6</v>
+      </c>
+    </row>
+    <row r="342" spans="11:12">
+      <c r="K342">
+        <v>1700</v>
+      </c>
+      <c r="L342">
+        <v>172.7</v>
+      </c>
+    </row>
+    <row r="343" spans="11:12">
+      <c r="K343">
+        <v>1705</v>
+      </c>
+      <c r="L343">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="344" spans="11:12">
+      <c r="K344">
+        <v>1710</v>
+      </c>
+      <c r="L344">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="345" spans="11:12">
+      <c r="K345">
+        <v>1715</v>
+      </c>
+      <c r="L345">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="346" spans="11:12">
+      <c r="K346">
+        <v>1720</v>
+      </c>
+      <c r="L346">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="347" spans="11:12">
+      <c r="K347">
+        <v>1725</v>
+      </c>
+      <c r="L347">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="348" spans="11:12">
+      <c r="K348">
+        <v>1730</v>
+      </c>
+      <c r="L348">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="349" spans="11:12">
+      <c r="K349">
+        <v>1735</v>
+      </c>
+      <c r="L349">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="350" spans="11:12">
+      <c r="K350">
+        <v>1740</v>
+      </c>
+      <c r="L350">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="351" spans="11:12">
+      <c r="K351">
+        <v>1745</v>
+      </c>
+      <c r="L351">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="352" spans="11:12">
+      <c r="K352">
+        <v>1750</v>
+      </c>
+      <c r="L352">
+        <v>172.6</v>
+      </c>
+    </row>
+    <row r="353" spans="11:12">
+      <c r="K353">
+        <v>1755</v>
+      </c>
+      <c r="L353">
+        <v>172.6</v>
+      </c>
+    </row>
+    <row r="354" spans="11:12">
+      <c r="K354">
+        <v>1760</v>
+      </c>
+      <c r="L354">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="355" spans="11:12">
+      <c r="K355">
+        <v>1765</v>
+      </c>
+      <c r="L355">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="356" spans="11:12">
+      <c r="K356">
+        <v>1770</v>
+      </c>
+      <c r="L356">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="357" spans="11:12">
+      <c r="K357">
+        <v>1775</v>
+      </c>
+      <c r="L357">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="358" spans="11:12">
+      <c r="K358">
+        <v>1780</v>
+      </c>
+      <c r="L358">
+        <v>172.1</v>
+      </c>
+    </row>
+    <row r="359" spans="11:12">
+      <c r="K359">
+        <v>1785</v>
+      </c>
+      <c r="L359">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="360" spans="11:12">
+      <c r="K360">
+        <v>1790</v>
+      </c>
+      <c r="L360">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="361" spans="11:12">
+      <c r="K361">
+        <v>1795</v>
+      </c>
+      <c r="L361">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="362" spans="11:12">
+      <c r="K362">
+        <v>1800</v>
+      </c>
+      <c r="L362">
+        <v>172.1</v>
+      </c>
+    </row>
+    <row r="363" spans="11:12">
+      <c r="K363">
+        <v>1805</v>
+      </c>
+      <c r="L363">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
+++ b/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikkel\Documents\PRJ4\Pandekage-tastrofe\Moduler\Uimplementeret moduler\PandeMekanik\Modultest\Varmelegeme_steprespons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5681B1E8-496C-433D-977D-71CC275F1D56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB77BD23-0EC3-419D-AF8E-43BC17E1C979}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FB17CDE-9607-435E-9AA5-DF80C5DE3E68}"/>
   </bookViews>
@@ -5969,7 +5969,7 @@
                   <c:v>126.8</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>127.4</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>128</c:v>
@@ -10154,8 +10154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376E557A-5CFE-4B1E-958C-F4C336D66247}">
   <dimension ref="A1:L363"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L363" sqref="K2:L363"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L107" sqref="L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13559,7 +13559,7 @@
         <v>520</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="107" spans="1:12">

--- a/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
+++ b/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikkel\Documents\PRJ4\Pandekage-tastrofe\Moduler\Uimplementeret moduler\PandeMekanik\Modultest\Varmelegeme_steprespons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\GitHub\Pandekage-tastrofe\Moduler\Uimplementeret moduler\PandeMekanik\Modultest\Varmelegeme_steprespons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB77BD23-0EC3-419D-AF8E-43BC17E1C979}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904A68CC-3CA4-4203-9806-23594496BCDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FB17CDE-9607-435E-9AA5-DF80C5DE3E68}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{7FB17CDE-9607-435E-9AA5-DF80C5DE3E68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Temp60</t>
   </si>
@@ -62,12 +63,18 @@
   <si>
     <t>Temp50</t>
   </si>
+  <si>
+    <t>duty-cycle</t>
+  </si>
+  <si>
+    <t>tempertue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +200,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -620,7 +627,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="442557696"/>
@@ -679,7 +686,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="442557368"/>
@@ -722,7 +729,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -803,7 +810,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1341,7 +1348,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401491440"/>
@@ -1400,7 +1407,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401497016"/>
@@ -1448,7 +1455,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1529,7 +1536,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2535,7 +2542,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758685168"/>
@@ -2594,7 +2601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758686480"/>
@@ -2642,7 +2649,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2693,7 +2700,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4366,7 +4373,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="253023935"/>
@@ -4428,7 +4435,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="182699231"/>
@@ -4469,7 +4476,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4520,7 +4527,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6818,7 +6825,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="265594111"/>
@@ -6880,7 +6887,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="263806991"/>
@@ -6921,7 +6928,987 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tempertue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="30"/>
+            <c:backward val="35"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7218941382327208E-2"/>
+                  <c:y val="-0.24271507728200642"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>199.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>187.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>187.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>187.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>186.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>186.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>187.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>187.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>187.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>186.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>188.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>187.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>187.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>176.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>177.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>176.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>176.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>177.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>176.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>176.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>175.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>176.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>173.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>172.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>174.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>174.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>173.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>174.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>173.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>173.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>173.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>174.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>174.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>173.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>174.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>173.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>174.1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>172.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>172.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>172.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>172.3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>172.1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>172.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>172.1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>164.1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>163.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>163.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>163.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>162.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>161.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>162.9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>162.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>162.6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>144.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>144.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>144.9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>145.1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>144.9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>143.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>143.9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>144.4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>144.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>143.6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>143.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>144.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>143.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>143.6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>143.80000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17C1-4A36-BF63-D879F978B214}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1273904256"/>
+        <c:axId val="1275414336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1273904256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275414336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1275414336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1273904256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7090,6 +8077,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9670,6 +10697,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9847,6 +11390,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>328448</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585478EE-63E3-48E8-8C05-743249CBABDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10154,11 +11738,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376E557A-5CFE-4B1E-958C-F4C336D66247}">
   <dimension ref="A1:L363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L107" sqref="L107"/>
+    <sheetView topLeftCell="A220" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F297" sqref="F265:F297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -10170,7 +11754,7 @@
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -10202,7 +11786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10234,7 +11818,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -10266,7 +11850,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -10298,7 +11882,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -10330,7 +11914,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -10362,7 +11946,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -10394,7 +11978,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24</v>
       </c>
@@ -10426,7 +12010,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>28</v>
       </c>
@@ -10458,7 +12042,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32</v>
       </c>
@@ -10490,7 +12074,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -10522,7 +12106,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>40</v>
       </c>
@@ -10554,7 +12138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>44</v>
       </c>
@@ -10586,7 +12170,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>48</v>
       </c>
@@ -10618,7 +12202,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>52</v>
       </c>
@@ -10650,7 +12234,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>56</v>
       </c>
@@ -10682,7 +12266,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>60</v>
       </c>
@@ -10714,7 +12298,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>64</v>
       </c>
@@ -10746,7 +12330,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>68</v>
       </c>
@@ -10778,7 +12362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>72</v>
       </c>
@@ -10810,7 +12394,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -10842,7 +12426,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>80</v>
       </c>
@@ -10874,7 +12458,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>84</v>
       </c>
@@ -10906,7 +12490,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>88</v>
       </c>
@@ -10938,7 +12522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>92</v>
       </c>
@@ -10970,7 +12554,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>96</v>
       </c>
@@ -11002,7 +12586,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>100</v>
       </c>
@@ -11034,7 +12618,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>104</v>
       </c>
@@ -11066,7 +12650,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>108</v>
       </c>
@@ -11098,7 +12682,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>112</v>
       </c>
@@ -11130,7 +12714,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>116</v>
       </c>
@@ -11162,7 +12746,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>120</v>
       </c>
@@ -11194,7 +12778,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>124</v>
       </c>
@@ -11226,7 +12810,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>128</v>
       </c>
@@ -11258,7 +12842,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>132</v>
       </c>
@@ -11290,7 +12874,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>136</v>
       </c>
@@ -11322,7 +12906,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>140</v>
       </c>
@@ -11354,7 +12938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>144</v>
       </c>
@@ -11386,7 +12970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>148</v>
       </c>
@@ -11418,7 +13002,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>152</v>
       </c>
@@ -11450,7 +13034,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>156</v>
       </c>
@@ -11482,7 +13066,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>160</v>
       </c>
@@ -11514,7 +13098,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>164</v>
       </c>
@@ -11546,7 +13130,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>168</v>
       </c>
@@ -11578,7 +13162,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>172</v>
       </c>
@@ -11610,7 +13194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>176</v>
       </c>
@@ -11642,7 +13226,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>180</v>
       </c>
@@ -11674,7 +13258,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>184</v>
       </c>
@@ -11706,7 +13290,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>188</v>
       </c>
@@ -11738,7 +13322,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>192</v>
       </c>
@@ -11770,7 +13354,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>196</v>
       </c>
@@ -11802,7 +13386,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>200</v>
       </c>
@@ -11834,7 +13418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>204</v>
       </c>
@@ -11866,7 +13450,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>208</v>
       </c>
@@ -11898,7 +13482,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>212</v>
       </c>
@@ -11930,7 +13514,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>216</v>
       </c>
@@ -11962,7 +13546,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>220</v>
       </c>
@@ -11994,7 +13578,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>224</v>
       </c>
@@ -12026,7 +13610,7 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>228</v>
       </c>
@@ -12058,7 +13642,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>232</v>
       </c>
@@ -12090,7 +13674,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>236</v>
       </c>
@@ -12122,7 +13706,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>240</v>
       </c>
@@ -12154,7 +13738,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>244</v>
       </c>
@@ -12186,7 +13770,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>248</v>
       </c>
@@ -12218,7 +13802,7 @@
         <v>82.1</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>252</v>
       </c>
@@ -12250,7 +13834,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>256</v>
       </c>
@@ -12282,7 +13866,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>260</v>
       </c>
@@ -12314,7 +13898,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>264</v>
       </c>
@@ -12346,7 +13930,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>268</v>
       </c>
@@ -12378,7 +13962,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>272</v>
       </c>
@@ -12410,7 +13994,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>276</v>
       </c>
@@ -12442,7 +14026,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>280</v>
       </c>
@@ -12474,7 +14058,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>284</v>
       </c>
@@ -12506,7 +14090,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>288</v>
       </c>
@@ -12538,7 +14122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>292</v>
       </c>
@@ -12570,7 +14154,7 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>296</v>
       </c>
@@ -12602,7 +14186,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>300</v>
       </c>
@@ -12634,7 +14218,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>304</v>
       </c>
@@ -12666,7 +14250,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>308</v>
       </c>
@@ -12698,7 +14282,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>312</v>
       </c>
@@ -12730,7 +14314,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>316</v>
       </c>
@@ -12762,7 +14346,7 @@
         <v>102.4</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>320</v>
       </c>
@@ -12794,7 +14378,7 @@
         <v>103.3</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>324</v>
       </c>
@@ -12826,7 +14410,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>328</v>
       </c>
@@ -12858,7 +14442,7 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>332</v>
       </c>
@@ -12890,7 +14474,7 @@
         <v>106.6</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>336</v>
       </c>
@@ -12922,7 +14506,7 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>340</v>
       </c>
@@ -12954,7 +14538,7 @@
         <v>108.1</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>344</v>
       </c>
@@ -12986,7 +14570,7 @@
         <v>109.4</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>348</v>
       </c>
@@ -13018,7 +14602,7 @@
         <v>110.6</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>352</v>
       </c>
@@ -13050,7 +14634,7 @@
         <v>111.5</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>356</v>
       </c>
@@ -13082,7 +14666,7 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>360</v>
       </c>
@@ -13114,7 +14698,7 @@
         <v>113.7</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>364</v>
       </c>
@@ -13146,7 +14730,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>368</v>
       </c>
@@ -13178,7 +14762,7 @@
         <v>115.6</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>372</v>
       </c>
@@ -13210,7 +14794,7 @@
         <v>116.6</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>376</v>
       </c>
@@ -13242,7 +14826,7 @@
         <v>117.4</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>380</v>
       </c>
@@ -13274,7 +14858,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>384</v>
       </c>
@@ -13306,7 +14890,7 @@
         <v>119.1</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>388</v>
       </c>
@@ -13338,7 +14922,7 @@
         <v>120.2</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>392</v>
       </c>
@@ -13370,7 +14954,7 @@
         <v>121.3</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>396</v>
       </c>
@@ -13402,7 +14986,7 @@
         <v>123.5</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>400</v>
       </c>
@@ -13434,7 +15018,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>404</v>
       </c>
@@ -13466,7 +15050,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>408</v>
       </c>
@@ -13498,7 +15082,7 @@
         <v>125.7</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>412</v>
       </c>
@@ -13530,7 +15114,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>416</v>
       </c>
@@ -13562,7 +15146,7 @@
         <v>127.4</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>420</v>
       </c>
@@ -13594,7 +15178,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>424</v>
       </c>
@@ -13626,7 +15210,7 @@
         <v>128.6</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>535</v>
       </c>
@@ -13652,7 +15236,7 @@
         <v>129.80000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C110">
         <v>540</v>
       </c>
@@ -13678,7 +15262,7 @@
         <v>130.1</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C111">
         <v>545</v>
       </c>
@@ -13704,7 +15288,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C112">
         <v>550</v>
       </c>
@@ -13730,7 +15314,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="113" spans="3:12">
+    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C113">
         <v>555</v>
       </c>
@@ -13756,7 +15340,7 @@
         <v>132.19999999999999</v>
       </c>
     </row>
-    <row r="114" spans="3:12">
+    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C114">
         <v>560</v>
       </c>
@@ -13782,7 +15366,7 @@
         <v>133.4</v>
       </c>
     </row>
-    <row r="115" spans="3:12">
+    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C115">
         <v>565</v>
       </c>
@@ -13808,7 +15392,7 @@
         <v>133.69999999999999</v>
       </c>
     </row>
-    <row r="116" spans="3:12">
+    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C116">
         <v>570</v>
       </c>
@@ -13834,7 +15418,7 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="117" spans="3:12">
+    <row r="117" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C117">
         <v>575</v>
       </c>
@@ -13860,7 +15444,7 @@
         <v>135.1</v>
       </c>
     </row>
-    <row r="118" spans="3:12">
+    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C118">
         <v>580</v>
       </c>
@@ -13886,7 +15470,7 @@
         <v>135.9</v>
       </c>
     </row>
-    <row r="119" spans="3:12">
+    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C119">
         <v>585</v>
       </c>
@@ -13912,7 +15496,7 @@
         <v>136.1</v>
       </c>
     </row>
-    <row r="120" spans="3:12">
+    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C120">
         <v>590</v>
       </c>
@@ -13938,7 +15522,7 @@
         <v>136.9</v>
       </c>
     </row>
-    <row r="121" spans="3:12">
+    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>595</v>
       </c>
@@ -13964,7 +15548,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="122" spans="3:12">
+    <row r="122" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C122">
         <v>600</v>
       </c>
@@ -13990,7 +15574,7 @@
         <v>138.19999999999999</v>
       </c>
     </row>
-    <row r="123" spans="3:12">
+    <row r="123" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C123">
         <v>605</v>
       </c>
@@ -14016,7 +15600,7 @@
         <v>139.1</v>
       </c>
     </row>
-    <row r="124" spans="3:12">
+    <row r="124" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C124">
         <v>610</v>
       </c>
@@ -14042,7 +15626,7 @@
         <v>139.4</v>
       </c>
     </row>
-    <row r="125" spans="3:12">
+    <row r="125" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C125">
         <v>615</v>
       </c>
@@ -14068,7 +15652,7 @@
         <v>139.80000000000001</v>
       </c>
     </row>
-    <row r="126" spans="3:12">
+    <row r="126" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>620</v>
       </c>
@@ -14094,7 +15678,7 @@
         <v>140.5</v>
       </c>
     </row>
-    <row r="127" spans="3:12">
+    <row r="127" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>625</v>
       </c>
@@ -14120,7 +15704,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="3:12">
+    <row r="128" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>630</v>
       </c>
@@ -14146,7 +15730,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="129" spans="3:12">
+    <row r="129" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C129">
         <v>635</v>
       </c>
@@ -14172,7 +15756,7 @@
         <v>141.9</v>
       </c>
     </row>
-    <row r="130" spans="3:12">
+    <row r="130" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>640</v>
       </c>
@@ -14198,7 +15782,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="131" spans="3:12">
+    <row r="131" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C131">
         <v>645</v>
       </c>
@@ -14224,7 +15808,7 @@
         <v>143.1</v>
       </c>
     </row>
-    <row r="132" spans="3:12">
+    <row r="132" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C132">
         <v>650</v>
       </c>
@@ -14250,7 +15834,7 @@
         <v>143.9</v>
       </c>
     </row>
-    <row r="133" spans="3:12">
+    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C133">
         <v>655</v>
       </c>
@@ -14276,7 +15860,7 @@
         <v>143.9</v>
       </c>
     </row>
-    <row r="134" spans="3:12">
+    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>660</v>
       </c>
@@ -14302,7 +15886,7 @@
         <v>144.6</v>
       </c>
     </row>
-    <row r="135" spans="3:12">
+    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C135">
         <v>665</v>
       </c>
@@ -14328,7 +15912,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="3:12">
+    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C136">
         <v>670</v>
       </c>
@@ -14354,7 +15938,7 @@
         <v>145.30000000000001</v>
       </c>
     </row>
-    <row r="137" spans="3:12">
+    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>675</v>
       </c>
@@ -14380,7 +15964,7 @@
         <v>145.9</v>
       </c>
     </row>
-    <row r="138" spans="3:12">
+    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C138">
         <v>680</v>
       </c>
@@ -14406,7 +15990,7 @@
         <v>146.30000000000001</v>
       </c>
     </row>
-    <row r="139" spans="3:12">
+    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C139">
         <v>685</v>
       </c>
@@ -14432,7 +16016,7 @@
         <v>146.9</v>
       </c>
     </row>
-    <row r="140" spans="3:12">
+    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C140">
         <v>690</v>
       </c>
@@ -14458,7 +16042,7 @@
         <v>147.4</v>
       </c>
     </row>
-    <row r="141" spans="3:12">
+    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C141">
         <v>695</v>
       </c>
@@ -14484,7 +16068,7 @@
         <v>147.80000000000001</v>
       </c>
     </row>
-    <row r="142" spans="3:12">
+    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C142">
         <v>700</v>
       </c>
@@ -14510,7 +16094,7 @@
         <v>147.9</v>
       </c>
     </row>
-    <row r="143" spans="3:12">
+    <row r="143" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C143">
         <v>705</v>
       </c>
@@ -14536,7 +16120,7 @@
         <v>148.69999999999999</v>
       </c>
     </row>
-    <row r="144" spans="3:12">
+    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C144">
         <v>710</v>
       </c>
@@ -14562,7 +16146,7 @@
         <v>149.19999999999999</v>
       </c>
     </row>
-    <row r="145" spans="3:12">
+    <row r="145" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C145">
         <v>715</v>
       </c>
@@ -14588,7 +16172,7 @@
         <v>149.19999999999999</v>
       </c>
     </row>
-    <row r="146" spans="3:12">
+    <row r="146" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E146">
         <v>720</v>
       </c>
@@ -14608,7 +16192,7 @@
         <v>149.69999999999999</v>
       </c>
     </row>
-    <row r="147" spans="3:12">
+    <row r="147" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E147">
         <v>725</v>
       </c>
@@ -14628,7 +16212,7 @@
         <v>150.69999999999999</v>
       </c>
     </row>
-    <row r="148" spans="3:12">
+    <row r="148" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E148">
         <v>730</v>
       </c>
@@ -14648,7 +16232,7 @@
         <v>150.9</v>
       </c>
     </row>
-    <row r="149" spans="3:12">
+    <row r="149" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E149">
         <v>735</v>
       </c>
@@ -14668,7 +16252,7 @@
         <v>150.80000000000001</v>
       </c>
     </row>
-    <row r="150" spans="3:12">
+    <row r="150" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E150">
         <v>740</v>
       </c>
@@ -14688,7 +16272,7 @@
         <v>151.19999999999999</v>
       </c>
     </row>
-    <row r="151" spans="3:12">
+    <row r="151" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E151">
         <v>745</v>
       </c>
@@ -14708,7 +16292,7 @@
         <v>151.5</v>
       </c>
     </row>
-    <row r="152" spans="3:12">
+    <row r="152" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E152">
         <v>750</v>
       </c>
@@ -14728,7 +16312,7 @@
         <v>151.6</v>
       </c>
     </row>
-    <row r="153" spans="3:12">
+    <row r="153" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E153">
         <v>755</v>
       </c>
@@ -14748,7 +16332,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="3:12">
+    <row r="154" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E154">
         <v>760</v>
       </c>
@@ -14768,7 +16352,7 @@
         <v>152.9</v>
       </c>
     </row>
-    <row r="155" spans="3:12">
+    <row r="155" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E155">
         <v>765</v>
       </c>
@@ -14788,7 +16372,7 @@
         <v>153.19999999999999</v>
       </c>
     </row>
-    <row r="156" spans="3:12">
+    <row r="156" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E156">
         <v>770</v>
       </c>
@@ -14808,7 +16392,7 @@
         <v>153.30000000000001</v>
       </c>
     </row>
-    <row r="157" spans="3:12">
+    <row r="157" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E157">
         <v>775</v>
       </c>
@@ -14828,7 +16412,7 @@
         <v>153.4</v>
       </c>
     </row>
-    <row r="158" spans="3:12">
+    <row r="158" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E158">
         <v>780</v>
       </c>
@@ -14848,7 +16432,7 @@
         <v>154.1</v>
       </c>
     </row>
-    <row r="159" spans="3:12">
+    <row r="159" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E159">
         <v>785</v>
       </c>
@@ -14868,7 +16452,7 @@
         <v>154.1</v>
       </c>
     </row>
-    <row r="160" spans="3:12">
+    <row r="160" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E160">
         <v>790</v>
       </c>
@@ -14888,7 +16472,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="161" spans="5:12">
+    <row r="161" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E161">
         <v>795</v>
       </c>
@@ -14908,7 +16492,7 @@
         <v>154.30000000000001</v>
       </c>
     </row>
-    <row r="162" spans="5:12">
+    <row r="162" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E162">
         <v>800</v>
       </c>
@@ -14928,7 +16512,7 @@
         <v>155.19999999999999</v>
       </c>
     </row>
-    <row r="163" spans="5:12">
+    <row r="163" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E163">
         <v>805</v>
       </c>
@@ -14948,7 +16532,7 @@
         <v>155.5</v>
       </c>
     </row>
-    <row r="164" spans="5:12">
+    <row r="164" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E164">
         <v>810</v>
       </c>
@@ -14968,7 +16552,7 @@
         <v>155.6</v>
       </c>
     </row>
-    <row r="165" spans="5:12">
+    <row r="165" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E165">
         <v>815</v>
       </c>
@@ -14988,7 +16572,7 @@
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="166" spans="5:12">
+    <row r="166" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E166">
         <v>820</v>
       </c>
@@ -15008,7 +16592,7 @@
         <v>156.30000000000001</v>
       </c>
     </row>
-    <row r="167" spans="5:12">
+    <row r="167" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E167">
         <v>825</v>
       </c>
@@ -15028,7 +16612,7 @@
         <v>156.6</v>
       </c>
     </row>
-    <row r="168" spans="5:12">
+    <row r="168" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E168">
         <v>830</v>
       </c>
@@ -15048,7 +16632,7 @@
         <v>156.69999999999999</v>
       </c>
     </row>
-    <row r="169" spans="5:12">
+    <row r="169" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E169">
         <v>835</v>
       </c>
@@ -15068,7 +16652,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="5:12">
+    <row r="170" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E170">
         <v>840</v>
       </c>
@@ -15088,7 +16672,7 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="171" spans="5:12">
+    <row r="171" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E171">
         <v>845</v>
       </c>
@@ -15108,7 +16692,7 @@
         <v>158.19999999999999</v>
       </c>
     </row>
-    <row r="172" spans="5:12">
+    <row r="172" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E172">
         <v>850</v>
       </c>
@@ -15128,7 +16712,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="173" spans="5:12">
+    <row r="173" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E173">
         <v>855</v>
       </c>
@@ -15148,7 +16732,7 @@
         <v>157.69999999999999</v>
       </c>
     </row>
-    <row r="174" spans="5:12">
+    <row r="174" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E174">
         <v>860</v>
       </c>
@@ -15168,7 +16752,7 @@
         <v>158.9</v>
       </c>
     </row>
-    <row r="175" spans="5:12">
+    <row r="175" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E175">
         <v>865</v>
       </c>
@@ -15188,7 +16772,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="5:12">
+    <row r="176" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E176">
         <v>870</v>
       </c>
@@ -15208,7 +16792,7 @@
         <v>159.19999999999999</v>
       </c>
     </row>
-    <row r="177" spans="5:12">
+    <row r="177" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E177">
         <v>875</v>
       </c>
@@ -15228,7 +16812,7 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="178" spans="5:12">
+    <row r="178" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E178">
         <v>880</v>
       </c>
@@ -15248,7 +16832,7 @@
         <v>159.30000000000001</v>
       </c>
     </row>
-    <row r="179" spans="5:12">
+    <row r="179" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E179">
         <v>885</v>
       </c>
@@ -15268,7 +16852,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="180" spans="5:12">
+    <row r="180" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E180">
         <v>890</v>
       </c>
@@ -15288,7 +16872,7 @@
         <v>160.19999999999999</v>
       </c>
     </row>
-    <row r="181" spans="5:12">
+    <row r="181" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E181">
         <v>895</v>
       </c>
@@ -15308,7 +16892,7 @@
         <v>160.19999999999999</v>
       </c>
     </row>
-    <row r="182" spans="5:12">
+    <row r="182" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E182">
         <v>900</v>
       </c>
@@ -15328,7 +16912,7 @@
         <v>160.4</v>
       </c>
     </row>
-    <row r="183" spans="5:12">
+    <row r="183" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E183">
         <v>905</v>
       </c>
@@ -15348,7 +16932,7 @@
         <v>160.6</v>
       </c>
     </row>
-    <row r="184" spans="5:12">
+    <row r="184" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E184">
         <v>910</v>
       </c>
@@ -15368,7 +16952,7 @@
         <v>160.80000000000001</v>
       </c>
     </row>
-    <row r="185" spans="5:12">
+    <row r="185" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E185">
         <v>915</v>
       </c>
@@ -15388,7 +16972,7 @@
         <v>161.1</v>
       </c>
     </row>
-    <row r="186" spans="5:12">
+    <row r="186" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E186">
         <v>920</v>
       </c>
@@ -15408,7 +16992,7 @@
         <v>161.6</v>
       </c>
     </row>
-    <row r="187" spans="5:12">
+    <row r="187" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E187">
         <v>925</v>
       </c>
@@ -15428,7 +17012,7 @@
         <v>161.6</v>
       </c>
     </row>
-    <row r="188" spans="5:12">
+    <row r="188" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E188">
         <v>930</v>
       </c>
@@ -15448,7 +17032,7 @@
         <v>161.6</v>
       </c>
     </row>
-    <row r="189" spans="5:12">
+    <row r="189" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E189">
         <v>935</v>
       </c>
@@ -15468,7 +17052,7 @@
         <v>162.1</v>
       </c>
     </row>
-    <row r="190" spans="5:12">
+    <row r="190" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E190">
         <v>940</v>
       </c>
@@ -15488,7 +17072,7 @@
         <v>162.1</v>
       </c>
     </row>
-    <row r="191" spans="5:12">
+    <row r="191" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E191">
         <v>945</v>
       </c>
@@ -15508,7 +17092,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="192" spans="5:12">
+    <row r="192" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E192">
         <v>950</v>
       </c>
@@ -15528,7 +17112,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="193" spans="5:12">
+    <row r="193" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E193">
         <v>955</v>
       </c>
@@ -15548,7 +17132,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="194" spans="5:12">
+    <row r="194" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E194">
         <v>960</v>
       </c>
@@ -15568,7 +17152,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="195" spans="5:12">
+    <row r="195" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E195">
         <v>965</v>
       </c>
@@ -15588,7 +17172,7 @@
         <v>163.5</v>
       </c>
     </row>
-    <row r="196" spans="5:12">
+    <row r="196" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E196">
         <v>970</v>
       </c>
@@ -15608,7 +17192,7 @@
         <v>163.6</v>
       </c>
     </row>
-    <row r="197" spans="5:12">
+    <row r="197" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E197">
         <v>975</v>
       </c>
@@ -15628,7 +17212,7 @@
         <v>163.5</v>
       </c>
     </row>
-    <row r="198" spans="5:12">
+    <row r="198" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E198">
         <v>980</v>
       </c>
@@ -15648,7 +17232,7 @@
         <v>163.9</v>
       </c>
     </row>
-    <row r="199" spans="5:12">
+    <row r="199" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E199">
         <v>985</v>
       </c>
@@ -15668,7 +17252,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="200" spans="5:12">
+    <row r="200" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E200">
         <v>990</v>
       </c>
@@ -15688,7 +17272,7 @@
         <v>163.9</v>
       </c>
     </row>
-    <row r="201" spans="5:12">
+    <row r="201" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E201">
         <v>995</v>
       </c>
@@ -15708,7 +17292,7 @@
         <v>164.4</v>
       </c>
     </row>
-    <row r="202" spans="5:12">
+    <row r="202" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E202">
         <v>1000</v>
       </c>
@@ -15728,7 +17312,7 @@
         <v>164.7</v>
       </c>
     </row>
-    <row r="203" spans="5:12">
+    <row r="203" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E203">
         <v>1005</v>
       </c>
@@ -15748,7 +17332,7 @@
         <v>164.9</v>
       </c>
     </row>
-    <row r="204" spans="5:12">
+    <row r="204" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E204">
         <v>1010</v>
       </c>
@@ -15768,7 +17352,7 @@
         <v>164.6</v>
       </c>
     </row>
-    <row r="205" spans="5:12">
+    <row r="205" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E205">
         <v>1015</v>
       </c>
@@ -15788,7 +17372,7 @@
         <v>165.2</v>
       </c>
     </row>
-    <row r="206" spans="5:12">
+    <row r="206" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E206">
         <v>1020</v>
       </c>
@@ -15808,7 +17392,7 @@
         <v>164.9</v>
       </c>
     </row>
-    <row r="207" spans="5:12">
+    <row r="207" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E207">
         <v>1025</v>
       </c>
@@ -15828,7 +17412,7 @@
         <v>165.3</v>
       </c>
     </row>
-    <row r="208" spans="5:12">
+    <row r="208" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E208">
         <v>1030</v>
       </c>
@@ -15848,7 +17432,7 @@
         <v>165.3</v>
       </c>
     </row>
-    <row r="209" spans="5:12">
+    <row r="209" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E209">
         <v>1035</v>
       </c>
@@ -15868,7 +17452,7 @@
         <v>165.5</v>
       </c>
     </row>
-    <row r="210" spans="5:12">
+    <row r="210" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E210">
         <v>1040</v>
       </c>
@@ -15888,7 +17472,7 @@
         <v>165.6</v>
       </c>
     </row>
-    <row r="211" spans="5:12">
+    <row r="211" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E211">
         <v>1045</v>
       </c>
@@ -15908,7 +17492,7 @@
         <v>165.8</v>
       </c>
     </row>
-    <row r="212" spans="5:12">
+    <row r="212" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E212">
         <v>1050</v>
       </c>
@@ -15928,7 +17512,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="213" spans="5:12">
+    <row r="213" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E213">
         <v>1055</v>
       </c>
@@ -15948,7 +17532,7 @@
         <v>165.9</v>
       </c>
     </row>
-    <row r="214" spans="5:12">
+    <row r="214" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E214">
         <v>1060</v>
       </c>
@@ -15968,7 +17552,7 @@
         <v>166.1</v>
       </c>
     </row>
-    <row r="215" spans="5:12">
+    <row r="215" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E215">
         <v>1065</v>
       </c>
@@ -15988,7 +17572,7 @@
         <v>166.3</v>
       </c>
     </row>
-    <row r="216" spans="5:12">
+    <row r="216" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E216">
         <v>1070</v>
       </c>
@@ -16008,7 +17592,7 @@
         <v>166.3</v>
       </c>
     </row>
-    <row r="217" spans="5:12">
+    <row r="217" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E217">
         <v>1075</v>
       </c>
@@ -16028,7 +17612,7 @@
         <v>166.4</v>
       </c>
     </row>
-    <row r="218" spans="5:12">
+    <row r="218" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E218">
         <v>1080</v>
       </c>
@@ -16048,7 +17632,7 @@
         <v>166.5</v>
       </c>
     </row>
-    <row r="219" spans="5:12">
+    <row r="219" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E219">
         <v>1085</v>
       </c>
@@ -16068,7 +17652,7 @@
         <v>166.5</v>
       </c>
     </row>
-    <row r="220" spans="5:12">
+    <row r="220" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E220">
         <v>1090</v>
       </c>
@@ -16088,7 +17672,7 @@
         <v>166.6</v>
       </c>
     </row>
-    <row r="221" spans="5:12">
+    <row r="221" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E221">
         <v>1095</v>
       </c>
@@ -16108,7 +17692,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="222" spans="5:12">
+    <row r="222" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E222">
         <v>1100</v>
       </c>
@@ -16128,7 +17712,7 @@
         <v>166.6</v>
       </c>
     </row>
-    <row r="223" spans="5:12">
+    <row r="223" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E223">
         <v>1105</v>
       </c>
@@ -16148,7 +17732,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="224" spans="5:12">
+    <row r="224" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E224">
         <v>1110</v>
       </c>
@@ -16168,7 +17752,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="225" spans="5:12">
+    <row r="225" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E225">
         <v>1115</v>
       </c>
@@ -16188,7 +17772,7 @@
         <v>167.1</v>
       </c>
     </row>
-    <row r="226" spans="5:12">
+    <row r="226" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E226">
         <v>1120</v>
       </c>
@@ -16208,7 +17792,7 @@
         <v>167.4</v>
       </c>
     </row>
-    <row r="227" spans="5:12">
+    <row r="227" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E227">
         <v>1125</v>
       </c>
@@ -16228,7 +17812,7 @@
         <v>167.1</v>
       </c>
     </row>
-    <row r="228" spans="5:12">
+    <row r="228" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E228">
         <v>1130</v>
       </c>
@@ -16248,7 +17832,7 @@
         <v>167.2</v>
       </c>
     </row>
-    <row r="229" spans="5:12">
+    <row r="229" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E229">
         <v>1135</v>
       </c>
@@ -16268,7 +17852,7 @@
         <v>167.3</v>
       </c>
     </row>
-    <row r="230" spans="5:12">
+    <row r="230" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E230">
         <v>1140</v>
       </c>
@@ -16288,7 +17872,7 @@
         <v>167.4</v>
       </c>
     </row>
-    <row r="231" spans="5:12">
+    <row r="231" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E231">
         <v>1145</v>
       </c>
@@ -16308,7 +17892,7 @@
         <v>167.1</v>
       </c>
     </row>
-    <row r="232" spans="5:12">
+    <row r="232" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E232">
         <v>1150</v>
       </c>
@@ -16328,7 +17912,7 @@
         <v>167.7</v>
       </c>
     </row>
-    <row r="233" spans="5:12">
+    <row r="233" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E233">
         <v>1155</v>
       </c>
@@ -16348,7 +17932,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="234" spans="5:12">
+    <row r="234" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E234">
         <v>1160</v>
       </c>
@@ -16368,7 +17952,7 @@
         <v>167.6</v>
       </c>
     </row>
-    <row r="235" spans="5:12">
+    <row r="235" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E235">
         <v>1165</v>
       </c>
@@ -16388,7 +17972,7 @@
         <v>167.9</v>
       </c>
     </row>
-    <row r="236" spans="5:12">
+    <row r="236" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E236">
         <v>1170</v>
       </c>
@@ -16408,7 +17992,7 @@
         <v>168.1</v>
       </c>
     </row>
-    <row r="237" spans="5:12">
+    <row r="237" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E237">
         <v>1175</v>
       </c>
@@ -16428,7 +18012,7 @@
         <v>167.8</v>
       </c>
     </row>
-    <row r="238" spans="5:12">
+    <row r="238" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E238">
         <v>1180</v>
       </c>
@@ -16448,7 +18032,7 @@
         <v>168.1</v>
       </c>
     </row>
-    <row r="239" spans="5:12">
+    <row r="239" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E239">
         <v>1185</v>
       </c>
@@ -16468,7 +18052,7 @@
         <v>168.3</v>
       </c>
     </row>
-    <row r="240" spans="5:12">
+    <row r="240" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E240">
         <v>1190</v>
       </c>
@@ -16488,7 +18072,7 @@
         <v>168.7</v>
       </c>
     </row>
-    <row r="241" spans="5:12">
+    <row r="241" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E241">
         <v>1195</v>
       </c>
@@ -16508,7 +18092,7 @@
         <v>168.5</v>
       </c>
     </row>
-    <row r="242" spans="5:12">
+    <row r="242" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E242">
         <v>1200</v>
       </c>
@@ -16528,7 +18112,7 @@
         <v>168.4</v>
       </c>
     </row>
-    <row r="243" spans="5:12">
+    <row r="243" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E243">
         <v>1205</v>
       </c>
@@ -16548,7 +18132,7 @@
         <v>168.6</v>
       </c>
     </row>
-    <row r="244" spans="5:12">
+    <row r="244" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E244">
         <v>1210</v>
       </c>
@@ -16568,7 +18152,7 @@
         <v>168.6</v>
       </c>
     </row>
-    <row r="245" spans="5:12">
+    <row r="245" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E245">
         <v>1215</v>
       </c>
@@ -16588,7 +18172,7 @@
         <v>168.7</v>
       </c>
     </row>
-    <row r="246" spans="5:12">
+    <row r="246" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E246">
         <v>1220</v>
       </c>
@@ -16608,7 +18192,7 @@
         <v>169.1</v>
       </c>
     </row>
-    <row r="247" spans="5:12">
+    <row r="247" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E247">
         <v>1225</v>
       </c>
@@ -16628,7 +18212,7 @@
         <v>169.2</v>
       </c>
     </row>
-    <row r="248" spans="5:12">
+    <row r="248" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E248">
         <v>1230</v>
       </c>
@@ -16648,7 +18232,7 @@
         <v>168.9</v>
       </c>
     </row>
-    <row r="249" spans="5:12">
+    <row r="249" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E249">
         <v>1235</v>
       </c>
@@ -16668,7 +18252,7 @@
         <v>169.4</v>
       </c>
     </row>
-    <row r="250" spans="5:12">
+    <row r="250" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E250">
         <v>1240</v>
       </c>
@@ -16688,7 +18272,7 @@
         <v>169.4</v>
       </c>
     </row>
-    <row r="251" spans="5:12">
+    <row r="251" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E251">
         <v>1245</v>
       </c>
@@ -16708,7 +18292,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="252" spans="5:12">
+    <row r="252" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E252">
         <v>1250</v>
       </c>
@@ -16728,7 +18312,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="253" spans="5:12">
+    <row r="253" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E253">
         <v>1255</v>
       </c>
@@ -16748,7 +18332,7 @@
         <v>169.3</v>
       </c>
     </row>
-    <row r="254" spans="5:12">
+    <row r="254" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E254">
         <v>1260</v>
       </c>
@@ -16768,7 +18352,7 @@
         <v>169.2</v>
       </c>
     </row>
-    <row r="255" spans="5:12">
+    <row r="255" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E255">
         <v>1265</v>
       </c>
@@ -16788,7 +18372,7 @@
         <v>169.6</v>
       </c>
     </row>
-    <row r="256" spans="5:12">
+    <row r="256" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E256">
         <v>1270</v>
       </c>
@@ -16808,7 +18392,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="257" spans="5:12">
+    <row r="257" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E257">
         <v>1275</v>
       </c>
@@ -16828,7 +18412,7 @@
         <v>169.3</v>
       </c>
     </row>
-    <row r="258" spans="5:12">
+    <row r="258" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E258">
         <v>1280</v>
       </c>
@@ -16842,7 +18426,7 @@
         <v>169.6</v>
       </c>
     </row>
-    <row r="259" spans="5:12">
+    <row r="259" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E259">
         <v>1285</v>
       </c>
@@ -16856,7 +18440,7 @@
         <v>169.4</v>
       </c>
     </row>
-    <row r="260" spans="5:12">
+    <row r="260" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E260">
         <v>1290</v>
       </c>
@@ -16870,7 +18454,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="261" spans="5:12">
+    <row r="261" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E261">
         <v>1295</v>
       </c>
@@ -16884,7 +18468,7 @@
         <v>169.7</v>
       </c>
     </row>
-    <row r="262" spans="5:12">
+    <row r="262" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E262">
         <v>1300</v>
       </c>
@@ -16898,7 +18482,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="263" spans="5:12">
+    <row r="263" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E263">
         <v>1305</v>
       </c>
@@ -16912,7 +18496,7 @@
         <v>169.6</v>
       </c>
     </row>
-    <row r="264" spans="5:12">
+    <row r="264" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E264">
         <v>1310</v>
       </c>
@@ -16926,7 +18510,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="265" spans="5:12">
+    <row r="265" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E265">
         <v>1315</v>
       </c>
@@ -16940,7 +18524,7 @@
         <v>169.7</v>
       </c>
     </row>
-    <row r="266" spans="5:12">
+    <row r="266" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E266">
         <v>1320</v>
       </c>
@@ -16954,7 +18538,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="267" spans="5:12">
+    <row r="267" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E267">
         <v>1325</v>
       </c>
@@ -16968,7 +18552,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="268" spans="5:12">
+    <row r="268" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E268">
         <v>1330</v>
       </c>
@@ -16982,7 +18566,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="269" spans="5:12">
+    <row r="269" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E269">
         <v>1335</v>
       </c>
@@ -16996,7 +18580,7 @@
         <v>169.7</v>
       </c>
     </row>
-    <row r="270" spans="5:12">
+    <row r="270" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E270">
         <v>1340</v>
       </c>
@@ -17010,7 +18594,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="271" spans="5:12">
+    <row r="271" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E271">
         <v>1345</v>
       </c>
@@ -17024,7 +18608,7 @@
         <v>169.7</v>
       </c>
     </row>
-    <row r="272" spans="5:12">
+    <row r="272" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E272">
         <v>1350</v>
       </c>
@@ -17038,7 +18622,7 @@
         <v>169.4</v>
       </c>
     </row>
-    <row r="273" spans="5:12">
+    <row r="273" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E273">
         <v>1355</v>
       </c>
@@ -17052,7 +18636,7 @@
         <v>169.6</v>
       </c>
     </row>
-    <row r="274" spans="5:12">
+    <row r="274" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E274">
         <v>1360</v>
       </c>
@@ -17066,7 +18650,7 @@
         <v>169.7</v>
       </c>
     </row>
-    <row r="275" spans="5:12">
+    <row r="275" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E275">
         <v>1365</v>
       </c>
@@ -17080,7 +18664,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="276" spans="5:12">
+    <row r="276" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E276">
         <v>1370</v>
       </c>
@@ -17094,7 +18678,7 @@
         <v>169.7</v>
       </c>
     </row>
-    <row r="277" spans="5:12">
+    <row r="277" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E277">
         <v>1375</v>
       </c>
@@ -17108,7 +18692,7 @@
         <v>170.1</v>
       </c>
     </row>
-    <row r="278" spans="5:12">
+    <row r="278" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E278">
         <v>1380</v>
       </c>
@@ -17122,7 +18706,7 @@
         <v>170.1</v>
       </c>
     </row>
-    <row r="279" spans="5:12">
+    <row r="279" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E279">
         <v>1385</v>
       </c>
@@ -17136,7 +18720,7 @@
         <v>169.7</v>
       </c>
     </row>
-    <row r="280" spans="5:12">
+    <row r="280" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E280">
         <v>1390</v>
       </c>
@@ -17150,7 +18734,7 @@
         <v>170.2</v>
       </c>
     </row>
-    <row r="281" spans="5:12">
+    <row r="281" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E281">
         <v>1395</v>
       </c>
@@ -17164,7 +18748,7 @@
         <v>170.1</v>
       </c>
     </row>
-    <row r="282" spans="5:12">
+    <row r="282" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E282">
         <v>1400</v>
       </c>
@@ -17178,7 +18762,7 @@
         <v>170.2</v>
       </c>
     </row>
-    <row r="283" spans="5:12">
+    <row r="283" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E283">
         <v>1405</v>
       </c>
@@ -17192,7 +18776,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="284" spans="5:12">
+    <row r="284" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E284">
         <v>1410</v>
       </c>
@@ -17206,7 +18790,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="285" spans="5:12">
+    <row r="285" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E285">
         <v>1415</v>
       </c>
@@ -17220,7 +18804,7 @@
         <v>170.6</v>
       </c>
     </row>
-    <row r="286" spans="5:12">
+    <row r="286" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E286">
         <v>1420</v>
       </c>
@@ -17234,7 +18818,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="287" spans="5:12">
+    <row r="287" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E287">
         <v>1425</v>
       </c>
@@ -17248,7 +18832,7 @@
         <v>170.3</v>
       </c>
     </row>
-    <row r="288" spans="5:12">
+    <row r="288" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E288">
         <v>1430</v>
       </c>
@@ -17262,7 +18846,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="289" spans="5:12">
+    <row r="289" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E289">
         <v>1435</v>
       </c>
@@ -17276,7 +18860,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="290" spans="5:12">
+    <row r="290" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E290">
         <v>1440</v>
       </c>
@@ -17290,7 +18874,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="291" spans="5:12">
+    <row r="291" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E291">
         <v>1445</v>
       </c>
@@ -17304,7 +18888,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="292" spans="5:12">
+    <row r="292" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E292">
         <v>1450</v>
       </c>
@@ -17318,7 +18902,7 @@
         <v>170.9</v>
       </c>
     </row>
-    <row r="293" spans="5:12">
+    <row r="293" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E293">
         <v>1455</v>
       </c>
@@ -17332,7 +18916,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="294" spans="5:12">
+    <row r="294" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E294">
         <v>1460</v>
       </c>
@@ -17346,7 +18930,7 @@
         <v>170.8</v>
       </c>
     </row>
-    <row r="295" spans="5:12">
+    <row r="295" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E295">
         <v>1465</v>
       </c>
@@ -17360,7 +18944,7 @@
         <v>171.3</v>
       </c>
     </row>
-    <row r="296" spans="5:12">
+    <row r="296" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E296">
         <v>1470</v>
       </c>
@@ -17374,7 +18958,7 @@
         <v>171.4</v>
       </c>
     </row>
-    <row r="297" spans="5:12">
+    <row r="297" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E297">
         <v>1475</v>
       </c>
@@ -17388,7 +18972,7 @@
         <v>171.1</v>
       </c>
     </row>
-    <row r="298" spans="5:12">
+    <row r="298" spans="5:12" x14ac:dyDescent="0.25">
       <c r="K298">
         <v>1480</v>
       </c>
@@ -17396,7 +18980,7 @@
         <v>171.4</v>
       </c>
     </row>
-    <row r="299" spans="5:12">
+    <row r="299" spans="5:12" x14ac:dyDescent="0.25">
       <c r="K299">
         <v>1485</v>
       </c>
@@ -17404,7 +18988,7 @@
         <v>171.3</v>
       </c>
     </row>
-    <row r="300" spans="5:12">
+    <row r="300" spans="5:12" x14ac:dyDescent="0.25">
       <c r="K300">
         <v>1490</v>
       </c>
@@ -17412,7 +18996,7 @@
         <v>171.6</v>
       </c>
     </row>
-    <row r="301" spans="5:12">
+    <row r="301" spans="5:12" x14ac:dyDescent="0.25">
       <c r="K301">
         <v>1495</v>
       </c>
@@ -17420,7 +19004,7 @@
         <v>171.1</v>
       </c>
     </row>
-    <row r="302" spans="5:12">
+    <row r="302" spans="5:12" x14ac:dyDescent="0.25">
       <c r="K302">
         <v>1500</v>
       </c>
@@ -17428,7 +19012,7 @@
         <v>171.2</v>
       </c>
     </row>
-    <row r="303" spans="5:12">
+    <row r="303" spans="5:12" x14ac:dyDescent="0.25">
       <c r="K303">
         <v>1505</v>
       </c>
@@ -17436,7 +19020,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="304" spans="5:12">
+    <row r="304" spans="5:12" x14ac:dyDescent="0.25">
       <c r="K304">
         <v>1510</v>
       </c>
@@ -17444,7 +19028,7 @@
         <v>171.3</v>
       </c>
     </row>
-    <row r="305" spans="11:12">
+    <row r="305" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K305">
         <v>1515</v>
       </c>
@@ -17452,7 +19036,7 @@
         <v>171.6</v>
       </c>
     </row>
-    <row r="306" spans="11:12">
+    <row r="306" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K306">
         <v>1520</v>
       </c>
@@ -17460,7 +19044,7 @@
         <v>171.6</v>
       </c>
     </row>
-    <row r="307" spans="11:12">
+    <row r="307" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K307">
         <v>1525</v>
       </c>
@@ -17468,7 +19052,7 @@
         <v>171.4</v>
       </c>
     </row>
-    <row r="308" spans="11:12">
+    <row r="308" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K308">
         <v>1530</v>
       </c>
@@ -17476,7 +19060,7 @@
         <v>171.4</v>
       </c>
     </row>
-    <row r="309" spans="11:12">
+    <row r="309" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K309">
         <v>1535</v>
       </c>
@@ -17484,7 +19068,7 @@
         <v>171.7</v>
       </c>
     </row>
-    <row r="310" spans="11:12">
+    <row r="310" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K310">
         <v>1540</v>
       </c>
@@ -17492,7 +19076,7 @@
         <v>171.5</v>
       </c>
     </row>
-    <row r="311" spans="11:12">
+    <row r="311" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K311">
         <v>1545</v>
       </c>
@@ -17500,7 +19084,7 @@
         <v>172.1</v>
       </c>
     </row>
-    <row r="312" spans="11:12">
+    <row r="312" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K312">
         <v>1550</v>
       </c>
@@ -17508,7 +19092,7 @@
         <v>171.6</v>
       </c>
     </row>
-    <row r="313" spans="11:12">
+    <row r="313" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K313">
         <v>1555</v>
       </c>
@@ -17516,7 +19100,7 @@
         <v>171.5</v>
       </c>
     </row>
-    <row r="314" spans="11:12">
+    <row r="314" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K314">
         <v>1560</v>
       </c>
@@ -17524,7 +19108,7 @@
         <v>171.4</v>
       </c>
     </row>
-    <row r="315" spans="11:12">
+    <row r="315" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K315">
         <v>1565</v>
       </c>
@@ -17532,7 +19116,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="316" spans="11:12">
+    <row r="316" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K316">
         <v>1570</v>
       </c>
@@ -17540,7 +19124,7 @@
         <v>171.7</v>
       </c>
     </row>
-    <row r="317" spans="11:12">
+    <row r="317" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K317">
         <v>1575</v>
       </c>
@@ -17548,7 +19132,7 @@
         <v>172.2</v>
       </c>
     </row>
-    <row r="318" spans="11:12">
+    <row r="318" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K318">
         <v>1580</v>
       </c>
@@ -17556,7 +19140,7 @@
         <v>171.9</v>
       </c>
     </row>
-    <row r="319" spans="11:12">
+    <row r="319" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K319">
         <v>1585</v>
       </c>
@@ -17564,7 +19148,7 @@
         <v>171.7</v>
       </c>
     </row>
-    <row r="320" spans="11:12">
+    <row r="320" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K320">
         <v>1590</v>
       </c>
@@ -17572,7 +19156,7 @@
         <v>172.2</v>
       </c>
     </row>
-    <row r="321" spans="11:12">
+    <row r="321" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K321">
         <v>1595</v>
       </c>
@@ -17580,7 +19164,7 @@
         <v>171.9</v>
       </c>
     </row>
-    <row r="322" spans="11:12">
+    <row r="322" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K322">
         <v>1600</v>
       </c>
@@ -17588,7 +19172,7 @@
         <v>172.2</v>
       </c>
     </row>
-    <row r="323" spans="11:12">
+    <row r="323" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K323">
         <v>1605</v>
       </c>
@@ -17596,7 +19180,7 @@
         <v>172.3</v>
       </c>
     </row>
-    <row r="324" spans="11:12">
+    <row r="324" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K324">
         <v>1610</v>
       </c>
@@ -17604,7 +19188,7 @@
         <v>172.2</v>
       </c>
     </row>
-    <row r="325" spans="11:12">
+    <row r="325" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K325">
         <v>1615</v>
       </c>
@@ -17612,7 +19196,7 @@
         <v>172.3</v>
       </c>
     </row>
-    <row r="326" spans="11:12">
+    <row r="326" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K326">
         <v>1620</v>
       </c>
@@ -17620,7 +19204,7 @@
         <v>172.3</v>
       </c>
     </row>
-    <row r="327" spans="11:12">
+    <row r="327" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K327">
         <v>1625</v>
       </c>
@@ -17628,7 +19212,7 @@
         <v>172.4</v>
       </c>
     </row>
-    <row r="328" spans="11:12">
+    <row r="328" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K328">
         <v>1630</v>
       </c>
@@ -17636,7 +19220,7 @@
         <v>172.4</v>
       </c>
     </row>
-    <row r="329" spans="11:12">
+    <row r="329" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K329">
         <v>1635</v>
       </c>
@@ -17644,7 +19228,7 @@
         <v>172.4</v>
       </c>
     </row>
-    <row r="330" spans="11:12">
+    <row r="330" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K330">
         <v>1640</v>
       </c>
@@ -17652,7 +19236,7 @@
         <v>172.4</v>
       </c>
     </row>
-    <row r="331" spans="11:12">
+    <row r="331" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K331">
         <v>1645</v>
       </c>
@@ -17660,7 +19244,7 @@
         <v>172.3</v>
       </c>
     </row>
-    <row r="332" spans="11:12">
+    <row r="332" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K332">
         <v>1650</v>
       </c>
@@ -17668,7 +19252,7 @@
         <v>171.9</v>
       </c>
     </row>
-    <row r="333" spans="11:12">
+    <row r="333" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K333">
         <v>1655</v>
       </c>
@@ -17676,7 +19260,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="334" spans="11:12">
+    <row r="334" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K334">
         <v>1660</v>
       </c>
@@ -17684,7 +19268,7 @@
         <v>172.4</v>
       </c>
     </row>
-    <row r="335" spans="11:12">
+    <row r="335" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K335">
         <v>1665</v>
       </c>
@@ -17692,7 +19276,7 @@
         <v>172.6</v>
       </c>
     </row>
-    <row r="336" spans="11:12">
+    <row r="336" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K336">
         <v>1670</v>
       </c>
@@ -17700,7 +19284,7 @@
         <v>172.8</v>
       </c>
     </row>
-    <row r="337" spans="11:12">
+    <row r="337" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K337">
         <v>1675</v>
       </c>
@@ -17708,7 +19292,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="338" spans="11:12">
+    <row r="338" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K338">
         <v>1680</v>
       </c>
@@ -17716,7 +19300,7 @@
         <v>172.3</v>
       </c>
     </row>
-    <row r="339" spans="11:12">
+    <row r="339" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K339">
         <v>1685</v>
       </c>
@@ -17724,7 +19308,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="340" spans="11:12">
+    <row r="340" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K340">
         <v>1690</v>
       </c>
@@ -17732,7 +19316,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="341" spans="11:12">
+    <row r="341" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K341">
         <v>1695</v>
       </c>
@@ -17740,7 +19324,7 @@
         <v>172.6</v>
       </c>
     </row>
-    <row r="342" spans="11:12">
+    <row r="342" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K342">
         <v>1700</v>
       </c>
@@ -17748,7 +19332,7 @@
         <v>172.7</v>
       </c>
     </row>
-    <row r="343" spans="11:12">
+    <row r="343" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K343">
         <v>1705</v>
       </c>
@@ -17756,7 +19340,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="344" spans="11:12">
+    <row r="344" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K344">
         <v>1710</v>
       </c>
@@ -17764,7 +19348,7 @@
         <v>172.8</v>
       </c>
     </row>
-    <row r="345" spans="11:12">
+    <row r="345" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K345">
         <v>1715</v>
       </c>
@@ -17772,7 +19356,7 @@
         <v>172.8</v>
       </c>
     </row>
-    <row r="346" spans="11:12">
+    <row r="346" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K346">
         <v>1720</v>
       </c>
@@ -17780,7 +19364,7 @@
         <v>172.4</v>
       </c>
     </row>
-    <row r="347" spans="11:12">
+    <row r="347" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K347">
         <v>1725</v>
       </c>
@@ -17788,7 +19372,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="348" spans="11:12">
+    <row r="348" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K348">
         <v>1730</v>
       </c>
@@ -17796,7 +19380,7 @@
         <v>172.4</v>
       </c>
     </row>
-    <row r="349" spans="11:12">
+    <row r="349" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K349">
         <v>1735</v>
       </c>
@@ -17804,7 +19388,7 @@
         <v>172.2</v>
       </c>
     </row>
-    <row r="350" spans="11:12">
+    <row r="350" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K350">
         <v>1740</v>
       </c>
@@ -17812,7 +19396,7 @@
         <v>172.3</v>
       </c>
     </row>
-    <row r="351" spans="11:12">
+    <row r="351" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K351">
         <v>1745</v>
       </c>
@@ -17820,7 +19404,7 @@
         <v>172.2</v>
       </c>
     </row>
-    <row r="352" spans="11:12">
+    <row r="352" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K352">
         <v>1750</v>
       </c>
@@ -17828,7 +19412,7 @@
         <v>172.6</v>
       </c>
     </row>
-    <row r="353" spans="11:12">
+    <row r="353" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K353">
         <v>1755</v>
       </c>
@@ -17836,7 +19420,7 @@
         <v>172.6</v>
       </c>
     </row>
-    <row r="354" spans="11:12">
+    <row r="354" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K354">
         <v>1760</v>
       </c>
@@ -17844,7 +19428,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="355" spans="11:12">
+    <row r="355" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K355">
         <v>1765</v>
       </c>
@@ -17852,7 +19436,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="356" spans="11:12">
+    <row r="356" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K356">
         <v>1770</v>
       </c>
@@ -17860,7 +19444,7 @@
         <v>172.3</v>
       </c>
     </row>
-    <row r="357" spans="11:12">
+    <row r="357" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K357">
         <v>1775</v>
       </c>
@@ -17868,7 +19452,7 @@
         <v>172.4</v>
       </c>
     </row>
-    <row r="358" spans="11:12">
+    <row r="358" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K358">
         <v>1780</v>
       </c>
@@ -17876,7 +19460,7 @@
         <v>172.1</v>
       </c>
     </row>
-    <row r="359" spans="11:12">
+    <row r="359" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K359">
         <v>1785</v>
       </c>
@@ -17884,7 +19468,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="360" spans="11:12">
+    <row r="360" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K360">
         <v>1790</v>
       </c>
@@ -17892,7 +19476,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="361" spans="11:12">
+    <row r="361" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K361">
         <v>1795</v>
       </c>
@@ -17900,7 +19484,7 @@
         <v>172.3</v>
       </c>
     </row>
-    <row r="362" spans="11:12">
+    <row r="362" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K362">
         <v>1800</v>
       </c>
@@ -17908,12 +19492,876 @@
         <v>172.1</v>
       </c>
     </row>
-    <row r="363" spans="11:12">
+    <row r="363" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K363">
         <v>1805</v>
       </c>
       <c r="L363">
         <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B2FDB0-54CC-4FBB-B941-81C31DD8CC89}">
+  <dimension ref="A1:B106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="V66" sqref="V66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>199.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>199.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>199.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <v>187.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>65</v>
+      </c>
+      <c r="B18">
+        <v>187.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>65</v>
+      </c>
+      <c r="B19">
+        <v>187.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>187.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <v>187.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>186.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>65</v>
+      </c>
+      <c r="B23">
+        <v>187.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>65</v>
+      </c>
+      <c r="B24">
+        <v>186.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>65</v>
+      </c>
+      <c r="B25">
+        <v>187.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>187.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>65</v>
+      </c>
+      <c r="B27">
+        <v>187.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>65</v>
+      </c>
+      <c r="B28">
+        <v>186.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>188.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>187.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>187.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>176.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>60</v>
+      </c>
+      <c r="B34">
+        <v>176.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>60</v>
+      </c>
+      <c r="B38">
+        <v>176.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>60</v>
+      </c>
+      <c r="B39">
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>60</v>
+      </c>
+      <c r="B40">
+        <v>176.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>176.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>60</v>
+      </c>
+      <c r="B42">
+        <v>175.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <v>176.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>60</v>
+      </c>
+      <c r="B46">
+        <v>176.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>172.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>174.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>173.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>174.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>173.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>174.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>174.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>50</v>
+      </c>
+      <c r="B62">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>50</v>
+      </c>
+      <c r="B64">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>50</v>
+      </c>
+      <c r="B65">
+        <v>172.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>50</v>
+      </c>
+      <c r="B66">
+        <v>172.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>50</v>
+      </c>
+      <c r="B67">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>50</v>
+      </c>
+      <c r="B68">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>50</v>
+      </c>
+      <c r="B69">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>50</v>
+      </c>
+      <c r="B70">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>50</v>
+      </c>
+      <c r="B71">
+        <v>172.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>50</v>
+      </c>
+      <c r="B72">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>50</v>
+      </c>
+      <c r="B73">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>50</v>
+      </c>
+      <c r="B74">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>50</v>
+      </c>
+      <c r="B75">
+        <v>172.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>50</v>
+      </c>
+      <c r="B76">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>45</v>
+      </c>
+      <c r="B77">
+        <v>164.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>45</v>
+      </c>
+      <c r="B78">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>45</v>
+      </c>
+      <c r="B79">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>45</v>
+      </c>
+      <c r="B80">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>45</v>
+      </c>
+      <c r="B81">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>45</v>
+      </c>
+      <c r="B82">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>45</v>
+      </c>
+      <c r="B83">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>45</v>
+      </c>
+      <c r="B84">
+        <v>163.30000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>45</v>
+      </c>
+      <c r="B85">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>45</v>
+      </c>
+      <c r="B86">
+        <v>162.80000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>45</v>
+      </c>
+      <c r="B87">
+        <v>161.80000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>45</v>
+      </c>
+      <c r="B88">
+        <v>162.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>45</v>
+      </c>
+      <c r="B89">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>45</v>
+      </c>
+      <c r="B90">
+        <v>162.30000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>45</v>
+      </c>
+      <c r="B91">
+        <v>162.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>35</v>
+      </c>
+      <c r="B92">
+        <v>144.80000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>35</v>
+      </c>
+      <c r="B93">
+        <v>144.69999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>35</v>
+      </c>
+      <c r="B94">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>35</v>
+      </c>
+      <c r="B95">
+        <v>145.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>35</v>
+      </c>
+      <c r="B96">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>35</v>
+      </c>
+      <c r="B97">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>35</v>
+      </c>
+      <c r="B98">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>35</v>
+      </c>
+      <c r="B99">
+        <v>144.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>35</v>
+      </c>
+      <c r="B100">
+        <v>144.30000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>35</v>
+      </c>
+      <c r="B101">
+        <v>143.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>35</v>
+      </c>
+      <c r="B102">
+        <v>143.69999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>35</v>
+      </c>
+      <c r="B103">
+        <v>144.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>35</v>
+      </c>
+      <c r="B104">
+        <v>143.19999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>35</v>
+      </c>
+      <c r="B105">
+        <v>143.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>35</v>
+      </c>
+      <c r="B106">
+        <v>143.80000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -17932,12 +20380,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100775B14D8560A0D4FA3234C01EB99897D" ma:contentTypeVersion="11" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="4535e712b31bbbb5920fb1760cbc98ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="23d84009-2fcf-4655-b1a0-1eeec5ebcc7a" xmlns:ns4="1f29ec9b-ac15-475b-91af-271c2b720820" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fb50671c9765ddf69cad4dc800c055e" ns3:_="" ns4:_="">
     <xsd:import namespace="23d84009-2fcf-4655-b1a0-1eeec5ebcc7a"/>
@@ -18146,6 +20588,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58DF3A9C-8D28-449E-B6DE-8A6AE8CF3D45}">
   <ds:schemaRefs>
@@ -18155,23 +20603,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F5EB18-C846-434C-87C9-AFFDF4A53335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="23d84009-2fcf-4655-b1a0-1eeec5ebcc7a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1f29ec9b-ac15-475b-91af-271c2b720820"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CFEC032-A9D1-4BE1-ADA5-7B2848CED932}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18188,4 +20619,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F5EB18-C846-434C-87C9-AFFDF4A53335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="23d84009-2fcf-4655-b1a0-1eeec5ebcc7a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1f29ec9b-ac15-475b-91af-271c2b720820"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
+++ b/Moduler/Uimplementeret moduler/PandeMekanik/Modultest/Varmelegeme_steprespons/varmelegeme_maalinger.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\GitHub\Pandekage-tastrofe\Moduler\Uimplementeret moduler\PandeMekanik\Modultest\Varmelegeme_steprespons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904A68CC-3CA4-4203-9806-23594496BCDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5448CD3D-017F-4D0E-A41E-CDFDC40DA02A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{7FB17CDE-9607-435E-9AA5-DF80C5DE3E68}"/>
+    <workbookView xWindow="7800" yWindow="7800" windowWidth="43200" windowHeight="23535" activeTab="1" xr2:uid="{7FB17CDE-9607-435E-9AA5-DF80C5DE3E68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Temp60</t>
   </si>
@@ -69,15 +70,46 @@
   <si>
     <t>tempertue</t>
   </si>
+  <si>
+    <r>
+      <t>y = 31.69x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.4275</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,8 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6954,6 +6989,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temperatur afhæning af duty</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> cycle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7043,8 +7108,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.7218941382327208E-2"/>
-                  <c:y val="-0.24271507728200642"/>
+                  <c:x val="1.0161289827663624E-2"/>
+                  <c:y val="-0.12210065170684363"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -7056,7 +7121,7 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -7747,6 +7812,7 @@
         <c:axId val="1273904256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7764,6 +7830,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Duty Cycle [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7826,6 +7947,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Temperatur [C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7914,7 +8090,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -19508,10 +19684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B2FDB0-54CC-4FBB-B941-81C31DD8CC89}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V66" sqref="V66"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20156,7 +20332,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>45</v>
       </c>
@@ -20164,7 +20340,7 @@
         <v>163.5</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>45</v>
       </c>
@@ -20172,15 +20348,18 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>45</v>
       </c>
       <c r="B83">
         <v>163.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W83" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>45</v>
       </c>
@@ -20188,7 +20367,7 @@
         <v>163.30000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>45</v>
       </c>
@@ -20196,7 +20375,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>45</v>
       </c>
@@ -20204,7 +20383,7 @@
         <v>162.80000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>45</v>
       </c>
@@ -20212,7 +20391,7 @@
         <v>161.80000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>45</v>
       </c>
@@ -20220,7 +20399,7 @@
         <v>162.9</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>45</v>
       </c>
@@ -20228,7 +20407,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>45</v>
       </c>
@@ -20236,7 +20415,7 @@
         <v>162.30000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>45</v>
       </c>
@@ -20244,7 +20423,7 @@
         <v>162.6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>35</v>
       </c>
@@ -20252,7 +20431,7 @@
         <v>144.80000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>35</v>
       </c>
@@ -20260,7 +20439,7 @@
         <v>144.69999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>35</v>
       </c>
@@ -20268,7 +20447,7 @@
         <v>144.9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>35</v>
       </c>
@@ -20276,7 +20455,7 @@
         <v>145.1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>35</v>
       </c>
